--- a/WebContent/files/conversion_demo.xlsx
+++ b/WebContent/files/conversion_demo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="1866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="1876">
   <si>
     <t>text</t>
   </si>
@@ -5618,13 +5618,43 @@
   </si>
   <si>
     <t>Provenance collection part</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>http://library.ucsd.edu/ark:/20775/bb1234567x</t>
+  </si>
+  <si>
+    <t>foo.jpg</t>
+  </si>
+  <si>
+    <t>Test object</t>
+  </si>
+  <si>
+    <t>supp.mp3</t>
+  </si>
+  <si>
+    <t>audio-service</t>
+  </si>
+  <si>
+    <t>Narration</t>
+  </si>
+  <si>
+    <t>supp.pdf</t>
+  </si>
+  <si>
+    <t>document-service</t>
+  </si>
+  <si>
+    <t>Wall text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5816,6 +5846,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6156,7 +6202,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -6206,6 +6252,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6263,11 +6315,13 @@
     <xf numFmtId="49" fontId="27" fillId="35" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="55">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -6296,11 +6350,17 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 2" xfId="48"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -73623,6452 +73683,6472 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XJ25"/>
+  <dimension ref="A1:XK12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="38" customWidth="1"/>
-    <col min="6" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="29.5" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="18.5" customWidth="1"/>
-    <col min="25" max="25" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.83203125" customWidth="1"/>
-    <col min="27" max="27" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="40" width="31.1640625" customWidth="1"/>
-    <col min="41" max="41" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="33" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="43" customWidth="1"/>
-    <col min="49" max="49" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="33" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="37" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="38" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="30" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="63" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="33" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="29" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="37" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="34.83203125" customWidth="1"/>
-    <col min="98" max="98" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="33" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="43" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="37" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="41" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="34" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="149" max="150" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="40" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="52.1640625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="28" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="28" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="32.5" customWidth="1"/>
-    <col min="170" max="170" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="36" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="34" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="31" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="31" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="31" customWidth="1"/>
-    <col min="197" max="197" width="43" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="26" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="28" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="30" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="39" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="33" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="32" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="30" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="29" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="39" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="34.83203125" customWidth="1"/>
-    <col min="252" max="252" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="29" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="33" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="43" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="28" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="28" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="31" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="34" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="37" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="38" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="38" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="45.83203125" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="64.6640625" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="330" max="330" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="64.1640625" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="336" max="336" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="342" max="342" width="35" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="344" max="344" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="345" max="345" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="346" max="346" width="34" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="348" max="348" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="350" max="350" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="351" max="351" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="352" max="352" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="39" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="358" max="358" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="361" max="361" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="362" max="362" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="363" max="363" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="364" max="364" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="365" max="365" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="366" max="366" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="367" max="367" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="368" max="368" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="369" max="369" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="370" max="370" width="34" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="372" max="372" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="373" max="373" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="374" max="374" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="375" max="375" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="376" max="376" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="377" max="377" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="378" max="378" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="379" max="379" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="380" max="380" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="381" max="381" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="382" max="382" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="383" max="383" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="384" max="384" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="385" max="385" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="386" max="386" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="387" max="387" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="388" max="388" width="48.1640625" bestFit="1" customWidth="1"/>
-    <col min="389" max="389" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="390" max="390" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="392" max="392" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="393" max="393" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="394" max="394" width="36" bestFit="1" customWidth="1"/>
-    <col min="395" max="395" width="41" bestFit="1" customWidth="1"/>
-    <col min="396" max="396" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="397" max="397" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="398" max="398" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="399" max="399" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="400" max="400" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="401" max="401" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="402" max="402" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="403" max="403" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="404" max="404" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="405" max="405" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="406" max="406" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="407" max="407" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="408" max="408" width="57.5" customWidth="1"/>
-    <col min="409" max="409" width="44" bestFit="1" customWidth="1"/>
-    <col min="410" max="410" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="411" max="411" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="412" max="412" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="413" max="413" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="414" max="414" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="415" max="415" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="416" max="416" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="417" max="417" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="418" max="418" width="32" bestFit="1" customWidth="1"/>
-    <col min="419" max="419" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="420" max="420" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="421" max="421" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="422" max="423" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="424" max="424" width="37" bestFit="1" customWidth="1"/>
-    <col min="425" max="425" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="426" max="426" width="35" bestFit="1" customWidth="1"/>
-    <col min="427" max="427" width="40" bestFit="1" customWidth="1"/>
-    <col min="428" max="428" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="429" max="429" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="430" max="430" width="48.1640625" bestFit="1" customWidth="1"/>
-    <col min="431" max="431" width="55.83203125" bestFit="1" customWidth="1"/>
-    <col min="432" max="432" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="433" max="433" width="35" bestFit="1" customWidth="1"/>
-    <col min="434" max="434" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="435" max="435" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="436" max="436" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="437" max="437" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="438" max="438" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="439" max="439" width="37" bestFit="1" customWidth="1"/>
-    <col min="440" max="440" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="441" max="441" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="442" max="442" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="443" max="443" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="444" max="444" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="445" max="445" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="446" max="446" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="447" max="447" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="448" max="448" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="449" max="449" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="450" max="450" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="451" max="451" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="452" max="452" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="453" max="453" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="454" max="454" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="455" max="455" width="30" bestFit="1" customWidth="1"/>
-    <col min="456" max="456" width="37" bestFit="1" customWidth="1"/>
-    <col min="457" max="457" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="458" max="458" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="459" max="459" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="460" max="460" width="38" bestFit="1" customWidth="1"/>
-    <col min="461" max="461" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="462" max="462" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="463" max="463" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="464" max="464" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="465" max="465" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="466" max="466" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="467" max="467" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="468" max="468" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="469" max="469" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="470" max="470" width="41" bestFit="1" customWidth="1"/>
-    <col min="471" max="471" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="472" max="472" width="32" bestFit="1" customWidth="1"/>
-    <col min="473" max="473" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="474" max="474" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="475" max="475" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="476" max="476" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="477" max="477" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="478" max="478" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="479" max="479" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="480" max="480" width="34" bestFit="1" customWidth="1"/>
-    <col min="481" max="481" width="39" bestFit="1" customWidth="1"/>
-    <col min="482" max="482" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="483" max="483" width="39" bestFit="1" customWidth="1"/>
-    <col min="484" max="484" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="485" max="485" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="486" max="486" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="487" max="487" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="488" max="488" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="489" max="489" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="490" max="490" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="491" max="491" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="492" max="492" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="493" max="493" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="494" max="494" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="495" max="495" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="496" max="496" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="497" max="497" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="498" max="498" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="499" max="499" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="500" max="500" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="501" max="501" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="502" max="502" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="503" max="503" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="504" max="504" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="505" max="505" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="506" max="506" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="507" max="507" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="508" max="508" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="509" max="509" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="510" max="510" width="37" bestFit="1" customWidth="1"/>
-    <col min="511" max="511" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="512" max="512" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="37" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="35" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="526" max="526" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="528" max="528" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="529" max="529" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="530" max="530" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="531" max="531" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="532" max="532" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="533" max="533" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="534" max="534" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="535" max="535" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="536" max="536" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="537" max="537" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="538" max="538" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="539" max="539" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="540" max="540" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="541" max="541" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="542" max="542" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="543" max="543" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="544" max="544" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="545" max="545" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="546" max="546" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="547" max="547" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="548" max="548" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="549" max="549" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="550" max="550" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="551" max="551" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="552" max="552" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="553" max="553" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="554" max="554" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="555" max="555" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="556" max="556" width="35" bestFit="1" customWidth="1"/>
-    <col min="557" max="557" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="558" max="558" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="559" max="559" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="560" max="560" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="561" max="561" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="562" max="562" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="563" max="563" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="564" max="564" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="565" max="565" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="566" max="566" width="33" bestFit="1" customWidth="1"/>
-    <col min="567" max="567" width="34" bestFit="1" customWidth="1"/>
-    <col min="568" max="568" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="569" max="569" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="570" max="570" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="571" max="571" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="572" max="572" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="573" max="573" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="574" max="574" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="575" max="575" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="576" max="576" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="577" max="577" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="578" max="578" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="579" max="579" width="45" bestFit="1" customWidth="1"/>
-    <col min="580" max="580" width="45.83203125" bestFit="1" customWidth="1"/>
-    <col min="581" max="581" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="582" max="582" width="37" bestFit="1" customWidth="1"/>
-    <col min="583" max="583" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="584" max="584" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="585" max="585" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="586" max="586" width="41.6640625" customWidth="1"/>
-    <col min="587" max="587" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="588" max="588" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="589" max="589" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="590" max="590" width="48.1640625" bestFit="1" customWidth="1"/>
-    <col min="591" max="591" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="592" max="592" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="593" max="593" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="594" max="594" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="595" max="595" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="596" max="596" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="597" max="597" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="598" max="598" width="68.5" bestFit="1" customWidth="1"/>
-    <col min="599" max="599" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="600" max="600" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="601" max="601" width="25" bestFit="1" customWidth="1"/>
-    <col min="602" max="602" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="603" max="603" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="604" max="604" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="605" max="605" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="606" max="607" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="608" max="608" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="609" max="609" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="610" max="610" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="611" max="611" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="612" max="612" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="613" max="613" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="614" max="614" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="615" max="615" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="616" max="616" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="617" max="617" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="618" max="618" width="27" bestFit="1" customWidth="1"/>
-    <col min="619" max="619" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="620" max="620" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="621" max="621" width="30" bestFit="1" customWidth="1"/>
-    <col min="622" max="622" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="623" max="623" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="624" max="624" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="625" max="625" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="626" max="626" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="627" max="627" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="628" max="628" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="629" max="629" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="630" max="630" width="31" bestFit="1" customWidth="1"/>
-    <col min="631" max="632" width="31" customWidth="1"/>
-    <col min="633" max="633" width="22" bestFit="1" customWidth="1"/>
-    <col min="634" max="634" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="37" customWidth="1"/>
+    <col min="7" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="29.5" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="25" width="18.5" customWidth="1"/>
+    <col min="26" max="26" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.83203125" customWidth="1"/>
+    <col min="28" max="28" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="41" width="31.1640625" customWidth="1"/>
+    <col min="42" max="42" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="33" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="43" customWidth="1"/>
+    <col min="50" max="50" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="33" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="37" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="38" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="30" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="63" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="33" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="29" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="37" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="34.83203125" customWidth="1"/>
+    <col min="99" max="99" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="33" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="43" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="37" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="41" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="34" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="150" max="151" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="40" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="28" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="28" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="32.5" customWidth="1"/>
+    <col min="171" max="171" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="36" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="34" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="31" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="31" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="31" customWidth="1"/>
+    <col min="198" max="198" width="43" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="26" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="28" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="30" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="39" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="33" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="32" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="30" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="29" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="39" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="34.83203125" customWidth="1"/>
+    <col min="253" max="253" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="29" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="33" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="43" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="28" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="28" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="31" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="34" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="37" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="38" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="51.83203125" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="38" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="64.1640625" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="338" max="338" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="339" max="339" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="35" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="345" max="345" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="346" max="346" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="34" bestFit="1" customWidth="1"/>
+    <col min="348" max="348" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="349" max="349" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="350" max="350" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="351" max="351" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="352" max="352" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="353" max="353" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="39" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="356" max="356" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="358" max="358" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="361" max="361" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="362" max="362" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="363" max="363" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="364" max="364" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="366" max="366" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="367" max="367" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="368" max="368" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="369" max="369" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="34" bestFit="1" customWidth="1"/>
+    <col min="372" max="372" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="373" max="373" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="375" max="375" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="376" max="376" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="377" max="377" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="378" max="378" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="380" max="380" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="381" max="381" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="382" max="382" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="383" max="383" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="384" max="384" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="385" max="385" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="386" max="386" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="387" max="387" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="388" max="388" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="389" max="389" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="390" max="390" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="391" max="391" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="392" max="392" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="393" max="393" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="394" max="394" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="395" max="395" width="36" bestFit="1" customWidth="1"/>
+    <col min="396" max="396" width="41" bestFit="1" customWidth="1"/>
+    <col min="397" max="397" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="398" max="398" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="399" max="399" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="400" max="400" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="401" max="401" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="402" max="402" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="403" max="403" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="404" max="404" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="405" max="405" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="406" max="406" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="407" max="407" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="408" max="408" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="409" max="409" width="57.5" customWidth="1"/>
+    <col min="410" max="410" width="44" bestFit="1" customWidth="1"/>
+    <col min="411" max="411" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="412" max="412" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="413" max="413" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="414" max="414" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="415" max="415" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="416" max="416" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="417" max="417" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="418" max="418" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="419" max="419" width="32" bestFit="1" customWidth="1"/>
+    <col min="420" max="420" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="421" max="421" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="422" max="422" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="423" max="424" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="425" max="425" width="37" bestFit="1" customWidth="1"/>
+    <col min="426" max="426" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="427" max="427" width="35" bestFit="1" customWidth="1"/>
+    <col min="428" max="428" width="40" bestFit="1" customWidth="1"/>
+    <col min="429" max="429" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="430" max="430" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="431" max="431" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="432" max="432" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="433" max="433" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="434" max="434" width="35" bestFit="1" customWidth="1"/>
+    <col min="435" max="435" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="436" max="436" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="437" max="437" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="438" max="438" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="439" max="439" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="440" max="440" width="37" bestFit="1" customWidth="1"/>
+    <col min="441" max="441" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="442" max="442" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="443" max="443" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="444" max="444" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="445" max="445" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="446" max="446" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="447" max="447" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="448" max="448" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="449" max="449" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="450" max="450" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="451" max="451" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="452" max="452" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="453" max="453" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="454" max="454" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="455" max="455" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="456" max="456" width="30" bestFit="1" customWidth="1"/>
+    <col min="457" max="457" width="37" bestFit="1" customWidth="1"/>
+    <col min="458" max="458" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="459" max="459" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="460" max="460" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="461" max="461" width="38" bestFit="1" customWidth="1"/>
+    <col min="462" max="462" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="463" max="463" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="464" max="464" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="465" max="465" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="466" max="466" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="467" max="467" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="468" max="468" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="469" max="469" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="470" max="470" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="471" max="471" width="41" bestFit="1" customWidth="1"/>
+    <col min="472" max="472" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="473" max="473" width="32" bestFit="1" customWidth="1"/>
+    <col min="474" max="474" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="475" max="475" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="476" max="476" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="477" max="477" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="478" max="478" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="479" max="479" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="480" max="480" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="481" max="481" width="34" bestFit="1" customWidth="1"/>
+    <col min="482" max="482" width="39" bestFit="1" customWidth="1"/>
+    <col min="483" max="483" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="484" max="484" width="39" bestFit="1" customWidth="1"/>
+    <col min="485" max="485" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="486" max="486" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="487" max="487" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="488" max="488" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="489" max="489" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="490" max="490" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="491" max="491" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="492" max="492" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="493" max="493" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="494" max="494" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="495" max="495" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="496" max="496" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="497" max="497" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="498" max="498" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="499" max="499" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="500" max="500" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="501" max="501" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="502" max="502" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="503" max="503" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="504" max="504" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="505" max="505" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="506" max="506" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="507" max="507" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="508" max="508" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="509" max="509" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="510" max="510" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="37" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="37" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="35" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="528" max="528" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="529" max="529" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="530" max="530" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="531" max="531" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="532" max="532" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="533" max="533" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="535" max="535" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="536" max="536" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="537" max="537" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="538" max="538" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="539" max="539" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="540" max="540" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="541" max="541" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="542" max="542" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="543" max="543" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="544" max="544" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="545" max="545" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="546" max="546" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="547" max="547" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="548" max="548" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="549" max="549" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="550" max="550" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="551" max="551" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="552" max="552" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="553" max="553" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="554" max="554" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="555" max="555" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="556" max="556" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="557" max="557" width="35" bestFit="1" customWidth="1"/>
+    <col min="558" max="558" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="559" max="559" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="560" max="560" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="561" max="561" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="562" max="562" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="563" max="563" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="564" max="564" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="565" max="565" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="566" max="566" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="567" max="567" width="33" bestFit="1" customWidth="1"/>
+    <col min="568" max="568" width="34" bestFit="1" customWidth="1"/>
+    <col min="569" max="569" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="570" max="570" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="571" max="571" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="572" max="572" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="573" max="573" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="574" max="574" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="575" max="575" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="576" max="576" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="577" max="577" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="578" max="578" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="579" max="579" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="580" max="580" width="45" bestFit="1" customWidth="1"/>
+    <col min="581" max="581" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="582" max="582" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="583" max="583" width="37" bestFit="1" customWidth="1"/>
+    <col min="584" max="584" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="585" max="585" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="586" max="586" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="587" max="587" width="41.6640625" customWidth="1"/>
+    <col min="588" max="588" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="589" max="589" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="590" max="590" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="591" max="591" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="592" max="592" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="593" max="593" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="594" max="594" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="595" max="595" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="596" max="596" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="597" max="597" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="598" max="598" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="599" max="599" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="600" max="600" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="601" max="601" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="602" max="602" width="25" bestFit="1" customWidth="1"/>
+    <col min="603" max="603" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="604" max="604" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="605" max="605" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="606" max="606" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="607" max="608" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="609" max="609" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="610" max="610" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="611" max="611" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="612" max="612" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="613" max="613" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="614" max="614" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="615" max="615" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="616" max="616" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="617" max="617" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="618" max="618" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="619" max="619" width="27" bestFit="1" customWidth="1"/>
+    <col min="620" max="620" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="621" max="621" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="622" max="622" width="30" bestFit="1" customWidth="1"/>
+    <col min="623" max="623" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="624" max="624" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="625" max="625" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="626" max="626" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="627" max="627" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="628" max="628" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="629" max="629" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="630" max="630" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="631" max="631" width="31" bestFit="1" customWidth="1"/>
+    <col min="632" max="633" width="31" customWidth="1"/>
+    <col min="634" max="634" width="22" bestFit="1" customWidth="1"/>
+    <col min="635" max="635" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:634" s="16" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:635" s="16" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>1780</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>1852</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>1816</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>1817</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>1865</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>1821</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>1822</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>1823</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>1824</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>1825</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="V1" s="20" t="s">
         <v>1826</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="W1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="X1" s="20" t="s">
         <v>1827</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="Y1" s="20" t="s">
         <v>1828</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AA1" s="20" t="s">
         <v>1829</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AB1" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AC1" s="20" t="s">
         <v>1847</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
         <v>1848</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AE1" s="20" t="s">
         <v>1849</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AF1" s="20" t="s">
         <v>1830</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AG1" s="20" t="s">
         <v>1806</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AH1" s="20" t="s">
         <v>1831</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AI1" s="20" t="s">
         <v>1832</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AK1" s="20" t="s">
         <v>1833</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="AL1" s="20" t="s">
         <v>1834</v>
       </c>
-      <c r="AL1" s="20" t="s">
+      <c r="AM1" s="20" t="s">
         <v>1835</v>
       </c>
-      <c r="AM1" s="20" t="s">
+      <c r="AN1" s="20" t="s">
         <v>1836</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AO1" s="20" t="s">
         <v>1837</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AP1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>1783</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="CS1" s="3" t="s">
+      <c r="CT1" s="3" t="s">
         <v>1786</v>
       </c>
-      <c r="CT1" s="3" t="s">
+      <c r="CU1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="CU1" s="3" t="s">
+      <c r="CV1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="CV1" s="3" t="s">
+      <c r="CW1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="CW1" s="3" t="s">
+      <c r="CX1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="CX1" s="3" t="s">
+      <c r="CY1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="CY1" s="3" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="CZ1" s="3" t="s">
+      <c r="DA1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="DA1" s="3" t="s">
+      <c r="DB1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="DB1" s="3" t="s">
+      <c r="DC1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="DC1" s="3" t="s">
+      <c r="DD1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="DD1" s="3" t="s">
+      <c r="DE1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="DE1" s="3" t="s">
+      <c r="DF1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="DF1" s="3" t="s">
+      <c r="DG1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="DG1" s="3" t="s">
+      <c r="DH1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="DH1" s="3" t="s">
+      <c r="DI1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="DI1" s="3" t="s">
+      <c r="DJ1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="DJ1" s="3" t="s">
+      <c r="DK1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="DK1" s="3" t="s">
+      <c r="DL1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="DL1" s="3" t="s">
+      <c r="DM1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="DM1" s="3" t="s">
+      <c r="DN1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="DN1" s="3" t="s">
+      <c r="DO1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="DO1" s="3" t="s">
+      <c r="DP1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="DP1" s="3" t="s">
+      <c r="DQ1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="DQ1" s="3" t="s">
+      <c r="DR1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="DR1" s="3" t="s">
+      <c r="DS1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="DS1" s="3" t="s">
+      <c r="DT1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="DT1" s="3" t="s">
+      <c r="DU1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="DU1" s="3" t="s">
+      <c r="DV1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DV1" s="3" t="s">
+      <c r="DW1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="DW1" s="3" t="s">
+      <c r="DX1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="DX1" s="3" t="s">
+      <c r="DY1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="DY1" s="3" t="s">
+      <c r="DZ1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="DZ1" s="3" t="s">
+      <c r="EA1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="EA1" s="3" t="s">
+      <c r="EB1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="EB1" s="3" t="s">
+      <c r="EC1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="EC1" s="3" t="s">
+      <c r="ED1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="ED1" s="3" t="s">
+      <c r="EE1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="EE1" s="3" t="s">
+      <c r="EF1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="EF1" s="3" t="s">
+      <c r="EG1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="EG1" s="3" t="s">
+      <c r="EH1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="EH1" s="3" t="s">
+      <c r="EI1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="EI1" s="3" t="s">
+      <c r="EJ1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="EJ1" s="3" t="s">
+      <c r="EK1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="EK1" s="3" t="s">
+      <c r="EL1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="EL1" s="3" t="s">
+      <c r="EM1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="EM1" s="3" t="s">
+      <c r="EN1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="EN1" s="3" t="s">
+      <c r="EO1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="EO1" s="3" t="s">
+      <c r="EP1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="EP1" s="3" t="s">
+      <c r="EQ1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="EQ1" s="3" t="s">
+      <c r="ER1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="ER1" s="3" t="s">
+      <c r="ES1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="ES1" s="3" t="s">
+      <c r="ET1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="ET1" s="3" t="s">
+      <c r="EU1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="EU1" s="3" t="s">
+      <c r="EV1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="EV1" s="3" t="s">
+      <c r="EW1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="EW1" s="3" t="s">
+      <c r="EX1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="EX1" s="3" t="s">
+      <c r="EY1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="EY1" s="3" t="s">
+      <c r="EZ1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="EZ1" s="3" t="s">
+      <c r="FA1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="FA1" s="3" t="s">
+      <c r="FB1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="FB1" s="3" t="s">
+      <c r="FC1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="FC1" s="3" t="s">
+      <c r="FD1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="FD1" s="3" t="s">
+      <c r="FE1" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="FE1" s="3" t="s">
+      <c r="FF1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="FF1" s="3" t="s">
+      <c r="FG1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="FG1" s="3" t="s">
+      <c r="FH1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="FH1" s="3" t="s">
+      <c r="FI1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="FI1" s="3" t="s">
+      <c r="FJ1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="FJ1" s="3" t="s">
+      <c r="FK1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="FK1" s="3" t="s">
+      <c r="FL1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="FL1" s="3" t="s">
+      <c r="FM1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="FM1" s="3" t="s">
+      <c r="FN1" s="3" t="s">
         <v>1801</v>
       </c>
-      <c r="FN1" s="3" t="s">
+      <c r="FO1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="FO1" s="3" t="s">
+      <c r="FP1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="FP1" s="3" t="s">
+      <c r="FQ1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="FQ1" s="3" t="s">
+      <c r="FR1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="FR1" s="3" t="s">
+      <c r="FS1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="FS1" s="3" t="s">
+      <c r="FT1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="FT1" s="3" t="s">
+      <c r="FU1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="FU1" s="3" t="s">
+      <c r="FV1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="FV1" s="3" t="s">
+      <c r="FW1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="FW1" s="3" t="s">
+      <c r="FX1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="FX1" s="3" t="s">
+      <c r="FY1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="FY1" s="3" t="s">
+      <c r="FZ1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="FZ1" s="3" t="s">
+      <c r="GA1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="GA1" s="3" t="s">
+      <c r="GB1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="GB1" s="3" t="s">
+      <c r="GC1" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="GC1" s="3" t="s">
+      <c r="GD1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="GD1" s="3" t="s">
+      <c r="GE1" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="GE1" s="3" t="s">
+      <c r="GF1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="GF1" s="3" t="s">
+      <c r="GG1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="GG1" s="3" t="s">
+      <c r="GH1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="GH1" s="3" t="s">
+      <c r="GI1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="GI1" s="3" t="s">
+      <c r="GJ1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="GJ1" s="3" t="s">
+      <c r="GK1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="GK1" s="3" t="s">
+      <c r="GL1" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="GL1" s="3" t="s">
+      <c r="GM1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="GM1" s="3" t="s">
+      <c r="GN1" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="GN1" s="3" t="s">
+      <c r="GO1" s="3" t="s">
         <v>1798</v>
       </c>
-      <c r="GO1" s="3" t="s">
+      <c r="GP1" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="GP1" s="3" t="s">
+      <c r="GQ1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="GQ1" s="3" t="s">
+      <c r="GR1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="GR1" s="3" t="s">
+      <c r="GS1" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="GS1" s="3" t="s">
+      <c r="GT1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="GT1" s="3" t="s">
+      <c r="GU1" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="GU1" s="3" t="s">
+      <c r="GV1" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="GV1" s="3" t="s">
+      <c r="GW1" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="GW1" s="3" t="s">
+      <c r="GX1" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="GX1" s="3" t="s">
+      <c r="GY1" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="GY1" s="3" t="s">
+      <c r="GZ1" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="GZ1" s="3" t="s">
+      <c r="HA1" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="HA1" s="3" t="s">
+      <c r="HB1" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="HB1" s="3" t="s">
+      <c r="HC1" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="HC1" s="3" t="s">
+      <c r="HD1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="HD1" s="3" t="s">
+      <c r="HE1" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="HE1" s="3" t="s">
+      <c r="HF1" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="HF1" s="3" t="s">
+      <c r="HG1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="HG1" s="3" t="s">
+      <c r="HH1" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="HH1" s="3" t="s">
+      <c r="HI1" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="HI1" s="3" t="s">
+      <c r="HJ1" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="HJ1" s="3" t="s">
+      <c r="HK1" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="HK1" s="3" t="s">
+      <c r="HL1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="HL1" s="3" t="s">
+      <c r="HM1" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="HM1" s="3" t="s">
+      <c r="HN1" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="HN1" s="3" t="s">
+      <c r="HO1" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="HO1" s="3" t="s">
+      <c r="HP1" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="HP1" s="3" t="s">
+      <c r="HQ1" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="HQ1" s="3" t="s">
+      <c r="HR1" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="HR1" s="3" t="s">
+      <c r="HS1" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="HS1" s="3" t="s">
+      <c r="HT1" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="HT1" s="3" t="s">
+      <c r="HU1" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="HU1" s="3" t="s">
+      <c r="HV1" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="HV1" s="3" t="s">
+      <c r="HW1" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="HW1" s="3" t="s">
+      <c r="HX1" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="HX1" s="3" t="s">
+      <c r="HY1" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="HY1" s="3" t="s">
+      <c r="HZ1" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="HZ1" s="3" t="s">
+      <c r="IA1" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="IA1" s="3" t="s">
+      <c r="IB1" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="IB1" s="3" t="s">
+      <c r="IC1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="IC1" s="3" t="s">
+      <c r="ID1" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="ID1" s="3" t="s">
+      <c r="IE1" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="IE1" s="3" t="s">
+      <c r="IF1" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="IF1" s="3" t="s">
+      <c r="IG1" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="IG1" s="3" t="s">
+      <c r="IH1" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="IH1" s="3" t="s">
+      <c r="II1" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="II1" s="3" t="s">
+      <c r="IJ1" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="IJ1" s="3" t="s">
+      <c r="IK1" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="IK1" s="3" t="s">
+      <c r="IL1" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="IL1" s="3" t="s">
+      <c r="IM1" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="IM1" s="3" t="s">
+      <c r="IN1" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="IN1" s="3" t="s">
+      <c r="IO1" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="IO1" s="3" t="s">
+      <c r="IP1" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="IP1" s="3" t="s">
+      <c r="IQ1" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="IQ1" s="3" t="s">
+      <c r="IR1" s="3" t="s">
         <v>1789</v>
       </c>
-      <c r="IR1" s="3" t="s">
+      <c r="IS1" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="IS1" s="3" t="s">
+      <c r="IT1" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="IT1" s="3" t="s">
+      <c r="IU1" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="IU1" s="3" t="s">
+      <c r="IV1" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="IV1" s="3" t="s">
+      <c r="IW1" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="IW1" s="3" t="s">
+      <c r="IX1" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="IX1" s="3" t="s">
+      <c r="IY1" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="IY1" s="3" t="s">
+      <c r="IZ1" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="IZ1" s="3" t="s">
+      <c r="JA1" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="JA1" s="3" t="s">
+      <c r="JB1" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="JB1" s="3" t="s">
+      <c r="JC1" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="JC1" s="3" t="s">
+      <c r="JD1" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="JD1" s="3" t="s">
+      <c r="JE1" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="JE1" s="3" t="s">
+      <c r="JF1" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="JF1" s="3" t="s">
+      <c r="JG1" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="JG1" s="3" t="s">
+      <c r="JH1" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="JH1" s="3" t="s">
+      <c r="JI1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="JI1" s="3" t="s">
+      <c r="JJ1" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="JJ1" s="3" t="s">
+      <c r="JK1" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="JK1" s="3" t="s">
+      <c r="JL1" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="JL1" s="3" t="s">
+      <c r="JM1" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="JM1" s="3" t="s">
+      <c r="JN1" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="JN1" s="3" t="s">
+      <c r="JO1" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="JO1" s="3" t="s">
+      <c r="JP1" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="JP1" s="3" t="s">
+      <c r="JQ1" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="JQ1" s="3" t="s">
+      <c r="JR1" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="JR1" s="3" t="s">
+      <c r="JS1" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="JS1" s="3" t="s">
+      <c r="JT1" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="JT1" s="3" t="s">
+      <c r="JU1" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="JU1" s="3" t="s">
+      <c r="JV1" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="JV1" s="3" t="s">
+      <c r="JW1" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="JW1" s="3" t="s">
+      <c r="JX1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="JX1" s="3" t="s">
+      <c r="JY1" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="JY1" s="3" t="s">
+      <c r="JZ1" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="JZ1" s="3" t="s">
+      <c r="KA1" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="KA1" s="3" t="s">
+      <c r="KB1" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="KB1" s="3" t="s">
+      <c r="KC1" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="KC1" s="3" t="s">
+      <c r="KD1" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="KD1" s="3" t="s">
+      <c r="KE1" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="KE1" s="3" t="s">
+      <c r="KF1" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="KF1" s="3" t="s">
+      <c r="KG1" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="KG1" s="3" t="s">
+      <c r="KH1" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="KH1" s="3" t="s">
+      <c r="KI1" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="KI1" s="3" t="s">
+      <c r="KJ1" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="KJ1" s="3" t="s">
+      <c r="KK1" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="KK1" s="3" t="s">
+      <c r="KL1" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="KL1" s="3" t="s">
+      <c r="KM1" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="KM1" s="3" t="s">
+      <c r="KN1" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="KN1" s="3" t="s">
+      <c r="KO1" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="KO1" s="3" t="s">
+      <c r="KP1" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="KP1" s="3" t="s">
+      <c r="KQ1" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="KQ1" s="3" t="s">
+      <c r="KR1" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="KR1" s="3" t="s">
+      <c r="KS1" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="KS1" s="3" t="s">
+      <c r="KT1" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="KT1" s="3" t="s">
+      <c r="KU1" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="KU1" s="3" t="s">
+      <c r="KV1" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="KV1" s="3" t="s">
+      <c r="KW1" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="KW1" s="3" t="s">
+      <c r="KX1" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="KX1" s="3" t="s">
+      <c r="KY1" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="KY1" s="3" t="s">
+      <c r="KZ1" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="KZ1" s="3" t="s">
+      <c r="LA1" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="LA1" s="3" t="s">
+      <c r="LB1" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="LB1" s="3" t="s">
+      <c r="LC1" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="LC1" s="3" t="s">
+      <c r="LD1" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="LD1" s="3" t="s">
+      <c r="LE1" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="LE1" s="3" t="s">
+      <c r="LF1" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="LF1" s="3" t="s">
+      <c r="LG1" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="LG1" s="3" t="s">
+      <c r="LH1" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="LH1" s="3" t="s">
+      <c r="LI1" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="LI1" s="3" t="s">
+      <c r="LJ1" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="LJ1" s="3" t="s">
+      <c r="LK1" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="LK1" s="3" t="s">
+      <c r="LL1" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="LL1" s="3" t="s">
+      <c r="LM1" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="LM1" s="3" t="s">
+      <c r="LN1" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="LN1" s="3" t="s">
+      <c r="LO1" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="LO1" s="3" t="s">
+      <c r="LP1" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="LP1" s="3" t="s">
+      <c r="LQ1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="LQ1" s="3" t="s">
+      <c r="LR1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="LR1" s="3" t="s">
+      <c r="LS1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="LS1" s="3" t="s">
+      <c r="LT1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="LT1" s="3" t="s">
+      <c r="LU1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="LU1" s="3" t="s">
+      <c r="LV1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="LV1" s="3" t="s">
+      <c r="LW1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="LW1" s="3" t="s">
+      <c r="LX1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="LX1" s="3" t="s">
+      <c r="LY1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="LY1" s="3" t="s">
+      <c r="LZ1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="LZ1" s="3" t="s">
+      <c r="MA1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="MA1" s="3" t="s">
+      <c r="MB1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="MB1" s="3" t="s">
+      <c r="MC1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="MC1" s="3" t="s">
+      <c r="MD1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="MD1" s="3" t="s">
+      <c r="ME1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="ME1" s="3" t="s">
+      <c r="MF1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="MF1" s="3" t="s">
+      <c r="MG1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="MG1" s="3" t="s">
+      <c r="MH1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="MH1" s="3" t="s">
+      <c r="MI1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="MI1" s="3" t="s">
+      <c r="MJ1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="MJ1" s="3" t="s">
+      <c r="MK1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="MK1" s="3" t="s">
+      <c r="ML1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="ML1" s="3" t="s">
+      <c r="MM1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="MM1" s="3" t="s">
+      <c r="MN1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="MN1" s="3" t="s">
+      <c r="MO1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="MO1" s="3" t="s">
+      <c r="MP1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="MP1" s="3" t="s">
+      <c r="MQ1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="MQ1" s="3" t="s">
+      <c r="MR1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="MR1" s="3" t="s">
+      <c r="MS1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="MS1" s="3" t="s">
+      <c r="MT1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="MT1" s="3" t="s">
+      <c r="MU1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="MU1" s="3" t="s">
+      <c r="MV1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="MV1" s="3" t="s">
+      <c r="MW1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="MW1" s="3" t="s">
+      <c r="MX1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="MX1" s="3" t="s">
+      <c r="MY1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="MY1" s="3" t="s">
+      <c r="MZ1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="MZ1" s="3" t="s">
+      <c r="NA1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="NA1" s="3" t="s">
+      <c r="NB1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="NB1" s="3" t="s">
+      <c r="NC1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="NC1" s="3" t="s">
+      <c r="ND1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="ND1" s="3" t="s">
+      <c r="NE1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="NE1" s="3" t="s">
+      <c r="NF1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="NF1" s="3" t="s">
+      <c r="NG1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="NG1" s="3" t="s">
+      <c r="NH1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="NH1" s="3" t="s">
+      <c r="NI1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="NI1" s="3" t="s">
+      <c r="NJ1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="NJ1" s="3" t="s">
+      <c r="NK1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="NK1" s="3" t="s">
+      <c r="NL1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="NL1" s="3" t="s">
+      <c r="NM1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="NM1" s="3" t="s">
+      <c r="NN1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="NN1" s="3" t="s">
+      <c r="NO1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="NO1" s="3" t="s">
+      <c r="NP1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="NP1" s="3" t="s">
+      <c r="NQ1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="NQ1" s="3" t="s">
+      <c r="NR1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="NR1" s="3" t="s">
+      <c r="NS1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="NS1" s="3" t="s">
+      <c r="NT1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="NT1" s="3" t="s">
+      <c r="NU1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="NU1" s="3" t="s">
+      <c r="NV1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="NV1" s="3" t="s">
+      <c r="NW1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="NW1" s="3" t="s">
+      <c r="NX1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="NX1" s="3" t="s">
+      <c r="NY1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="NY1" s="3" t="s">
+      <c r="NZ1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="NZ1" s="3" t="s">
+      <c r="OA1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="OA1" s="3" t="s">
+      <c r="OB1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="OB1" s="3" t="s">
+      <c r="OC1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="OC1" s="3" t="s">
+      <c r="OD1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="OD1" s="3" t="s">
+      <c r="OE1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="OE1" s="3" t="s">
+      <c r="OF1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="OF1" s="3" t="s">
+      <c r="OG1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="OG1" s="3" t="s">
+      <c r="OH1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="OH1" s="3" t="s">
+      <c r="OI1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="OI1" s="3" t="s">
+      <c r="OJ1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="OJ1" s="3" t="s">
+      <c r="OK1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="OK1" s="3" t="s">
+      <c r="OL1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="OL1" s="3" t="s">
+      <c r="OM1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="OM1" s="3" t="s">
+      <c r="ON1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="ON1" s="3" t="s">
+      <c r="OO1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="OO1" s="3" t="s">
+      <c r="OP1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="OP1" s="3" t="s">
+      <c r="OQ1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="OQ1" s="3" t="s">
+      <c r="OR1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="OR1" s="3" t="s">
+      <c r="OS1" s="3" t="s">
         <v>1790</v>
       </c>
-      <c r="OS1" s="3" t="s">
+      <c r="OT1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="OT1" s="3" t="s">
+      <c r="OU1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="OU1" s="3" t="s">
+      <c r="OV1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="OV1" s="3" t="s">
+      <c r="OW1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="OW1" s="3" t="s">
+      <c r="OX1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="OX1" s="3" t="s">
+      <c r="OY1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="OY1" s="3" t="s">
+      <c r="OZ1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="OZ1" s="3" t="s">
+      <c r="PA1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="PA1" s="3" t="s">
+      <c r="PB1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="PB1" s="3" t="s">
+      <c r="PC1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="PC1" s="3" t="s">
+      <c r="PD1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="PD1" s="3" t="s">
+      <c r="PE1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="PE1" s="3" t="s">
+      <c r="PF1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="PF1" s="3" t="s">
+      <c r="PG1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="PG1" s="3" t="s">
+      <c r="PH1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="PH1" s="3" t="s">
+      <c r="PI1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="PI1" s="3" t="s">
+      <c r="PJ1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="PJ1" s="3" t="s">
+      <c r="PK1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="PK1" s="3" t="s">
+      <c r="PL1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="PL1" s="3" t="s">
+      <c r="PM1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="PM1" s="3" t="s">
+      <c r="PN1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="PN1" s="3" t="s">
+      <c r="PO1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="PO1" s="3" t="s">
+      <c r="PP1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="PP1" s="3" t="s">
+      <c r="PQ1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="PQ1" s="3" t="s">
+      <c r="PR1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="PR1" s="3" t="s">
+      <c r="PS1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="PS1" s="3" t="s">
+      <c r="PT1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="PT1" s="3" t="s">
+      <c r="PU1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="PU1" s="3" t="s">
+      <c r="PV1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="PV1" s="3" t="s">
+      <c r="PW1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="PW1" s="3" t="s">
+      <c r="PX1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="PX1" s="3" t="s">
+      <c r="PY1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="PY1" s="3" t="s">
+      <c r="PZ1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="PZ1" s="3" t="s">
+      <c r="QA1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="QA1" s="3" t="s">
+      <c r="QB1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="QB1" s="3" t="s">
+      <c r="QC1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="QC1" s="3" t="s">
+      <c r="QD1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="QD1" s="3" t="s">
+      <c r="QE1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="QE1" s="3" t="s">
+      <c r="QF1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="QF1" s="3" t="s">
+      <c r="QG1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="QG1" s="3" t="s">
+      <c r="QH1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="QH1" s="3" t="s">
+      <c r="QI1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="QI1" s="3" t="s">
+      <c r="QJ1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="QJ1" s="3" t="s">
+      <c r="QK1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="QK1" s="3" t="s">
+      <c r="QL1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="QL1" s="3" t="s">
+      <c r="QM1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="QM1" s="3" t="s">
+      <c r="QN1" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="QN1" s="3" t="s">
+      <c r="QO1" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="QO1" s="3" t="s">
+      <c r="QP1" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="QP1" s="3" t="s">
+      <c r="QQ1" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="QQ1" s="3" t="s">
+      <c r="QR1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="QR1" s="3" t="s">
+      <c r="QS1" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="QS1" s="3" t="s">
+      <c r="QT1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="QT1" s="3" t="s">
+      <c r="QU1" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="QU1" s="3" t="s">
+      <c r="QV1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="QV1" s="3" t="s">
+      <c r="QW1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="QW1" s="3" t="s">
+      <c r="QX1" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="QX1" s="3" t="s">
+      <c r="QY1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="QY1" s="3" t="s">
+      <c r="QZ1" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="QZ1" s="3" t="s">
+      <c r="RA1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="RA1" s="3" t="s">
+      <c r="RB1" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="RB1" s="3" t="s">
+      <c r="RC1" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="RC1" s="3" t="s">
+      <c r="RD1" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="RD1" s="3" t="s">
+      <c r="RE1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="RE1" s="3" t="s">
+      <c r="RF1" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="RF1" s="3" t="s">
+      <c r="RG1" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="RG1" s="3" t="s">
+      <c r="RH1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="RH1" s="3" t="s">
+      <c r="RI1" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="RI1" s="3" t="s">
+      <c r="RJ1" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="RJ1" s="3" t="s">
+      <c r="RK1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="RK1" s="3" t="s">
+      <c r="RL1" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="RL1" s="3" t="s">
+      <c r="RM1" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="RM1" s="3" t="s">
+      <c r="RN1" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="RN1" s="3" t="s">
+      <c r="RO1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="RO1" s="3" t="s">
+      <c r="RP1" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="RP1" s="3" t="s">
+      <c r="RQ1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="RQ1" s="3" t="s">
+      <c r="RR1" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="RR1" s="3" t="s">
+      <c r="RS1" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="RS1" s="3" t="s">
+      <c r="RT1" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="RT1" s="3" t="s">
+      <c r="RU1" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="RU1" s="3" t="s">
+      <c r="RV1" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="RV1" s="3" t="s">
+      <c r="RW1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="RW1" s="3" t="s">
+      <c r="RX1" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="RX1" s="3" t="s">
+      <c r="RY1" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="RY1" s="3" t="s">
+      <c r="RZ1" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="RZ1" s="3" t="s">
+      <c r="SA1" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="SA1" s="3" t="s">
+      <c r="SB1" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="SB1" s="3" t="s">
+      <c r="SC1" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="SC1" s="3" t="s">
+      <c r="SD1" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="SD1" s="3" t="s">
+      <c r="SE1" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="SE1" s="3" t="s">
+      <c r="SF1" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="SF1" s="3" t="s">
+      <c r="SG1" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="SG1" s="3" t="s">
+      <c r="SH1" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="SH1" s="3" t="s">
+      <c r="SI1" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="SI1" s="3" t="s">
+      <c r="SJ1" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="SJ1" s="3" t="s">
+      <c r="SK1" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="SK1" s="3" t="s">
+      <c r="SL1" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="SL1" s="3" t="s">
+      <c r="SM1" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="SM1" s="3" t="s">
+      <c r="SN1" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="SN1" s="3" t="s">
+      <c r="SO1" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="SO1" s="3" t="s">
+      <c r="SP1" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="SP1" s="3" t="s">
+      <c r="SQ1" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="SQ1" s="3" t="s">
+      <c r="SR1" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="SR1" s="3" t="s">
+      <c r="SS1" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="SS1" s="3" t="s">
+      <c r="ST1" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="ST1" s="3" t="s">
+      <c r="SU1" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="SU1" s="3" t="s">
+      <c r="SV1" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="SV1" s="3" t="s">
+      <c r="SW1" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="SW1" s="3" t="s">
+      <c r="SX1" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="SX1" s="3" t="s">
+      <c r="SY1" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="SY1" s="3" t="s">
+      <c r="SZ1" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="SZ1" s="3" t="s">
+      <c r="TA1" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="TA1" s="3" t="s">
+      <c r="TB1" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="TB1" s="3" t="s">
+      <c r="TC1" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="TC1" s="3" t="s">
+      <c r="TD1" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="TD1" s="3" t="s">
+      <c r="TE1" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="TE1" s="3" t="s">
+      <c r="TF1" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="TF1" s="3" t="s">
+      <c r="TG1" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="TG1" s="3" t="s">
+      <c r="TH1" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="TH1" s="3" t="s">
+      <c r="TI1" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="TI1" s="3" t="s">
+      <c r="TJ1" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="TJ1" s="3" t="s">
+      <c r="TK1" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="TK1" s="3" t="s">
+      <c r="TL1" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="TL1" s="3" t="s">
+      <c r="TM1" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="TM1" s="3" t="s">
+      <c r="TN1" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="TN1" s="3" t="s">
+      <c r="TO1" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="TO1" s="3" t="s">
+      <c r="TP1" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="TP1" s="3" t="s">
+      <c r="TQ1" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="TQ1" s="3" t="s">
+      <c r="TR1" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="TR1" s="3" t="s">
+      <c r="TS1" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="TS1" s="3" t="s">
+      <c r="TT1" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="TT1" s="3" t="s">
+      <c r="TU1" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="TU1" s="3" t="s">
+      <c r="TV1" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="TV1" s="3" t="s">
+      <c r="TW1" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="TW1" s="3" t="s">
+      <c r="TX1" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="TX1" s="3" t="s">
+      <c r="TY1" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="TY1" s="3" t="s">
+      <c r="TZ1" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="TZ1" s="3" t="s">
+      <c r="UA1" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="UA1" s="3" t="s">
+      <c r="UB1" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="UB1" s="3" t="s">
+      <c r="UC1" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="UC1" s="3" t="s">
+      <c r="UD1" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="UD1" s="3" t="s">
+      <c r="UE1" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="UE1" s="3" t="s">
+      <c r="UF1" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="UF1" s="3" t="s">
+      <c r="UG1" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="UG1" s="3" t="s">
+      <c r="UH1" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="UH1" s="3" t="s">
+      <c r="UI1" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="UI1" s="3" t="s">
+      <c r="UJ1" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="UJ1" s="3" t="s">
+      <c r="UK1" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="UK1" s="3" t="s">
+      <c r="UL1" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="UL1" s="3" t="s">
+      <c r="UM1" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="UM1" s="3" t="s">
+      <c r="UN1" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="UN1" s="3" t="s">
+      <c r="UO1" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="UO1" s="3" t="s">
+      <c r="UP1" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="UP1" s="3" t="s">
+      <c r="UQ1" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="UQ1" s="3" t="s">
+      <c r="UR1" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="UR1" s="3" t="s">
+      <c r="US1" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="US1" s="3" t="s">
+      <c r="UT1" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="UT1" s="3" t="s">
+      <c r="UU1" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="UU1" s="3" t="s">
+      <c r="UV1" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="UV1" s="3" t="s">
+      <c r="UW1" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="UW1" s="3" t="s">
+      <c r="UX1" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="UX1" s="3" t="s">
+      <c r="UY1" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="UY1" s="3" t="s">
+      <c r="UZ1" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="UZ1" s="3" t="s">
+      <c r="VA1" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="VA1" s="3" t="s">
+      <c r="VB1" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="VB1" s="3" t="s">
+      <c r="VC1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="VC1" s="3" t="s">
+      <c r="VD1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="VD1" s="3" t="s">
+      <c r="VE1" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="VE1" s="3" t="s">
+      <c r="VF1" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="VF1" s="3" t="s">
+      <c r="VG1" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="VG1" s="3" t="s">
+      <c r="VH1" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="VH1" s="3" t="s">
+      <c r="VI1" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="VI1" s="3" t="s">
+      <c r="VJ1" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="VJ1" s="3" t="s">
+      <c r="VK1" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="VK1" s="3" t="s">
+      <c r="VL1" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="VL1" s="3" t="s">
+      <c r="VM1" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="VM1" s="3" t="s">
+      <c r="VN1" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="VN1" s="3" t="s">
+      <c r="VO1" s="3" t="s">
         <v>1791</v>
       </c>
-      <c r="VO1" s="3" t="s">
+      <c r="VP1" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="VP1" s="3" t="s">
+      <c r="VQ1" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="VQ1" s="3" t="s">
+      <c r="VR1" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="VR1" s="3" t="s">
+      <c r="VS1" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="VS1" s="3" t="s">
+      <c r="VT1" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="VT1" s="3" t="s">
+      <c r="VU1" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="VU1" s="3" t="s">
+      <c r="VV1" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="VV1" s="3" t="s">
+      <c r="VW1" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="VW1" s="3" t="s">
+      <c r="VX1" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="VX1" s="3" t="s">
+      <c r="VY1" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="VY1" s="3" t="s">
+      <c r="VZ1" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="VZ1" s="3" t="s">
+      <c r="WA1" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="WA1" s="13" t="s">
+      <c r="WB1" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="WB1" s="13" t="s">
+      <c r="WC1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="WC1" s="13" t="s">
+      <c r="WD1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="WD1" s="31" t="s">
+      <c r="WE1" s="31" t="s">
         <v>598</v>
       </c>
-      <c r="WE1" s="31" t="s">
+      <c r="WF1" s="31" t="s">
         <v>599</v>
       </c>
-      <c r="WF1" s="14" t="s">
+      <c r="WG1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="WG1" s="13" t="s">
+      <c r="WH1" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="WH1" s="13" t="s">
+      <c r="WI1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="WI1" s="13" t="s">
+      <c r="WJ1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="WJ1" s="13" t="s">
+      <c r="WK1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="WK1" s="13" t="s">
+      <c r="WL1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="WL1" s="3" t="s">
+      <c r="WM1" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="WM1" s="13" t="s">
+      <c r="WN1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="WN1" s="3" t="s">
+      <c r="WO1" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="WO1" s="13" t="s">
+      <c r="WP1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="WP1" s="13" t="s">
+      <c r="WQ1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="WQ1" s="3" t="s">
+      <c r="WR1" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="WR1" s="13" t="s">
+      <c r="WS1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="WS1" s="3" t="s">
+      <c r="WT1" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="WT1" s="13" t="s">
+      <c r="WU1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="WU1" s="13" t="s">
+      <c r="WV1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="WV1" s="13" t="s">
+      <c r="WW1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="WW1" s="13" t="s">
+      <c r="WX1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="WX1" s="13" t="s">
+      <c r="WY1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="WY1" s="13" t="s">
+      <c r="WZ1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="WZ1" s="13" t="s">
+      <c r="XA1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="XA1" s="14" t="s">
+      <c r="XB1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="XB1" s="15" t="s">
+      <c r="XC1" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="XC1" s="13" t="s">
+      <c r="XD1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="XD1" s="13" t="s">
+      <c r="XE1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="XE1" s="13" t="s">
+      <c r="XF1" s="13" t="s">
         <v>1819</v>
       </c>
-      <c r="XF1" s="13" t="s">
+      <c r="XG1" s="13" t="s">
         <v>1820</v>
       </c>
-      <c r="XG1" s="13" t="s">
+      <c r="XH1" s="13" t="s">
         <v>1859</v>
       </c>
-      <c r="XH1" s="13" t="s">
+      <c r="XI1" s="13" t="s">
         <v>1860</v>
       </c>
-      <c r="XI1" s="3" t="s">
+      <c r="XJ1" s="3" t="s">
         <v>1855</v>
       </c>
-      <c r="XJ1" s="3" t="s">
+      <c r="XK1" s="3" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="2" spans="1:634" s="17" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:635" s="17" customFormat="1" ht="34.5" customHeight="1">
+      <c r="B2" s="26" t="s">
         <v>1186</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="C2" s="27" t="s">
         <v>1781</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="32" t="s">
         <v>1189</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="35" t="s">
         <v>1853</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="G2" s="32" t="s">
         <v>1843</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="H2" s="32" t="s">
         <v>1844</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="I2" s="32" t="s">
         <v>1845</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="M2" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="N2" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="O2" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
       <c r="U2" s="26"/>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="W2" s="26"/>
       <c r="X2" s="26"/>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26" t="s">
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="AB2" s="26"/>
       <c r="AC2" s="26"/>
       <c r="AD2" s="26"/>
       <c r="AE2" s="26"/>
-      <c r="AF2" s="26" t="s">
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26" t="s">
         <v>1804</v>
       </c>
-      <c r="AG2" s="26"/>
       <c r="AH2" s="26"/>
-      <c r="AI2" s="26" t="s">
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26" t="s">
         <v>611</v>
       </c>
-      <c r="AJ2" s="26"/>
       <c r="AK2" s="26"/>
       <c r="AL2" s="26"/>
       <c r="AM2" s="26"/>
       <c r="AN2" s="26"/>
-      <c r="AO2" s="26" t="s">
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="AP2" s="26" t="s">
+      <c r="AQ2" s="26" t="s">
         <v>613</v>
       </c>
-      <c r="AQ2" s="26" t="s">
+      <c r="AR2" s="26" t="s">
         <v>614</v>
       </c>
-      <c r="AR2" s="26" t="s">
+      <c r="AS2" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="AS2" s="26" t="s">
+      <c r="AT2" s="26" t="s">
         <v>616</v>
       </c>
-      <c r="AT2" s="26" t="s">
+      <c r="AU2" s="26" t="s">
         <v>617</v>
       </c>
-      <c r="AU2" s="26" t="s">
+      <c r="AV2" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="AV2" s="26" t="s">
+      <c r="AW2" s="26" t="s">
         <v>1784</v>
       </c>
-      <c r="AW2" s="26" t="s">
+      <c r="AX2" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="AX2" s="26" t="s">
+      <c r="AY2" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="AY2" s="26" t="s">
+      <c r="AZ2" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="AZ2" s="26" t="s">
+      <c r="BA2" s="26" t="s">
         <v>622</v>
       </c>
-      <c r="BA2" s="26" t="s">
+      <c r="BB2" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="BB2" s="26" t="s">
+      <c r="BC2" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="BC2" s="26" t="s">
+      <c r="BD2" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="BD2" s="26" t="s">
+      <c r="BE2" s="26" t="s">
         <v>626</v>
       </c>
-      <c r="BE2" s="26" t="s">
+      <c r="BF2" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="BF2" s="26" t="s">
+      <c r="BG2" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="BG2" s="26" t="s">
+      <c r="BH2" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="BH2" s="26" t="s">
+      <c r="BI2" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="BI2" s="26" t="s">
+      <c r="BJ2" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="BJ2" s="26" t="s">
+      <c r="BK2" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="BK2" s="26" t="s">
+      <c r="BL2" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="BL2" s="26" t="s">
+      <c r="BM2" s="26" t="s">
         <v>634</v>
       </c>
-      <c r="BM2" s="26" t="s">
+      <c r="BN2" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="BN2" s="26" t="s">
+      <c r="BO2" s="26" t="s">
         <v>636</v>
       </c>
-      <c r="BO2" s="26" t="s">
+      <c r="BP2" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="BP2" s="26" t="s">
+      <c r="BQ2" s="26" t="s">
         <v>638</v>
       </c>
-      <c r="BQ2" s="26" t="s">
+      <c r="BR2" s="26" t="s">
         <v>639</v>
       </c>
-      <c r="BR2" s="26" t="s">
+      <c r="BS2" s="26" t="s">
         <v>640</v>
       </c>
-      <c r="BS2" s="26" t="s">
+      <c r="BT2" s="26" t="s">
         <v>641</v>
       </c>
-      <c r="BT2" s="26" t="s">
+      <c r="BU2" s="26" t="s">
         <v>642</v>
       </c>
-      <c r="BU2" s="26" t="s">
+      <c r="BV2" s="26" t="s">
         <v>643</v>
       </c>
-      <c r="BV2" s="26" t="s">
+      <c r="BW2" s="26" t="s">
         <v>644</v>
       </c>
-      <c r="BW2" s="26" t="s">
+      <c r="BX2" s="26" t="s">
         <v>645</v>
       </c>
-      <c r="BX2" s="26" t="s">
+      <c r="BY2" s="26" t="s">
         <v>646</v>
       </c>
-      <c r="BY2" s="26" t="s">
+      <c r="BZ2" s="26" t="s">
         <v>647</v>
       </c>
-      <c r="BZ2" s="26" t="s">
+      <c r="CA2" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="CA2" s="26" t="s">
+      <c r="CB2" s="26" t="s">
         <v>649</v>
       </c>
-      <c r="CB2" s="26" t="s">
+      <c r="CC2" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="CC2" s="26" t="s">
+      <c r="CD2" s="26" t="s">
         <v>651</v>
       </c>
-      <c r="CD2" s="26" t="s">
+      <c r="CE2" s="26" t="s">
         <v>652</v>
       </c>
-      <c r="CE2" s="26" t="s">
+      <c r="CF2" s="26" t="s">
         <v>653</v>
       </c>
-      <c r="CF2" s="26" t="s">
+      <c r="CG2" s="26" t="s">
         <v>654</v>
       </c>
-      <c r="CG2" s="26" t="s">
+      <c r="CH2" s="26" t="s">
         <v>655</v>
       </c>
-      <c r="CH2" s="26" t="s">
+      <c r="CI2" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="CI2" s="26" t="s">
+      <c r="CJ2" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="CJ2" s="26" t="s">
+      <c r="CK2" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="CK2" s="26" t="s">
+      <c r="CL2" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="CL2" s="26" t="s">
+      <c r="CM2" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="CM2" s="26" t="s">
+      <c r="CN2" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="CN2" s="26" t="s">
+      <c r="CO2" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="CO2" s="26" t="s">
+      <c r="CP2" s="26" t="s">
         <v>663</v>
       </c>
-      <c r="CP2" s="26" t="s">
+      <c r="CQ2" s="26" t="s">
         <v>664</v>
       </c>
-      <c r="CQ2" s="26" t="s">
+      <c r="CR2" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="CR2" s="26" t="s">
+      <c r="CS2" s="26" t="s">
         <v>666</v>
       </c>
-      <c r="CS2" s="26" t="s">
+      <c r="CT2" s="26" t="s">
         <v>1787</v>
       </c>
-      <c r="CT2" s="26" t="s">
+      <c r="CU2" s="26" t="s">
         <v>667</v>
       </c>
-      <c r="CU2" s="26" t="s">
+      <c r="CV2" s="26" t="s">
         <v>668</v>
       </c>
-      <c r="CV2" s="26" t="s">
+      <c r="CW2" s="26" t="s">
         <v>669</v>
       </c>
-      <c r="CW2" s="26" t="s">
+      <c r="CX2" s="26" t="s">
         <v>670</v>
       </c>
-      <c r="CX2" s="26" t="s">
+      <c r="CY2" s="26" t="s">
         <v>671</v>
       </c>
-      <c r="CY2" s="26" t="s">
+      <c r="CZ2" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="CZ2" s="26" t="s">
+      <c r="DA2" s="26" t="s">
         <v>673</v>
       </c>
-      <c r="DA2" s="26" t="s">
+      <c r="DB2" s="26" t="s">
         <v>674</v>
       </c>
-      <c r="DB2" s="26" t="s">
+      <c r="DC2" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="DC2" s="26" t="s">
+      <c r="DD2" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="DD2" s="26" t="s">
+      <c r="DE2" s="26" t="s">
         <v>677</v>
       </c>
-      <c r="DE2" s="26" t="s">
+      <c r="DF2" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="DF2" s="26" t="s">
+      <c r="DG2" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="DG2" s="26" t="s">
+      <c r="DH2" s="26" t="s">
         <v>680</v>
       </c>
-      <c r="DH2" s="26" t="s">
+      <c r="DI2" s="26" t="s">
         <v>681</v>
       </c>
-      <c r="DI2" s="26" t="s">
+      <c r="DJ2" s="26" t="s">
         <v>682</v>
       </c>
-      <c r="DJ2" s="26" t="s">
+      <c r="DK2" s="26" t="s">
         <v>683</v>
       </c>
-      <c r="DK2" s="26" t="s">
+      <c r="DL2" s="26" t="s">
         <v>684</v>
       </c>
-      <c r="DL2" s="26" t="s">
+      <c r="DM2" s="26" t="s">
         <v>685</v>
       </c>
-      <c r="DM2" s="26" t="s">
+      <c r="DN2" s="26" t="s">
         <v>686</v>
       </c>
-      <c r="DN2" s="26" t="s">
+      <c r="DO2" s="26" t="s">
         <v>687</v>
       </c>
-      <c r="DO2" s="26" t="s">
+      <c r="DP2" s="26" t="s">
         <v>688</v>
       </c>
-      <c r="DP2" s="26" t="s">
+      <c r="DQ2" s="26" t="s">
         <v>689</v>
       </c>
-      <c r="DQ2" s="26" t="s">
+      <c r="DR2" s="26" t="s">
         <v>690</v>
       </c>
-      <c r="DR2" s="26" t="s">
+      <c r="DS2" s="26" t="s">
         <v>691</v>
       </c>
-      <c r="DS2" s="26" t="s">
+      <c r="DT2" s="26" t="s">
         <v>692</v>
       </c>
-      <c r="DT2" s="26" t="s">
+      <c r="DU2" s="26" t="s">
         <v>693</v>
       </c>
-      <c r="DU2" s="26" t="s">
+      <c r="DV2" s="26" t="s">
         <v>694</v>
       </c>
-      <c r="DV2" s="26" t="s">
+      <c r="DW2" s="26" t="s">
         <v>695</v>
       </c>
-      <c r="DW2" s="26" t="s">
+      <c r="DX2" s="26" t="s">
         <v>696</v>
       </c>
-      <c r="DX2" s="26" t="s">
+      <c r="DY2" s="26" t="s">
         <v>697</v>
       </c>
-      <c r="DY2" s="26" t="s">
+      <c r="DZ2" s="26" t="s">
         <v>698</v>
       </c>
-      <c r="DZ2" s="26" t="s">
+      <c r="EA2" s="26" t="s">
         <v>699</v>
       </c>
-      <c r="EA2" s="26" t="s">
+      <c r="EB2" s="26" t="s">
         <v>700</v>
       </c>
-      <c r="EB2" s="26" t="s">
+      <c r="EC2" s="26" t="s">
         <v>701</v>
       </c>
-      <c r="EC2" s="26" t="s">
+      <c r="ED2" s="26" t="s">
         <v>689</v>
       </c>
-      <c r="ED2" s="26" t="s">
+      <c r="EE2" s="26" t="s">
         <v>702</v>
       </c>
-      <c r="EE2" s="26" t="s">
+      <c r="EF2" s="26" t="s">
         <v>703</v>
       </c>
-      <c r="EF2" s="26" t="s">
+      <c r="EG2" s="26" t="s">
         <v>704</v>
       </c>
-      <c r="EG2" s="26" t="s">
+      <c r="EH2" s="26" t="s">
         <v>705</v>
       </c>
-      <c r="EH2" s="26" t="s">
+      <c r="EI2" s="26" t="s">
         <v>706</v>
       </c>
-      <c r="EI2" s="26" t="s">
+      <c r="EJ2" s="26" t="s">
         <v>707</v>
       </c>
-      <c r="EJ2" s="26" t="s">
+      <c r="EK2" s="26" t="s">
         <v>708</v>
       </c>
-      <c r="EK2" s="26" t="s">
+      <c r="EL2" s="26" t="s">
         <v>709</v>
       </c>
-      <c r="EL2" s="26" t="s">
+      <c r="EM2" s="26" t="s">
         <v>710</v>
       </c>
-      <c r="EM2" s="26" t="s">
+      <c r="EN2" s="26" t="s">
         <v>711</v>
       </c>
-      <c r="EN2" s="26" t="s">
+      <c r="EO2" s="26" t="s">
         <v>712</v>
       </c>
-      <c r="EO2" s="26" t="s">
+      <c r="EP2" s="26" t="s">
         <v>713</v>
       </c>
-      <c r="EP2" s="26" t="s">
+      <c r="EQ2" s="26" t="s">
         <v>714</v>
       </c>
-      <c r="EQ2" s="26" t="s">
+      <c r="ER2" s="26" t="s">
         <v>715</v>
       </c>
-      <c r="ER2" s="26" t="s">
+      <c r="ES2" s="26" t="s">
         <v>716</v>
       </c>
-      <c r="ES2" s="26" t="s">
+      <c r="ET2" s="26" t="s">
         <v>717</v>
       </c>
-      <c r="ET2" s="26" t="s">
+      <c r="EU2" s="26" t="s">
         <v>718</v>
       </c>
-      <c r="EU2" s="26" t="s">
+      <c r="EV2" s="26" t="s">
         <v>719</v>
       </c>
-      <c r="EV2" s="26" t="s">
+      <c r="EW2" s="26" t="s">
         <v>720</v>
       </c>
-      <c r="EW2" s="26" t="s">
+      <c r="EX2" s="26" t="s">
         <v>721</v>
       </c>
-      <c r="EX2" s="26" t="s">
+      <c r="EY2" s="26" t="s">
         <v>722</v>
       </c>
-      <c r="EY2" s="26" t="s">
+      <c r="EZ2" s="26" t="s">
         <v>723</v>
       </c>
-      <c r="EZ2" s="26" t="s">
+      <c r="FA2" s="26" t="s">
         <v>724</v>
       </c>
-      <c r="FA2" s="26" t="s">
+      <c r="FB2" s="26" t="s">
         <v>725</v>
       </c>
-      <c r="FB2" s="26" t="s">
+      <c r="FC2" s="26" t="s">
         <v>726</v>
       </c>
-      <c r="FC2" s="26" t="s">
+      <c r="FD2" s="26" t="s">
         <v>727</v>
       </c>
-      <c r="FD2" s="26" t="s">
+      <c r="FE2" s="26" t="s">
         <v>728</v>
       </c>
-      <c r="FE2" s="26" t="s">
+      <c r="FF2" s="26" t="s">
         <v>729</v>
       </c>
-      <c r="FF2" s="26" t="s">
+      <c r="FG2" s="26" t="s">
         <v>730</v>
       </c>
-      <c r="FG2" s="26" t="s">
+      <c r="FH2" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="FH2" s="26" t="s">
+      <c r="FI2" s="26" t="s">
         <v>732</v>
       </c>
-      <c r="FI2" s="26" t="s">
+      <c r="FJ2" s="26" t="s">
         <v>733</v>
       </c>
-      <c r="FJ2" s="26" t="s">
+      <c r="FK2" s="26" t="s">
         <v>734</v>
       </c>
-      <c r="FK2" s="26" t="s">
+      <c r="FL2" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="FL2" s="26" t="s">
+      <c r="FM2" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="FM2" s="26" t="s">
+      <c r="FN2" s="26" t="s">
         <v>1802</v>
       </c>
-      <c r="FN2" s="26" t="s">
+      <c r="FO2" s="26" t="s">
         <v>737</v>
       </c>
-      <c r="FO2" s="26" t="s">
+      <c r="FP2" s="26" t="s">
         <v>738</v>
       </c>
-      <c r="FP2" s="26" t="s">
+      <c r="FQ2" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="FQ2" s="26" t="s">
+      <c r="FR2" s="26" t="s">
         <v>740</v>
       </c>
-      <c r="FR2" s="26" t="s">
+      <c r="FS2" s="26" t="s">
         <v>741</v>
       </c>
-      <c r="FS2" s="26" t="s">
+      <c r="FT2" s="26" t="s">
         <v>742</v>
       </c>
-      <c r="FT2" s="26" t="s">
+      <c r="FU2" s="26" t="s">
         <v>743</v>
       </c>
-      <c r="FU2" s="26" t="s">
+      <c r="FV2" s="26" t="s">
         <v>744</v>
       </c>
-      <c r="FV2" s="26" t="s">
+      <c r="FW2" s="26" t="s">
         <v>745</v>
       </c>
-      <c r="FW2" s="26" t="s">
+      <c r="FX2" s="26" t="s">
         <v>746</v>
       </c>
-      <c r="FX2" s="26" t="s">
+      <c r="FY2" s="26" t="s">
         <v>747</v>
       </c>
-      <c r="FY2" s="26" t="s">
+      <c r="FZ2" s="26" t="s">
         <v>748</v>
       </c>
-      <c r="FZ2" s="26" t="s">
+      <c r="GA2" s="26" t="s">
         <v>749</v>
       </c>
-      <c r="GA2" s="26" t="s">
+      <c r="GB2" s="26" t="s">
         <v>750</v>
       </c>
-      <c r="GB2" s="26" t="s">
+      <c r="GC2" s="26" t="s">
         <v>751</v>
       </c>
-      <c r="GC2" s="26" t="s">
+      <c r="GD2" s="26" t="s">
         <v>752</v>
       </c>
-      <c r="GD2" s="26" t="s">
+      <c r="GE2" s="26" t="s">
         <v>753</v>
       </c>
-      <c r="GE2" s="26" t="s">
+      <c r="GF2" s="26" t="s">
         <v>754</v>
       </c>
-      <c r="GF2" s="26" t="s">
+      <c r="GG2" s="26" t="s">
         <v>755</v>
       </c>
-      <c r="GG2" s="26" t="s">
+      <c r="GH2" s="26" t="s">
         <v>756</v>
       </c>
-      <c r="GH2" s="26" t="s">
+      <c r="GI2" s="26" t="s">
         <v>757</v>
       </c>
-      <c r="GI2" s="26" t="s">
+      <c r="GJ2" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="GJ2" s="26" t="s">
+      <c r="GK2" s="26" t="s">
         <v>759</v>
       </c>
-      <c r="GK2" s="26" t="s">
+      <c r="GL2" s="26" t="s">
         <v>760</v>
       </c>
-      <c r="GL2" s="26" t="s">
+      <c r="GM2" s="26" t="s">
         <v>761</v>
       </c>
-      <c r="GM2" s="26" t="s">
+      <c r="GN2" s="26" t="s">
         <v>762</v>
       </c>
-      <c r="GN2" s="26" t="s">
+      <c r="GO2" s="26" t="s">
         <v>1799</v>
       </c>
-      <c r="GO2" s="26" t="s">
+      <c r="GP2" s="26" t="s">
         <v>763</v>
       </c>
-      <c r="GP2" s="26" t="s">
+      <c r="GQ2" s="26" t="s">
         <v>764</v>
       </c>
-      <c r="GQ2" s="26" t="s">
+      <c r="GR2" s="26" t="s">
         <v>765</v>
       </c>
-      <c r="GR2" s="26" t="s">
+      <c r="GS2" s="26" t="s">
         <v>766</v>
       </c>
-      <c r="GS2" s="26" t="s">
+      <c r="GT2" s="26" t="s">
         <v>767</v>
       </c>
-      <c r="GT2" s="26" t="s">
+      <c r="GU2" s="26" t="s">
         <v>768</v>
       </c>
-      <c r="GU2" s="26" t="s">
+      <c r="GV2" s="26" t="s">
         <v>769</v>
       </c>
-      <c r="GV2" s="26" t="s">
+      <c r="GW2" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="GW2" s="26" t="s">
+      <c r="GX2" s="26" t="s">
         <v>771</v>
       </c>
-      <c r="GX2" s="26" t="s">
+      <c r="GY2" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="GY2" s="26" t="s">
+      <c r="GZ2" s="26" t="s">
         <v>773</v>
       </c>
-      <c r="GZ2" s="26" t="s">
+      <c r="HA2" s="26" t="s">
         <v>774</v>
       </c>
-      <c r="HA2" s="26" t="s">
+      <c r="HB2" s="26" t="s">
         <v>775</v>
       </c>
-      <c r="HB2" s="26" t="s">
+      <c r="HC2" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="HC2" s="26" t="s">
+      <c r="HD2" s="26" t="s">
         <v>777</v>
       </c>
-      <c r="HD2" s="26" t="s">
+      <c r="HE2" s="26" t="s">
         <v>778</v>
       </c>
-      <c r="HE2" s="26" t="s">
+      <c r="HF2" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="HF2" s="26" t="s">
+      <c r="HG2" s="26" t="s">
         <v>780</v>
       </c>
-      <c r="HG2" s="26" t="s">
+      <c r="HH2" s="26" t="s">
         <v>781</v>
       </c>
-      <c r="HH2" s="26" t="s">
+      <c r="HI2" s="26" t="s">
         <v>782</v>
       </c>
-      <c r="HI2" s="26" t="s">
+      <c r="HJ2" s="26" t="s">
         <v>783</v>
       </c>
-      <c r="HJ2" s="26" t="s">
+      <c r="HK2" s="26" t="s">
         <v>784</v>
       </c>
-      <c r="HK2" s="26" t="s">
+      <c r="HL2" s="26" t="s">
         <v>785</v>
       </c>
-      <c r="HL2" s="26" t="s">
+      <c r="HM2" s="26" t="s">
         <v>786</v>
       </c>
-      <c r="HM2" s="26" t="s">
+      <c r="HN2" s="26" t="s">
         <v>787</v>
       </c>
-      <c r="HN2" s="26" t="s">
+      <c r="HO2" s="26" t="s">
         <v>788</v>
       </c>
-      <c r="HO2" s="26" t="s">
+      <c r="HP2" s="26" t="s">
         <v>789</v>
       </c>
-      <c r="HP2" s="26" t="s">
+      <c r="HQ2" s="26" t="s">
         <v>790</v>
       </c>
-      <c r="HQ2" s="26" t="s">
+      <c r="HR2" s="26" t="s">
         <v>791</v>
       </c>
-      <c r="HR2" s="26" t="s">
+      <c r="HS2" s="26" t="s">
         <v>792</v>
       </c>
-      <c r="HS2" s="26" t="s">
+      <c r="HT2" s="26" t="s">
         <v>793</v>
       </c>
-      <c r="HT2" s="26" t="s">
+      <c r="HU2" s="26" t="s">
         <v>794</v>
       </c>
-      <c r="HU2" s="26" t="s">
+      <c r="HV2" s="26" t="s">
         <v>795</v>
       </c>
-      <c r="HV2" s="26" t="s">
+      <c r="HW2" s="26" t="s">
         <v>796</v>
       </c>
-      <c r="HW2" s="26" t="s">
+      <c r="HX2" s="26" t="s">
         <v>797</v>
       </c>
-      <c r="HX2" s="26" t="s">
+      <c r="HY2" s="26" t="s">
         <v>798</v>
       </c>
-      <c r="HY2" s="26" t="s">
+      <c r="HZ2" s="26" t="s">
         <v>799</v>
       </c>
-      <c r="HZ2" s="26" t="s">
+      <c r="IA2" s="26" t="s">
         <v>800</v>
       </c>
-      <c r="IA2" s="26" t="s">
+      <c r="IB2" s="26" t="s">
         <v>801</v>
       </c>
-      <c r="IB2" s="26" t="s">
+      <c r="IC2" s="26" t="s">
         <v>802</v>
       </c>
-      <c r="IC2" s="26" t="s">
+      <c r="ID2" s="26" t="s">
         <v>803</v>
       </c>
-      <c r="ID2" s="26" t="s">
+      <c r="IE2" s="26" t="s">
         <v>804</v>
       </c>
-      <c r="IE2" s="26" t="s">
+      <c r="IF2" s="26" t="s">
         <v>805</v>
       </c>
-      <c r="IF2" s="26" t="s">
+      <c r="IG2" s="26" t="s">
         <v>806</v>
       </c>
-      <c r="IG2" s="26" t="s">
+      <c r="IH2" s="26" t="s">
         <v>807</v>
       </c>
-      <c r="IH2" s="26" t="s">
+      <c r="II2" s="26" t="s">
         <v>808</v>
       </c>
-      <c r="II2" s="26" t="s">
+      <c r="IJ2" s="26" t="s">
         <v>809</v>
       </c>
-      <c r="IJ2" s="26" t="s">
+      <c r="IK2" s="26" t="s">
         <v>810</v>
       </c>
-      <c r="IK2" s="26" t="s">
+      <c r="IL2" s="26" t="s">
         <v>811</v>
       </c>
-      <c r="IL2" s="26" t="s">
+      <c r="IM2" s="26" t="s">
         <v>812</v>
       </c>
-      <c r="IM2" s="26" t="s">
+      <c r="IN2" s="26" t="s">
         <v>813</v>
       </c>
-      <c r="IN2" s="26" t="s">
+      <c r="IO2" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="IO2" s="26" t="s">
+      <c r="IP2" s="26" t="s">
         <v>815</v>
       </c>
-      <c r="IP2" s="26" t="s">
+      <c r="IQ2" s="26" t="s">
         <v>816</v>
       </c>
-      <c r="IQ2" s="26" t="s">
+      <c r="IR2" s="26" t="s">
         <v>1796</v>
       </c>
-      <c r="IR2" s="26" t="s">
+      <c r="IS2" s="26" t="s">
         <v>817</v>
       </c>
-      <c r="IS2" s="26" t="s">
+      <c r="IT2" s="26" t="s">
         <v>818</v>
       </c>
-      <c r="IT2" s="26" t="s">
+      <c r="IU2" s="26" t="s">
         <v>819</v>
       </c>
-      <c r="IU2" s="26" t="s">
+      <c r="IV2" s="26" t="s">
         <v>820</v>
       </c>
-      <c r="IV2" s="26" t="s">
+      <c r="IW2" s="26" t="s">
         <v>821</v>
       </c>
-      <c r="IW2" s="26" t="s">
+      <c r="IX2" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="IX2" s="26" t="s">
+      <c r="IY2" s="26" t="s">
         <v>823</v>
       </c>
-      <c r="IY2" s="26" t="s">
+      <c r="IZ2" s="26" t="s">
         <v>824</v>
       </c>
-      <c r="IZ2" s="26" t="s">
+      <c r="JA2" s="26" t="s">
         <v>825</v>
       </c>
-      <c r="JA2" s="26" t="s">
+      <c r="JB2" s="26" t="s">
         <v>826</v>
       </c>
-      <c r="JB2" s="26" t="s">
+      <c r="JC2" s="26" t="s">
         <v>827</v>
       </c>
-      <c r="JC2" s="26" t="s">
+      <c r="JD2" s="26" t="s">
         <v>828</v>
       </c>
-      <c r="JD2" s="26" t="s">
+      <c r="JE2" s="26" t="s">
         <v>829</v>
       </c>
-      <c r="JE2" s="26" t="s">
+      <c r="JF2" s="26" t="s">
         <v>830</v>
       </c>
-      <c r="JF2" s="26" t="s">
+      <c r="JG2" s="26" t="s">
         <v>831</v>
       </c>
-      <c r="JG2" s="26" t="s">
+      <c r="JH2" s="26" t="s">
         <v>832</v>
       </c>
-      <c r="JH2" s="26" t="s">
+      <c r="JI2" s="26" t="s">
         <v>833</v>
       </c>
-      <c r="JI2" s="26" t="s">
+      <c r="JJ2" s="26" t="s">
         <v>834</v>
       </c>
-      <c r="JJ2" s="26" t="s">
+      <c r="JK2" s="26" t="s">
         <v>835</v>
       </c>
-      <c r="JK2" s="26" t="s">
+      <c r="JL2" s="26" t="s">
         <v>836</v>
       </c>
-      <c r="JL2" s="26" t="s">
+      <c r="JM2" s="26" t="s">
         <v>837</v>
       </c>
-      <c r="JM2" s="26" t="s">
+      <c r="JN2" s="26" t="s">
         <v>838</v>
       </c>
-      <c r="JN2" s="26" t="s">
+      <c r="JO2" s="26" t="s">
         <v>839</v>
       </c>
-      <c r="JO2" s="26" t="s">
+      <c r="JP2" s="26" t="s">
         <v>840</v>
       </c>
-      <c r="JP2" s="26" t="s">
+      <c r="JQ2" s="26" t="s">
         <v>841</v>
       </c>
-      <c r="JQ2" s="26" t="s">
+      <c r="JR2" s="26" t="s">
         <v>842</v>
       </c>
-      <c r="JR2" s="26" t="s">
+      <c r="JS2" s="26" t="s">
         <v>843</v>
       </c>
-      <c r="JS2" s="26" t="s">
+      <c r="JT2" s="26" t="s">
         <v>844</v>
       </c>
-      <c r="JT2" s="26" t="s">
+      <c r="JU2" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="JU2" s="26" t="s">
+      <c r="JV2" s="26" t="s">
         <v>846</v>
       </c>
-      <c r="JV2" s="26" t="s">
+      <c r="JW2" s="26" t="s">
         <v>847</v>
       </c>
-      <c r="JW2" s="26" t="s">
+      <c r="JX2" s="26" t="s">
         <v>848</v>
       </c>
-      <c r="JX2" s="26" t="s">
+      <c r="JY2" s="26" t="s">
         <v>849</v>
       </c>
-      <c r="JY2" s="26" t="s">
+      <c r="JZ2" s="26" t="s">
         <v>850</v>
       </c>
-      <c r="JZ2" s="26" t="s">
+      <c r="KA2" s="26" t="s">
         <v>851</v>
       </c>
-      <c r="KA2" s="26" t="s">
+      <c r="KB2" s="26" t="s">
         <v>852</v>
       </c>
-      <c r="KB2" s="26" t="s">
+      <c r="KC2" s="26" t="s">
         <v>853</v>
       </c>
-      <c r="KC2" s="26" t="s">
+      <c r="KD2" s="26" t="s">
         <v>854</v>
       </c>
-      <c r="KD2" s="26" t="s">
+      <c r="KE2" s="26" t="s">
         <v>855</v>
       </c>
-      <c r="KE2" s="26" t="s">
+      <c r="KF2" s="26" t="s">
         <v>856</v>
       </c>
-      <c r="KF2" s="26" t="s">
+      <c r="KG2" s="26" t="s">
         <v>857</v>
       </c>
-      <c r="KG2" s="26" t="s">
+      <c r="KH2" s="26" t="s">
         <v>858</v>
       </c>
-      <c r="KH2" s="26" t="s">
+      <c r="KI2" s="26" t="s">
         <v>859</v>
       </c>
-      <c r="KI2" s="26" t="s">
+      <c r="KJ2" s="26" t="s">
         <v>860</v>
       </c>
-      <c r="KJ2" s="26" t="s">
+      <c r="KK2" s="26" t="s">
         <v>861</v>
       </c>
-      <c r="KK2" s="26" t="s">
+      <c r="KL2" s="26" t="s">
         <v>862</v>
       </c>
-      <c r="KL2" s="26" t="s">
+      <c r="KM2" s="26" t="s">
         <v>863</v>
       </c>
-      <c r="KM2" s="26" t="s">
+      <c r="KN2" s="26" t="s">
         <v>864</v>
       </c>
-      <c r="KN2" s="26" t="s">
+      <c r="KO2" s="26" t="s">
         <v>865</v>
       </c>
-      <c r="KO2" s="26" t="s">
+      <c r="KP2" s="26" t="s">
         <v>866</v>
       </c>
-      <c r="KP2" s="26" t="s">
+      <c r="KQ2" s="26" t="s">
         <v>867</v>
       </c>
-      <c r="KQ2" s="26" t="s">
+      <c r="KR2" s="26" t="s">
         <v>868</v>
       </c>
-      <c r="KR2" s="26" t="s">
+      <c r="KS2" s="26" t="s">
         <v>869</v>
       </c>
-      <c r="KS2" s="26" t="s">
+      <c r="KT2" s="26" t="s">
         <v>870</v>
       </c>
-      <c r="KT2" s="26" t="s">
+      <c r="KU2" s="26" t="s">
         <v>871</v>
       </c>
-      <c r="KU2" s="26" t="s">
+      <c r="KV2" s="26" t="s">
         <v>872</v>
       </c>
-      <c r="KV2" s="26" t="s">
+      <c r="KW2" s="26" t="s">
         <v>873</v>
       </c>
-      <c r="KW2" s="26" t="s">
+      <c r="KX2" s="26" t="s">
         <v>874</v>
       </c>
-      <c r="KX2" s="26" t="s">
+      <c r="KY2" s="26" t="s">
         <v>875</v>
       </c>
-      <c r="KY2" s="26" t="s">
+      <c r="KZ2" s="26" t="s">
         <v>876</v>
       </c>
-      <c r="KZ2" s="26" t="s">
+      <c r="LA2" s="26" t="s">
         <v>877</v>
       </c>
-      <c r="LA2" s="26" t="s">
+      <c r="LB2" s="26" t="s">
         <v>878</v>
       </c>
-      <c r="LB2" s="26" t="s">
+      <c r="LC2" s="26" t="s">
         <v>879</v>
       </c>
-      <c r="LC2" s="26" t="s">
+      <c r="LD2" s="26" t="s">
         <v>880</v>
       </c>
-      <c r="LD2" s="26" t="s">
+      <c r="LE2" s="26" t="s">
         <v>881</v>
       </c>
-      <c r="LE2" s="26" t="s">
+      <c r="LF2" s="26" t="s">
         <v>882</v>
       </c>
-      <c r="LF2" s="26" t="s">
+      <c r="LG2" s="26" t="s">
         <v>883</v>
       </c>
-      <c r="LG2" s="26" t="s">
+      <c r="LH2" s="26" t="s">
         <v>884</v>
       </c>
-      <c r="LH2" s="26" t="s">
+      <c r="LI2" s="26" t="s">
         <v>885</v>
       </c>
-      <c r="LI2" s="26" t="s">
+      <c r="LJ2" s="26" t="s">
         <v>886</v>
       </c>
-      <c r="LJ2" s="26" t="s">
+      <c r="LK2" s="26" t="s">
         <v>887</v>
       </c>
-      <c r="LK2" s="26" t="s">
+      <c r="LL2" s="26" t="s">
         <v>888</v>
       </c>
-      <c r="LL2" s="26" t="s">
+      <c r="LM2" s="26" t="s">
         <v>889</v>
       </c>
-      <c r="LM2" s="26" t="s">
+      <c r="LN2" s="26" t="s">
         <v>890</v>
       </c>
-      <c r="LN2" s="26" t="s">
+      <c r="LO2" s="26" t="s">
         <v>891</v>
       </c>
-      <c r="LO2" s="26" t="s">
+      <c r="LP2" s="26" t="s">
         <v>892</v>
       </c>
-      <c r="LP2" s="26" t="s">
+      <c r="LQ2" s="26" t="s">
         <v>893</v>
       </c>
-      <c r="LQ2" s="26" t="s">
+      <c r="LR2" s="26" t="s">
         <v>894</v>
       </c>
-      <c r="LR2" s="26" t="s">
+      <c r="LS2" s="26" t="s">
         <v>895</v>
       </c>
-      <c r="LS2" s="26" t="s">
+      <c r="LT2" s="26" t="s">
         <v>896</v>
       </c>
-      <c r="LT2" s="26" t="s">
+      <c r="LU2" s="26" t="s">
         <v>897</v>
       </c>
-      <c r="LU2" s="26" t="s">
+      <c r="LV2" s="26" t="s">
         <v>898</v>
       </c>
-      <c r="LV2" s="26" t="s">
+      <c r="LW2" s="26" t="s">
         <v>899</v>
       </c>
-      <c r="LW2" s="26" t="s">
+      <c r="LX2" s="26" t="s">
         <v>900</v>
       </c>
-      <c r="LX2" s="26" t="s">
+      <c r="LY2" s="26" t="s">
         <v>901</v>
       </c>
-      <c r="LY2" s="26" t="s">
+      <c r="LZ2" s="26" t="s">
         <v>902</v>
       </c>
-      <c r="LZ2" s="26" t="s">
+      <c r="MA2" s="26" t="s">
         <v>903</v>
       </c>
-      <c r="MA2" s="26" t="s">
+      <c r="MB2" s="26" t="s">
         <v>904</v>
       </c>
-      <c r="MB2" s="26" t="s">
+      <c r="MC2" s="26" t="s">
         <v>905</v>
       </c>
-      <c r="MC2" s="26" t="s">
+      <c r="MD2" s="26" t="s">
         <v>906</v>
       </c>
-      <c r="MD2" s="26" t="s">
+      <c r="ME2" s="26" t="s">
         <v>907</v>
       </c>
-      <c r="ME2" s="26" t="s">
+      <c r="MF2" s="26" t="s">
         <v>908</v>
       </c>
-      <c r="MF2" s="26" t="s">
+      <c r="MG2" s="26" t="s">
         <v>909</v>
       </c>
-      <c r="MG2" s="26" t="s">
+      <c r="MH2" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="MH2" s="26" t="s">
+      <c r="MI2" s="26" t="s">
         <v>911</v>
       </c>
-      <c r="MI2" s="26" t="s">
+      <c r="MJ2" s="26" t="s">
         <v>912</v>
       </c>
-      <c r="MJ2" s="26" t="s">
+      <c r="MK2" s="26" t="s">
         <v>913</v>
       </c>
-      <c r="MK2" s="26" t="s">
+      <c r="ML2" s="26" t="s">
         <v>914</v>
       </c>
-      <c r="ML2" s="26" t="s">
+      <c r="MM2" s="26" t="s">
         <v>915</v>
       </c>
-      <c r="MM2" s="26" t="s">
+      <c r="MN2" s="26" t="s">
         <v>916</v>
       </c>
-      <c r="MN2" s="26" t="s">
+      <c r="MO2" s="26" t="s">
         <v>917</v>
       </c>
-      <c r="MO2" s="26" t="s">
+      <c r="MP2" s="26" t="s">
         <v>918</v>
       </c>
-      <c r="MP2" s="26" t="s">
+      <c r="MQ2" s="26" t="s">
         <v>919</v>
       </c>
-      <c r="MQ2" s="26" t="s">
+      <c r="MR2" s="26" t="s">
         <v>920</v>
       </c>
-      <c r="MR2" s="26" t="s">
+      <c r="MS2" s="26" t="s">
         <v>921</v>
       </c>
-      <c r="MS2" s="26" t="s">
+      <c r="MT2" s="26" t="s">
         <v>922</v>
       </c>
-      <c r="MT2" s="26" t="s">
+      <c r="MU2" s="26" t="s">
         <v>923</v>
       </c>
-      <c r="MU2" s="26" t="s">
+      <c r="MV2" s="26" t="s">
         <v>924</v>
       </c>
-      <c r="MV2" s="26" t="s">
+      <c r="MW2" s="26" t="s">
         <v>925</v>
       </c>
-      <c r="MW2" s="26" t="s">
+      <c r="MX2" s="26" t="s">
         <v>926</v>
       </c>
-      <c r="MX2" s="26" t="s">
+      <c r="MY2" s="26" t="s">
         <v>927</v>
       </c>
-      <c r="MY2" s="26" t="s">
+      <c r="MZ2" s="26" t="s">
         <v>928</v>
       </c>
-      <c r="MZ2" s="26" t="s">
+      <c r="NA2" s="26" t="s">
         <v>929</v>
       </c>
-      <c r="NA2" s="26" t="s">
+      <c r="NB2" s="26" t="s">
         <v>930</v>
       </c>
-      <c r="NB2" s="26" t="s">
+      <c r="NC2" s="26" t="s">
         <v>931</v>
       </c>
-      <c r="NC2" s="26" t="s">
+      <c r="ND2" s="26" t="s">
         <v>932</v>
       </c>
-      <c r="ND2" s="26" t="s">
+      <c r="NE2" s="26" t="s">
         <v>933</v>
       </c>
-      <c r="NE2" s="26" t="s">
+      <c r="NF2" s="26" t="s">
         <v>934</v>
       </c>
-      <c r="NF2" s="26" t="s">
+      <c r="NG2" s="26" t="s">
         <v>935</v>
       </c>
-      <c r="NG2" s="26" t="s">
+      <c r="NH2" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="NH2" s="26" t="s">
+      <c r="NI2" s="26" t="s">
         <v>937</v>
       </c>
-      <c r="NI2" s="26" t="s">
+      <c r="NJ2" s="26" t="s">
         <v>938</v>
       </c>
-      <c r="NJ2" s="26" t="s">
+      <c r="NK2" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="NK2" s="26" t="s">
+      <c r="NL2" s="26" t="s">
         <v>940</v>
       </c>
-      <c r="NL2" s="26" t="s">
+      <c r="NM2" s="26" t="s">
         <v>941</v>
       </c>
-      <c r="NM2" s="26" t="s">
+      <c r="NN2" s="26" t="s">
         <v>942</v>
       </c>
-      <c r="NN2" s="26" t="s">
+      <c r="NO2" s="26" t="s">
         <v>943</v>
       </c>
-      <c r="NO2" s="26" t="s">
+      <c r="NP2" s="26" t="s">
         <v>944</v>
       </c>
-      <c r="NP2" s="26" t="s">
+      <c r="NQ2" s="26" t="s">
         <v>945</v>
       </c>
-      <c r="NQ2" s="26" t="s">
+      <c r="NR2" s="26" t="s">
         <v>946</v>
       </c>
-      <c r="NR2" s="26" t="s">
+      <c r="NS2" s="26" t="s">
         <v>947</v>
       </c>
-      <c r="NS2" s="26" t="s">
+      <c r="NT2" s="26" t="s">
         <v>948</v>
       </c>
-      <c r="NT2" s="26" t="s">
+      <c r="NU2" s="26" t="s">
         <v>949</v>
       </c>
-      <c r="NU2" s="26" t="s">
+      <c r="NV2" s="26" t="s">
         <v>950</v>
       </c>
-      <c r="NV2" s="26" t="s">
+      <c r="NW2" s="26" t="s">
         <v>951</v>
       </c>
-      <c r="NW2" s="26" t="s">
+      <c r="NX2" s="26" t="s">
         <v>952</v>
       </c>
-      <c r="NX2" s="26" t="s">
+      <c r="NY2" s="26" t="s">
         <v>953</v>
       </c>
-      <c r="NY2" s="26" t="s">
+      <c r="NZ2" s="26" t="s">
         <v>954</v>
       </c>
-      <c r="NZ2" s="26" t="s">
+      <c r="OA2" s="26" t="s">
         <v>955</v>
       </c>
-      <c r="OA2" s="26" t="s">
+      <c r="OB2" s="26" t="s">
         <v>956</v>
       </c>
-      <c r="OB2" s="26" t="s">
+      <c r="OC2" s="26" t="s">
         <v>957</v>
       </c>
-      <c r="OC2" s="26" t="s">
+      <c r="OD2" s="26" t="s">
         <v>958</v>
       </c>
-      <c r="OD2" s="26" t="s">
+      <c r="OE2" s="26" t="s">
         <v>959</v>
       </c>
-      <c r="OE2" s="26" t="s">
+      <c r="OF2" s="26" t="s">
         <v>960</v>
       </c>
-      <c r="OF2" s="26" t="s">
+      <c r="OG2" s="26" t="s">
         <v>961</v>
       </c>
-      <c r="OG2" s="26" t="s">
+      <c r="OH2" s="26" t="s">
         <v>962</v>
       </c>
-      <c r="OH2" s="26" t="s">
+      <c r="OI2" s="26" t="s">
         <v>963</v>
       </c>
-      <c r="OI2" s="26" t="s">
+      <c r="OJ2" s="26" t="s">
         <v>964</v>
       </c>
-      <c r="OJ2" s="26" t="s">
+      <c r="OK2" s="26" t="s">
         <v>965</v>
       </c>
-      <c r="OK2" s="26" t="s">
+      <c r="OL2" s="26" t="s">
         <v>966</v>
       </c>
-      <c r="OL2" s="26" t="s">
+      <c r="OM2" s="26" t="s">
         <v>967</v>
       </c>
-      <c r="OM2" s="26" t="s">
+      <c r="ON2" s="26" t="s">
         <v>968</v>
       </c>
-      <c r="ON2" s="26" t="s">
+      <c r="OO2" s="26" t="s">
         <v>969</v>
       </c>
-      <c r="OO2" s="26" t="s">
+      <c r="OP2" s="26" t="s">
         <v>957</v>
       </c>
-      <c r="OP2" s="26" t="s">
+      <c r="OQ2" s="26" t="s">
         <v>970</v>
       </c>
-      <c r="OQ2" s="26" t="s">
+      <c r="OR2" s="26" t="s">
         <v>971</v>
       </c>
-      <c r="OR2" s="26" t="s">
+      <c r="OS2" s="26" t="s">
         <v>1794</v>
       </c>
-      <c r="OS2" s="26" t="s">
+      <c r="OT2" s="26" t="s">
         <v>972</v>
       </c>
-      <c r="OT2" s="26" t="s">
+      <c r="OU2" s="26" t="s">
         <v>973</v>
       </c>
-      <c r="OU2" s="26" t="s">
+      <c r="OV2" s="26" t="s">
         <v>974</v>
       </c>
-      <c r="OV2" s="26" t="s">
+      <c r="OW2" s="26" t="s">
         <v>975</v>
       </c>
-      <c r="OW2" s="26" t="s">
+      <c r="OX2" s="26" t="s">
         <v>976</v>
       </c>
-      <c r="OX2" s="26" t="s">
+      <c r="OY2" s="26" t="s">
         <v>977</v>
       </c>
-      <c r="OY2" s="26" t="s">
+      <c r="OZ2" s="26" t="s">
         <v>978</v>
       </c>
-      <c r="OZ2" s="26" t="s">
+      <c r="PA2" s="26" t="s">
         <v>979</v>
       </c>
-      <c r="PA2" s="26" t="s">
+      <c r="PB2" s="26" t="s">
         <v>980</v>
       </c>
-      <c r="PB2" s="26" t="s">
+      <c r="PC2" s="26" t="s">
         <v>981</v>
       </c>
-      <c r="PC2" s="26" t="s">
+      <c r="PD2" s="26" t="s">
         <v>982</v>
       </c>
-      <c r="PD2" s="26" t="s">
+      <c r="PE2" s="26" t="s">
         <v>983</v>
       </c>
-      <c r="PE2" s="26" t="s">
+      <c r="PF2" s="26" t="s">
         <v>984</v>
       </c>
-      <c r="PF2" s="26" t="s">
+      <c r="PG2" s="26" t="s">
         <v>985</v>
       </c>
-      <c r="PG2" s="26" t="s">
+      <c r="PH2" s="26" t="s">
         <v>986</v>
       </c>
-      <c r="PH2" s="26" t="s">
+      <c r="PI2" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="PI2" s="26" t="s">
+      <c r="PJ2" s="26" t="s">
         <v>988</v>
       </c>
-      <c r="PJ2" s="26" t="s">
+      <c r="PK2" s="26" t="s">
         <v>989</v>
       </c>
-      <c r="PK2" s="26" t="s">
+      <c r="PL2" s="26" t="s">
         <v>990</v>
       </c>
-      <c r="PL2" s="26" t="s">
+      <c r="PM2" s="26" t="s">
         <v>991</v>
       </c>
-      <c r="PM2" s="26" t="s">
+      <c r="PN2" s="26" t="s">
         <v>992</v>
       </c>
-      <c r="PN2" s="26" t="s">
+      <c r="PO2" s="26" t="s">
         <v>993</v>
       </c>
-      <c r="PO2" s="26" t="s">
+      <c r="PP2" s="26" t="s">
         <v>994</v>
       </c>
-      <c r="PP2" s="26" t="s">
+      <c r="PQ2" s="26" t="s">
         <v>995</v>
       </c>
-      <c r="PQ2" s="26" t="s">
+      <c r="PR2" s="26" t="s">
         <v>996</v>
       </c>
-      <c r="PR2" s="26" t="s">
+      <c r="PS2" s="26" t="s">
         <v>997</v>
       </c>
-      <c r="PS2" s="26" t="s">
+      <c r="PT2" s="26" t="s">
         <v>998</v>
       </c>
-      <c r="PT2" s="26" t="s">
+      <c r="PU2" s="26" t="s">
         <v>999</v>
       </c>
-      <c r="PU2" s="26" t="s">
+      <c r="PV2" s="26" t="s">
         <v>1000</v>
       </c>
-      <c r="PV2" s="26" t="s">
+      <c r="PW2" s="26" t="s">
         <v>1001</v>
       </c>
-      <c r="PW2" s="26" t="s">
+      <c r="PX2" s="26" t="s">
         <v>1002</v>
       </c>
-      <c r="PX2" s="26" t="s">
+      <c r="PY2" s="26" t="s">
         <v>1003</v>
       </c>
-      <c r="PY2" s="26" t="s">
+      <c r="PZ2" s="26" t="s">
         <v>1004</v>
       </c>
-      <c r="PZ2" s="26" t="s">
+      <c r="QA2" s="26" t="s">
         <v>1005</v>
       </c>
-      <c r="QA2" s="26" t="s">
+      <c r="QB2" s="26" t="s">
         <v>1006</v>
       </c>
-      <c r="QB2" s="26" t="s">
+      <c r="QC2" s="26" t="s">
         <v>1007</v>
       </c>
-      <c r="QC2" s="26" t="s">
+      <c r="QD2" s="26" t="s">
         <v>1008</v>
       </c>
-      <c r="QD2" s="26" t="s">
+      <c r="QE2" s="26" t="s">
         <v>1009</v>
       </c>
-      <c r="QE2" s="26" t="s">
+      <c r="QF2" s="26" t="s">
         <v>1010</v>
       </c>
-      <c r="QF2" s="26" t="s">
+      <c r="QG2" s="26" t="s">
         <v>1011</v>
       </c>
-      <c r="QG2" s="26" t="s">
+      <c r="QH2" s="26" t="s">
         <v>1012</v>
       </c>
-      <c r="QH2" s="26" t="s">
+      <c r="QI2" s="26" t="s">
         <v>1013</v>
       </c>
-      <c r="QI2" s="26" t="s">
+      <c r="QJ2" s="26" t="s">
         <v>1014</v>
       </c>
-      <c r="QJ2" s="26" t="s">
+      <c r="QK2" s="26" t="s">
         <v>1015</v>
       </c>
-      <c r="QK2" s="26" t="s">
+      <c r="QL2" s="26" t="s">
         <v>1016</v>
       </c>
-      <c r="QL2" s="26" t="s">
+      <c r="QM2" s="26" t="s">
         <v>1017</v>
       </c>
-      <c r="QM2" s="26" t="s">
+      <c r="QN2" s="26" t="s">
         <v>1018</v>
       </c>
-      <c r="QN2" s="26" t="s">
+      <c r="QO2" s="26" t="s">
         <v>1019</v>
       </c>
-      <c r="QO2" s="26" t="s">
+      <c r="QP2" s="26" t="s">
         <v>1020</v>
       </c>
-      <c r="QP2" s="26" t="s">
+      <c r="QQ2" s="26" t="s">
         <v>1021</v>
       </c>
-      <c r="QQ2" s="26" t="s">
+      <c r="QR2" s="26" t="s">
         <v>1022</v>
       </c>
-      <c r="QR2" s="26" t="s">
+      <c r="QS2" s="26" t="s">
         <v>1023</v>
       </c>
-      <c r="QS2" s="26" t="s">
+      <c r="QT2" s="26" t="s">
         <v>1024</v>
       </c>
-      <c r="QT2" s="26" t="s">
+      <c r="QU2" s="26" t="s">
         <v>1025</v>
       </c>
-      <c r="QU2" s="26" t="s">
+      <c r="QV2" s="26" t="s">
         <v>1026</v>
       </c>
-      <c r="QV2" s="26" t="s">
+      <c r="QW2" s="26" t="s">
         <v>1027</v>
       </c>
-      <c r="QW2" s="26" t="s">
+      <c r="QX2" s="26" t="s">
         <v>1028</v>
       </c>
-      <c r="QX2" s="26" t="s">
+      <c r="QY2" s="26" t="s">
         <v>1029</v>
       </c>
-      <c r="QY2" s="26" t="s">
+      <c r="QZ2" s="26" t="s">
         <v>1030</v>
       </c>
-      <c r="QZ2" s="26" t="s">
+      <c r="RA2" s="26" t="s">
         <v>1031</v>
       </c>
-      <c r="RA2" s="26" t="s">
+      <c r="RB2" s="26" t="s">
         <v>1032</v>
       </c>
-      <c r="RB2" s="26" t="s">
+      <c r="RC2" s="26" t="s">
         <v>1033</v>
       </c>
-      <c r="RC2" s="26" t="s">
+      <c r="RD2" s="26" t="s">
         <v>1034</v>
       </c>
-      <c r="RD2" s="26" t="s">
+      <c r="RE2" s="26" t="s">
         <v>1035</v>
       </c>
-      <c r="RE2" s="26" t="s">
+      <c r="RF2" s="26" t="s">
         <v>1036</v>
       </c>
-      <c r="RF2" s="26" t="s">
+      <c r="RG2" s="26" t="s">
         <v>1037</v>
       </c>
-      <c r="RG2" s="26" t="s">
+      <c r="RH2" s="26" t="s">
         <v>1038</v>
       </c>
-      <c r="RH2" s="26" t="s">
+      <c r="RI2" s="26" t="s">
         <v>1039</v>
       </c>
-      <c r="RI2" s="26" t="s">
+      <c r="RJ2" s="26" t="s">
         <v>1040</v>
       </c>
-      <c r="RJ2" s="26" t="s">
+      <c r="RK2" s="26" t="s">
         <v>1041</v>
       </c>
-      <c r="RK2" s="26" t="s">
+      <c r="RL2" s="26" t="s">
         <v>1042</v>
       </c>
-      <c r="RL2" s="26" t="s">
+      <c r="RM2" s="26" t="s">
         <v>1043</v>
       </c>
-      <c r="RM2" s="26" t="s">
+      <c r="RN2" s="26" t="s">
         <v>1044</v>
       </c>
-      <c r="RN2" s="26" t="s">
+      <c r="RO2" s="26" t="s">
         <v>1045</v>
       </c>
-      <c r="RO2" s="26" t="s">
+      <c r="RP2" s="26" t="s">
         <v>1046</v>
       </c>
-      <c r="RP2" s="26" t="s">
+      <c r="RQ2" s="26" t="s">
         <v>1047</v>
       </c>
-      <c r="RQ2" s="26" t="s">
+      <c r="RR2" s="26" t="s">
         <v>1048</v>
       </c>
-      <c r="RR2" s="26" t="s">
+      <c r="RS2" s="26" t="s">
         <v>1049</v>
       </c>
-      <c r="RS2" s="26" t="s">
+      <c r="RT2" s="26" t="s">
         <v>1050</v>
       </c>
-      <c r="RT2" s="26" t="s">
+      <c r="RU2" s="26" t="s">
         <v>1051</v>
       </c>
-      <c r="RU2" s="26" t="s">
+      <c r="RV2" s="26" t="s">
         <v>1052</v>
       </c>
-      <c r="RV2" s="26" t="s">
+      <c r="RW2" s="26" t="s">
         <v>1053</v>
       </c>
-      <c r="RW2" s="26" t="s">
+      <c r="RX2" s="26" t="s">
         <v>1054</v>
       </c>
-      <c r="RX2" s="26" t="s">
+      <c r="RY2" s="26" t="s">
         <v>1055</v>
       </c>
-      <c r="RY2" s="26" t="s">
+      <c r="RZ2" s="26" t="s">
         <v>1056</v>
       </c>
-      <c r="RZ2" s="26" t="s">
+      <c r="SA2" s="26" t="s">
         <v>1057</v>
       </c>
-      <c r="SA2" s="26" t="s">
+      <c r="SB2" s="26" t="s">
         <v>1058</v>
       </c>
-      <c r="SB2" s="26" t="s">
+      <c r="SC2" s="26" t="s">
         <v>1059</v>
       </c>
-      <c r="SC2" s="26" t="s">
+      <c r="SD2" s="26" t="s">
         <v>1060</v>
       </c>
-      <c r="SD2" s="26" t="s">
+      <c r="SE2" s="26" t="s">
         <v>1061</v>
       </c>
-      <c r="SE2" s="26" t="s">
+      <c r="SF2" s="26" t="s">
         <v>1062</v>
       </c>
-      <c r="SF2" s="26" t="s">
+      <c r="SG2" s="26" t="s">
         <v>1063</v>
       </c>
-      <c r="SG2" s="26" t="s">
+      <c r="SH2" s="26" t="s">
         <v>1064</v>
       </c>
-      <c r="SH2" s="26" t="s">
+      <c r="SI2" s="26" t="s">
         <v>1065</v>
       </c>
-      <c r="SI2" s="26" t="s">
+      <c r="SJ2" s="26" t="s">
         <v>1066</v>
       </c>
-      <c r="SJ2" s="26" t="s">
+      <c r="SK2" s="26" t="s">
         <v>1067</v>
       </c>
-      <c r="SK2" s="26" t="s">
+      <c r="SL2" s="26" t="s">
         <v>1068</v>
       </c>
-      <c r="SL2" s="26" t="s">
+      <c r="SM2" s="26" t="s">
         <v>1069</v>
       </c>
-      <c r="SM2" s="26" t="s">
+      <c r="SN2" s="26" t="s">
         <v>1070</v>
       </c>
-      <c r="SN2" s="26" t="s">
+      <c r="SO2" s="26" t="s">
         <v>1071</v>
       </c>
-      <c r="SO2" s="26" t="s">
+      <c r="SP2" s="26" t="s">
         <v>1072</v>
       </c>
-      <c r="SP2" s="26" t="s">
+      <c r="SQ2" s="26" t="s">
         <v>1073</v>
       </c>
-      <c r="SQ2" s="26" t="s">
+      <c r="SR2" s="26" t="s">
         <v>1074</v>
       </c>
-      <c r="SR2" s="26" t="s">
+      <c r="SS2" s="26" t="s">
         <v>1075</v>
       </c>
-      <c r="SS2" s="26" t="s">
+      <c r="ST2" s="26" t="s">
         <v>1076</v>
       </c>
-      <c r="ST2" s="26" t="s">
+      <c r="SU2" s="26" t="s">
         <v>1077</v>
       </c>
-      <c r="SU2" s="26" t="s">
+      <c r="SV2" s="26" t="s">
         <v>1078</v>
       </c>
-      <c r="SV2" s="26" t="s">
+      <c r="SW2" s="26" t="s">
         <v>1079</v>
       </c>
-      <c r="SW2" s="26" t="s">
+      <c r="SX2" s="26" t="s">
         <v>1080</v>
       </c>
-      <c r="SX2" s="26" t="s">
+      <c r="SY2" s="26" t="s">
         <v>1081</v>
       </c>
-      <c r="SY2" s="26" t="s">
+      <c r="SZ2" s="26" t="s">
         <v>1082</v>
       </c>
-      <c r="SZ2" s="26" t="s">
+      <c r="TA2" s="26" t="s">
         <v>1083</v>
       </c>
-      <c r="TA2" s="26" t="s">
+      <c r="TB2" s="26" t="s">
         <v>1084</v>
       </c>
-      <c r="TB2" s="26" t="s">
+      <c r="TC2" s="26" t="s">
         <v>1085</v>
       </c>
-      <c r="TC2" s="26" t="s">
+      <c r="TD2" s="26" t="s">
         <v>1086</v>
       </c>
-      <c r="TD2" s="26" t="s">
+      <c r="TE2" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="TE2" s="26" t="s">
+      <c r="TF2" s="26" t="s">
         <v>1088</v>
       </c>
-      <c r="TF2" s="26" t="s">
+      <c r="TG2" s="26" t="s">
         <v>1089</v>
       </c>
-      <c r="TG2" s="26" t="s">
+      <c r="TH2" s="26" t="s">
         <v>1090</v>
       </c>
-      <c r="TH2" s="26" t="s">
+      <c r="TI2" s="26" t="s">
         <v>1091</v>
       </c>
-      <c r="TI2" s="26" t="s">
+      <c r="TJ2" s="26" t="s">
         <v>1092</v>
       </c>
-      <c r="TJ2" s="26" t="s">
+      <c r="TK2" s="26" t="s">
         <v>1093</v>
       </c>
-      <c r="TK2" s="26" t="s">
+      <c r="TL2" s="26" t="s">
         <v>1094</v>
       </c>
-      <c r="TL2" s="26" t="s">
+      <c r="TM2" s="26" t="s">
         <v>1095</v>
       </c>
-      <c r="TM2" s="26" t="s">
+      <c r="TN2" s="26" t="s">
         <v>1096</v>
       </c>
-      <c r="TN2" s="26" t="s">
+      <c r="TO2" s="26" t="s">
         <v>1097</v>
       </c>
-      <c r="TO2" s="26" t="s">
+      <c r="TP2" s="26" t="s">
         <v>1098</v>
       </c>
-      <c r="TP2" s="26" t="s">
+      <c r="TQ2" s="26" t="s">
         <v>1099</v>
       </c>
-      <c r="TQ2" s="26" t="s">
+      <c r="TR2" s="26" t="s">
         <v>1100</v>
       </c>
-      <c r="TR2" s="26" t="s">
+      <c r="TS2" s="26" t="s">
         <v>1101</v>
       </c>
-      <c r="TS2" s="26" t="s">
+      <c r="TT2" s="26" t="s">
         <v>1102</v>
       </c>
-      <c r="TT2" s="26" t="s">
+      <c r="TU2" s="26" t="s">
         <v>1103</v>
       </c>
-      <c r="TU2" s="26" t="s">
+      <c r="TV2" s="26" t="s">
         <v>1104</v>
       </c>
-      <c r="TV2" s="26" t="s">
+      <c r="TW2" s="26" t="s">
         <v>1105</v>
       </c>
-      <c r="TW2" s="26" t="s">
+      <c r="TX2" s="26" t="s">
         <v>1106</v>
       </c>
-      <c r="TX2" s="26" t="s">
+      <c r="TY2" s="26" t="s">
         <v>1107</v>
       </c>
-      <c r="TY2" s="26" t="s">
+      <c r="TZ2" s="26" t="s">
         <v>1108</v>
       </c>
-      <c r="TZ2" s="26" t="s">
+      <c r="UA2" s="26" t="s">
         <v>1109</v>
       </c>
-      <c r="UA2" s="26" t="s">
+      <c r="UB2" s="26" t="s">
         <v>1110</v>
       </c>
-      <c r="UB2" s="26" t="s">
+      <c r="UC2" s="26" t="s">
         <v>1111</v>
       </c>
-      <c r="UC2" s="26" t="s">
+      <c r="UD2" s="26" t="s">
         <v>1112</v>
       </c>
-      <c r="UD2" s="26" t="s">
+      <c r="UE2" s="26" t="s">
         <v>1113</v>
       </c>
-      <c r="UE2" s="26" t="s">
+      <c r="UF2" s="26" t="s">
         <v>1114</v>
       </c>
-      <c r="UF2" s="26" t="s">
+      <c r="UG2" s="26" t="s">
         <v>1115</v>
       </c>
-      <c r="UG2" s="26" t="s">
+      <c r="UH2" s="26" t="s">
         <v>1116</v>
       </c>
-      <c r="UH2" s="26" t="s">
+      <c r="UI2" s="26" t="s">
         <v>1117</v>
       </c>
-      <c r="UI2" s="26" t="s">
+      <c r="UJ2" s="26" t="s">
         <v>1118</v>
       </c>
-      <c r="UJ2" s="26" t="s">
+      <c r="UK2" s="26" t="s">
         <v>1119</v>
       </c>
-      <c r="UK2" s="26" t="s">
+      <c r="UL2" s="26" t="s">
         <v>1120</v>
       </c>
-      <c r="UL2" s="26" t="s">
+      <c r="UM2" s="26" t="s">
         <v>1121</v>
       </c>
-      <c r="UM2" s="26" t="s">
+      <c r="UN2" s="26" t="s">
         <v>1122</v>
       </c>
-      <c r="UN2" s="26" t="s">
+      <c r="UO2" s="26" t="s">
         <v>1123</v>
       </c>
-      <c r="UO2" s="26" t="s">
+      <c r="UP2" s="26" t="s">
         <v>1124</v>
       </c>
-      <c r="UP2" s="26" t="s">
+      <c r="UQ2" s="26" t="s">
         <v>1125</v>
       </c>
-      <c r="UQ2" s="26" t="s">
+      <c r="UR2" s="26" t="s">
         <v>1126</v>
       </c>
-      <c r="UR2" s="26" t="s">
+      <c r="US2" s="26" t="s">
         <v>1127</v>
       </c>
-      <c r="US2" s="26" t="s">
+      <c r="UT2" s="26" t="s">
         <v>1128</v>
       </c>
-      <c r="UT2" s="26" t="s">
+      <c r="UU2" s="26" t="s">
         <v>1129</v>
       </c>
-      <c r="UU2" s="26" t="s">
+      <c r="UV2" s="26" t="s">
         <v>1130</v>
       </c>
-      <c r="UV2" s="26" t="s">
+      <c r="UW2" s="26" t="s">
         <v>1131</v>
       </c>
-      <c r="UW2" s="26" t="s">
+      <c r="UX2" s="26" t="s">
         <v>1132</v>
       </c>
-      <c r="UX2" s="26" t="s">
+      <c r="UY2" s="26" t="s">
         <v>1133</v>
       </c>
-      <c r="UY2" s="26" t="s">
+      <c r="UZ2" s="26" t="s">
         <v>1134</v>
       </c>
-      <c r="UZ2" s="26" t="s">
+      <c r="VA2" s="26" t="s">
         <v>1135</v>
       </c>
-      <c r="VA2" s="26" t="s">
+      <c r="VB2" s="26" t="s">
         <v>1136</v>
       </c>
-      <c r="VB2" s="26" t="s">
+      <c r="VC2" s="26" t="s">
         <v>1137</v>
       </c>
-      <c r="VC2" s="26" t="s">
+      <c r="VD2" s="26" t="s">
         <v>1138</v>
       </c>
-      <c r="VD2" s="26" t="s">
+      <c r="VE2" s="26" t="s">
         <v>1139</v>
       </c>
-      <c r="VE2" s="26" t="s">
+      <c r="VF2" s="26" t="s">
         <v>1140</v>
       </c>
-      <c r="VF2" s="26" t="s">
+      <c r="VG2" s="26" t="s">
         <v>1141</v>
       </c>
-      <c r="VG2" s="26" t="s">
+      <c r="VH2" s="26" t="s">
         <v>1142</v>
       </c>
-      <c r="VH2" s="26" t="s">
+      <c r="VI2" s="26" t="s">
         <v>1143</v>
       </c>
-      <c r="VI2" s="26" t="s">
+      <c r="VJ2" s="26" t="s">
         <v>1144</v>
       </c>
-      <c r="VJ2" s="26" t="s">
+      <c r="VK2" s="26" t="s">
         <v>1145</v>
       </c>
-      <c r="VK2" s="26" t="s">
+      <c r="VL2" s="26" t="s">
         <v>1146</v>
       </c>
-      <c r="VL2" s="26" t="s">
+      <c r="VM2" s="26" t="s">
         <v>1147</v>
       </c>
-      <c r="VM2" s="26" t="s">
+      <c r="VN2" s="26" t="s">
         <v>1148</v>
       </c>
-      <c r="VN2" s="26" t="s">
+      <c r="VO2" s="26" t="s">
         <v>1792</v>
       </c>
-      <c r="VO2" s="26" t="s">
+      <c r="VP2" s="26" t="s">
         <v>1149</v>
       </c>
-      <c r="VP2" s="26" t="s">
+      <c r="VQ2" s="26" t="s">
         <v>1150</v>
       </c>
-      <c r="VQ2" s="26" t="s">
+      <c r="VR2" s="26" t="s">
         <v>1151</v>
       </c>
-      <c r="VR2" s="26" t="s">
+      <c r="VS2" s="26" t="s">
         <v>1152</v>
       </c>
-      <c r="VS2" s="26" t="s">
+      <c r="VT2" s="26" t="s">
         <v>1153</v>
       </c>
-      <c r="VT2" s="26" t="s">
+      <c r="VU2" s="26" t="s">
         <v>1154</v>
       </c>
-      <c r="VU2" s="26" t="s">
+      <c r="VV2" s="26" t="s">
         <v>1155</v>
       </c>
-      <c r="VV2" s="26" t="s">
+      <c r="VW2" s="26" t="s">
         <v>1156</v>
       </c>
-      <c r="VW2" s="26" t="s">
+      <c r="VX2" s="26" t="s">
         <v>1157</v>
       </c>
-      <c r="VX2" s="26" t="s">
+      <c r="VY2" s="26" t="s">
         <v>1158</v>
       </c>
-      <c r="VY2" s="26" t="s">
+      <c r="VZ2" s="26" t="s">
         <v>1159</v>
       </c>
-      <c r="VZ2" s="26" t="s">
+      <c r="WA2" s="26" t="s">
         <v>1160</v>
       </c>
-      <c r="WA2" s="26" t="s">
+      <c r="WB2" s="26" t="s">
         <v>1161</v>
       </c>
-      <c r="WB2" s="26" t="s">
+      <c r="WC2" s="26" t="s">
         <v>1162</v>
       </c>
-      <c r="WC2" s="26" t="s">
+      <c r="WD2" s="26" t="s">
         <v>1163</v>
       </c>
-      <c r="WD2" s="26" t="s">
+      <c r="WE2" s="26" t="s">
         <v>1164</v>
       </c>
-      <c r="WE2" s="26" t="s">
+      <c r="WF2" s="26" t="s">
         <v>1165</v>
       </c>
-      <c r="WF2" s="26" t="s">
+      <c r="WG2" s="26" t="s">
         <v>1166</v>
       </c>
-      <c r="WG2" s="26" t="s">
+      <c r="WH2" s="26" t="s">
         <v>1167</v>
-      </c>
-      <c r="WH2" s="18" t="s">
-        <v>1187</v>
       </c>
       <c r="WI2" s="18" t="s">
         <v>1187</v>
       </c>
-      <c r="WJ2" s="28" t="s">
+      <c r="WJ2" s="18" t="s">
+        <v>1187</v>
+      </c>
+      <c r="WK2" s="28" t="s">
         <v>1191</v>
       </c>
-      <c r="WK2" s="29" t="s">
+      <c r="WL2" s="29" t="s">
         <v>1190</v>
       </c>
-      <c r="WL2" s="26" t="s">
+      <c r="WM2" s="26" t="s">
         <v>1168</v>
       </c>
-      <c r="WM2" s="26" t="s">
+      <c r="WN2" s="26" t="s">
         <v>1169</v>
       </c>
-      <c r="WN2" s="26" t="s">
+      <c r="WO2" s="26" t="s">
         <v>1170</v>
       </c>
-      <c r="WO2" s="26" t="s">
+      <c r="WP2" s="26" t="s">
         <v>1171</v>
       </c>
-      <c r="WP2" s="26" t="s">
+      <c r="WQ2" s="26" t="s">
         <v>1172</v>
       </c>
-      <c r="WQ2" s="26" t="s">
+      <c r="WR2" s="26" t="s">
         <v>1173</v>
       </c>
-      <c r="WR2" s="26" t="s">
+      <c r="WS2" s="26" t="s">
         <v>1174</v>
       </c>
-      <c r="WS2" s="26" t="s">
+      <c r="WT2" s="26" t="s">
         <v>1175</v>
       </c>
-      <c r="WT2" s="26" t="s">
+      <c r="WU2" s="26" t="s">
         <v>1176</v>
       </c>
-      <c r="WU2" s="26" t="s">
+      <c r="WV2" s="26" t="s">
         <v>1177</v>
       </c>
-      <c r="WV2" s="26" t="s">
+      <c r="WW2" s="26" t="s">
         <v>1178</v>
       </c>
-      <c r="WW2" s="26" t="s">
+      <c r="WX2" s="26" t="s">
         <v>1179</v>
       </c>
-      <c r="WX2" s="26" t="s">
+      <c r="WY2" s="26" t="s">
         <v>1180</v>
       </c>
-      <c r="WY2" s="26" t="s">
+      <c r="WZ2" s="26" t="s">
         <v>1181</v>
       </c>
-      <c r="WZ2" s="26" t="s">
+      <c r="XA2" s="26" t="s">
         <v>1182</v>
       </c>
-      <c r="XA2" s="26" t="s">
+      <c r="XB2" s="26" t="s">
         <v>1183</v>
       </c>
-      <c r="XB2" s="26" t="s">
+      <c r="XC2" s="26" t="s">
         <v>1184</v>
       </c>
-      <c r="XC2" s="26" t="s">
+      <c r="XD2" s="26" t="s">
         <v>1185</v>
       </c>
-      <c r="XD2" s="27" t="s">
+      <c r="XE2" s="27" t="s">
         <v>1192</v>
       </c>
-      <c r="XE2" s="26" t="s">
+      <c r="XF2" s="26" t="s">
         <v>1850</v>
       </c>
-      <c r="XF2" s="26" t="s">
+      <c r="XG2" s="26" t="s">
         <v>1851</v>
       </c>
-      <c r="XG2" s="26" t="s">
+      <c r="XH2" s="26" t="s">
         <v>1861</v>
       </c>
-      <c r="XH2" s="26" t="s">
+      <c r="XI2" s="26" t="s">
         <v>1862</v>
       </c>
-      <c r="XI2" s="17" t="s">
+      <c r="XJ2" s="17" t="s">
         <v>1863</v>
       </c>
-      <c r="XJ2" s="17" t="s">
+      <c r="XK2" s="17" t="s">
         <v>1864</v>
       </c>
     </row>
-    <row r="3" spans="1:634" s="17" customFormat="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="1:635" s="17" customFormat="1">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>1782</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="26" t="s">
         <v>1193</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="33" t="s">
         <v>1189</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="26" t="s">
         <v>1194</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="K3" s="26" t="s">
         <v>1195</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="L3" s="26" t="s">
         <v>1196</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="M3" s="26" t="s">
         <v>1197</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="N3" s="26" t="s">
         <v>1198</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="O3" s="26" t="s">
         <v>1199</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="P3" s="26" t="s">
         <v>1200</v>
       </c>
-      <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
       <c r="S3" s="26"/>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
-      <c r="V3" s="26" t="s">
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
         <v>1202</v>
       </c>
-      <c r="W3" s="26"/>
       <c r="X3" s="26"/>
-      <c r="Y3" s="26" t="s">
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26" t="s">
         <v>1201</v>
       </c>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26" t="s">
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26" t="s">
         <v>1205</v>
       </c>
-      <c r="AB3" s="26"/>
       <c r="AC3" s="26"/>
       <c r="AD3" s="26"/>
       <c r="AE3" s="26"/>
-      <c r="AF3" s="26" t="s">
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26" t="s">
         <v>1805</v>
       </c>
-      <c r="AG3" s="26"/>
       <c r="AH3" s="26"/>
-      <c r="AI3" s="26" t="s">
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26" t="s">
         <v>1204</v>
       </c>
-      <c r="AJ3" s="26"/>
       <c r="AK3" s="26"/>
       <c r="AL3" s="26"/>
       <c r="AM3" s="26"/>
       <c r="AN3" s="26"/>
-      <c r="AO3" s="26" t="s">
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26" t="s">
         <v>1203</v>
       </c>
-      <c r="AP3" s="26" t="s">
+      <c r="AQ3" s="26" t="s">
         <v>1206</v>
       </c>
-      <c r="AQ3" s="26" t="s">
+      <c r="AR3" s="26" t="s">
         <v>1207</v>
       </c>
-      <c r="AR3" s="26" t="s">
+      <c r="AS3" s="26" t="s">
         <v>1208</v>
       </c>
-      <c r="AS3" s="26" t="s">
+      <c r="AT3" s="26" t="s">
         <v>1209</v>
       </c>
-      <c r="AT3" s="26" t="s">
+      <c r="AU3" s="26" t="s">
         <v>1210</v>
       </c>
-      <c r="AU3" s="26" t="s">
+      <c r="AV3" s="26" t="s">
         <v>1211</v>
       </c>
-      <c r="AV3" s="26" t="s">
+      <c r="AW3" s="26" t="s">
         <v>1785</v>
       </c>
-      <c r="AW3" s="26" t="s">
+      <c r="AX3" s="26" t="s">
         <v>1212</v>
       </c>
-      <c r="AX3" s="26" t="s">
+      <c r="AY3" s="26" t="s">
         <v>1213</v>
       </c>
-      <c r="AY3" s="26" t="s">
+      <c r="AZ3" s="26" t="s">
         <v>1214</v>
       </c>
-      <c r="AZ3" s="26" t="s">
+      <c r="BA3" s="26" t="s">
         <v>1215</v>
       </c>
-      <c r="BA3" s="26" t="s">
+      <c r="BB3" s="26" t="s">
         <v>1216</v>
       </c>
-      <c r="BB3" s="26" t="s">
+      <c r="BC3" s="26" t="s">
         <v>1217</v>
       </c>
-      <c r="BC3" s="26" t="s">
+      <c r="BD3" s="26" t="s">
         <v>1218</v>
       </c>
-      <c r="BD3" s="26" t="s">
+      <c r="BE3" s="26" t="s">
         <v>1219</v>
       </c>
-      <c r="BE3" s="26" t="s">
+      <c r="BF3" s="26" t="s">
         <v>1220</v>
       </c>
-      <c r="BF3" s="26" t="s">
+      <c r="BG3" s="26" t="s">
         <v>1221</v>
       </c>
-      <c r="BG3" s="26" t="s">
+      <c r="BH3" s="26" t="s">
         <v>1222</v>
       </c>
-      <c r="BH3" s="26" t="s">
+      <c r="BI3" s="26" t="s">
         <v>1223</v>
       </c>
-      <c r="BI3" s="26" t="s">
+      <c r="BJ3" s="26" t="s">
         <v>1224</v>
       </c>
-      <c r="BJ3" s="26" t="s">
+      <c r="BK3" s="26" t="s">
         <v>1225</v>
       </c>
-      <c r="BK3" s="26" t="s">
+      <c r="BL3" s="26" t="s">
         <v>1226</v>
       </c>
-      <c r="BL3" s="26" t="s">
+      <c r="BM3" s="26" t="s">
         <v>1227</v>
       </c>
-      <c r="BM3" s="26" t="s">
+      <c r="BN3" s="26" t="s">
         <v>1228</v>
       </c>
-      <c r="BN3" s="26" t="s">
+      <c r="BO3" s="26" t="s">
         <v>1229</v>
       </c>
-      <c r="BO3" s="26" t="s">
+      <c r="BP3" s="26" t="s">
         <v>1230</v>
       </c>
-      <c r="BP3" s="26" t="s">
+      <c r="BQ3" s="26" t="s">
         <v>1231</v>
       </c>
-      <c r="BQ3" s="26" t="s">
+      <c r="BR3" s="26" t="s">
         <v>1232</v>
       </c>
-      <c r="BR3" s="26" t="s">
+      <c r="BS3" s="26" t="s">
         <v>1233</v>
       </c>
-      <c r="BS3" s="26" t="s">
+      <c r="BT3" s="26" t="s">
         <v>1234</v>
       </c>
-      <c r="BT3" s="26" t="s">
+      <c r="BU3" s="26" t="s">
         <v>1235</v>
       </c>
-      <c r="BU3" s="26" t="s">
+      <c r="BV3" s="26" t="s">
         <v>1236</v>
       </c>
-      <c r="BV3" s="26" t="s">
+      <c r="BW3" s="26" t="s">
         <v>1237</v>
       </c>
-      <c r="BW3" s="26" t="s">
+      <c r="BX3" s="26" t="s">
         <v>1238</v>
       </c>
-      <c r="BX3" s="26" t="s">
+      <c r="BY3" s="26" t="s">
         <v>1239</v>
       </c>
-      <c r="BY3" s="26" t="s">
+      <c r="BZ3" s="26" t="s">
         <v>1240</v>
       </c>
-      <c r="BZ3" s="26" t="s">
+      <c r="CA3" s="26" t="s">
         <v>1241</v>
       </c>
-      <c r="CA3" s="26" t="s">
+      <c r="CB3" s="26" t="s">
         <v>1242</v>
       </c>
-      <c r="CB3" s="26" t="s">
+      <c r="CC3" s="26" t="s">
         <v>1243</v>
       </c>
-      <c r="CC3" s="26" t="s">
+      <c r="CD3" s="26" t="s">
         <v>1244</v>
       </c>
-      <c r="CD3" s="26" t="s">
+      <c r="CE3" s="26" t="s">
         <v>1245</v>
       </c>
-      <c r="CE3" s="26" t="s">
+      <c r="CF3" s="26" t="s">
         <v>1246</v>
       </c>
-      <c r="CF3" s="26" t="s">
+      <c r="CG3" s="26" t="s">
         <v>1247</v>
       </c>
-      <c r="CG3" s="26" t="s">
+      <c r="CH3" s="26" t="s">
         <v>1248</v>
       </c>
-      <c r="CH3" s="26" t="s">
+      <c r="CI3" s="26" t="s">
         <v>1249</v>
       </c>
-      <c r="CI3" s="26" t="s">
+      <c r="CJ3" s="26" t="s">
         <v>1250</v>
       </c>
-      <c r="CJ3" s="26" t="s">
+      <c r="CK3" s="26" t="s">
         <v>1251</v>
       </c>
-      <c r="CK3" s="26" t="s">
+      <c r="CL3" s="26" t="s">
         <v>1252</v>
       </c>
-      <c r="CL3" s="26" t="s">
+      <c r="CM3" s="26" t="s">
         <v>1253</v>
       </c>
-      <c r="CM3" s="26" t="s">
+      <c r="CN3" s="26" t="s">
         <v>1254</v>
       </c>
-      <c r="CN3" s="26" t="s">
+      <c r="CO3" s="26" t="s">
         <v>1255</v>
       </c>
-      <c r="CO3" s="26" t="s">
+      <c r="CP3" s="26" t="s">
         <v>1256</v>
       </c>
-      <c r="CP3" s="26" t="s">
+      <c r="CQ3" s="26" t="s">
         <v>1257</v>
       </c>
-      <c r="CQ3" s="26" t="s">
+      <c r="CR3" s="26" t="s">
         <v>1258</v>
       </c>
-      <c r="CR3" s="26" t="s">
+      <c r="CS3" s="26" t="s">
         <v>1259</v>
       </c>
-      <c r="CS3" s="26" t="s">
+      <c r="CT3" s="26" t="s">
         <v>1788</v>
       </c>
-      <c r="CT3" s="26" t="s">
+      <c r="CU3" s="26" t="s">
         <v>1260</v>
       </c>
-      <c r="CU3" s="26" t="s">
+      <c r="CV3" s="26" t="s">
         <v>1261</v>
       </c>
-      <c r="CV3" s="26" t="s">
+      <c r="CW3" s="26" t="s">
         <v>1262</v>
       </c>
-      <c r="CW3" s="26" t="s">
+      <c r="CX3" s="26" t="s">
         <v>1263</v>
       </c>
-      <c r="CX3" s="26" t="s">
+      <c r="CY3" s="26" t="s">
         <v>1264</v>
       </c>
-      <c r="CY3" s="26" t="s">
+      <c r="CZ3" s="26" t="s">
         <v>1265</v>
       </c>
-      <c r="CZ3" s="26" t="s">
+      <c r="DA3" s="26" t="s">
         <v>1266</v>
       </c>
-      <c r="DA3" s="26" t="s">
+      <c r="DB3" s="26" t="s">
         <v>1267</v>
       </c>
-      <c r="DB3" s="26" t="s">
+      <c r="DC3" s="26" t="s">
         <v>1268</v>
       </c>
-      <c r="DC3" s="26" t="s">
+      <c r="DD3" s="26" t="s">
         <v>1269</v>
       </c>
-      <c r="DD3" s="26" t="s">
+      <c r="DE3" s="26" t="s">
         <v>1270</v>
       </c>
-      <c r="DE3" s="26" t="s">
+      <c r="DF3" s="26" t="s">
         <v>1271</v>
       </c>
-      <c r="DF3" s="26" t="s">
+      <c r="DG3" s="26" t="s">
         <v>1272</v>
       </c>
-      <c r="DG3" s="26" t="s">
+      <c r="DH3" s="26" t="s">
         <v>1273</v>
       </c>
-      <c r="DH3" s="26" t="s">
+      <c r="DI3" s="26" t="s">
         <v>1274</v>
       </c>
-      <c r="DI3" s="26" t="s">
+      <c r="DJ3" s="26" t="s">
         <v>1275</v>
       </c>
-      <c r="DJ3" s="26" t="s">
+      <c r="DK3" s="26" t="s">
         <v>1276</v>
       </c>
-      <c r="DK3" s="26" t="s">
+      <c r="DL3" s="26" t="s">
         <v>1277</v>
       </c>
-      <c r="DL3" s="26" t="s">
+      <c r="DM3" s="26" t="s">
         <v>1278</v>
       </c>
-      <c r="DM3" s="26" t="s">
+      <c r="DN3" s="26" t="s">
         <v>1279</v>
       </c>
-      <c r="DN3" s="26" t="s">
+      <c r="DO3" s="26" t="s">
         <v>1280</v>
       </c>
-      <c r="DO3" s="26" t="s">
+      <c r="DP3" s="26" t="s">
         <v>1281</v>
       </c>
-      <c r="DP3" s="26" t="s">
+      <c r="DQ3" s="26" t="s">
         <v>1282</v>
       </c>
-      <c r="DQ3" s="26" t="s">
+      <c r="DR3" s="26" t="s">
         <v>1283</v>
       </c>
-      <c r="DR3" s="26" t="s">
+      <c r="DS3" s="26" t="s">
         <v>1284</v>
       </c>
-      <c r="DS3" s="26" t="s">
+      <c r="DT3" s="26" t="s">
         <v>1285</v>
       </c>
-      <c r="DT3" s="26" t="s">
+      <c r="DU3" s="26" t="s">
         <v>1286</v>
       </c>
-      <c r="DU3" s="26" t="s">
+      <c r="DV3" s="26" t="s">
         <v>1287</v>
       </c>
-      <c r="DV3" s="26" t="s">
+      <c r="DW3" s="26" t="s">
         <v>1288</v>
       </c>
-      <c r="DW3" s="26" t="s">
+      <c r="DX3" s="26" t="s">
         <v>1289</v>
       </c>
-      <c r="DX3" s="26" t="s">
+      <c r="DY3" s="26" t="s">
         <v>1290</v>
       </c>
-      <c r="DY3" s="26" t="s">
+      <c r="DZ3" s="26" t="s">
         <v>1291</v>
       </c>
-      <c r="DZ3" s="26" t="s">
+      <c r="EA3" s="26" t="s">
         <v>1292</v>
       </c>
-      <c r="EA3" s="26" t="s">
+      <c r="EB3" s="26" t="s">
         <v>1293</v>
       </c>
-      <c r="EB3" s="26" t="s">
+      <c r="EC3" s="26" t="s">
         <v>1294</v>
       </c>
-      <c r="EC3" s="26" t="s">
+      <c r="ED3" s="26" t="s">
         <v>1282</v>
       </c>
-      <c r="ED3" s="26" t="s">
+      <c r="EE3" s="26" t="s">
         <v>1295</v>
       </c>
-      <c r="EE3" s="26" t="s">
+      <c r="EF3" s="26" t="s">
         <v>1296</v>
       </c>
-      <c r="EF3" s="26" t="s">
+      <c r="EG3" s="26" t="s">
         <v>1297</v>
       </c>
-      <c r="EG3" s="26" t="s">
+      <c r="EH3" s="26" t="s">
         <v>1298</v>
       </c>
-      <c r="EH3" s="26" t="s">
+      <c r="EI3" s="26" t="s">
         <v>1299</v>
       </c>
-      <c r="EI3" s="26" t="s">
+      <c r="EJ3" s="26" t="s">
         <v>1300</v>
       </c>
-      <c r="EJ3" s="26" t="s">
+      <c r="EK3" s="26" t="s">
         <v>1301</v>
       </c>
-      <c r="EK3" s="26" t="s">
+      <c r="EL3" s="26" t="s">
         <v>1302</v>
       </c>
-      <c r="EL3" s="26" t="s">
+      <c r="EM3" s="26" t="s">
         <v>1303</v>
       </c>
-      <c r="EM3" s="26" t="s">
+      <c r="EN3" s="26" t="s">
         <v>1304</v>
       </c>
-      <c r="EN3" s="26" t="s">
+      <c r="EO3" s="26" t="s">
         <v>1305</v>
       </c>
-      <c r="EO3" s="26" t="s">
+      <c r="EP3" s="26" t="s">
         <v>1306</v>
       </c>
-      <c r="EP3" s="26" t="s">
+      <c r="EQ3" s="26" t="s">
         <v>1307</v>
       </c>
-      <c r="EQ3" s="26" t="s">
+      <c r="ER3" s="26" t="s">
         <v>1308</v>
       </c>
-      <c r="ER3" s="26" t="s">
+      <c r="ES3" s="26" t="s">
         <v>1309</v>
       </c>
-      <c r="ES3" s="26" t="s">
+      <c r="ET3" s="26" t="s">
         <v>1310</v>
       </c>
-      <c r="ET3" s="26" t="s">
+      <c r="EU3" s="26" t="s">
         <v>1311</v>
       </c>
-      <c r="EU3" s="26" t="s">
+      <c r="EV3" s="26" t="s">
         <v>1312</v>
       </c>
-      <c r="EV3" s="26" t="s">
+      <c r="EW3" s="26" t="s">
         <v>1313</v>
       </c>
-      <c r="EW3" s="26" t="s">
+      <c r="EX3" s="26" t="s">
         <v>1314</v>
       </c>
-      <c r="EX3" s="26" t="s">
+      <c r="EY3" s="26" t="s">
         <v>1315</v>
       </c>
-      <c r="EY3" s="26" t="s">
+      <c r="EZ3" s="26" t="s">
         <v>1316</v>
       </c>
-      <c r="EZ3" s="26" t="s">
+      <c r="FA3" s="26" t="s">
         <v>1317</v>
       </c>
-      <c r="FA3" s="26" t="s">
+      <c r="FB3" s="26" t="s">
         <v>1318</v>
       </c>
-      <c r="FB3" s="26" t="s">
+      <c r="FC3" s="26" t="s">
         <v>1319</v>
       </c>
-      <c r="FC3" s="26" t="s">
+      <c r="FD3" s="26" t="s">
         <v>1320</v>
       </c>
-      <c r="FD3" s="26" t="s">
+      <c r="FE3" s="26" t="s">
         <v>1321</v>
       </c>
-      <c r="FE3" s="26" t="s">
+      <c r="FF3" s="26" t="s">
         <v>1322</v>
       </c>
-      <c r="FF3" s="26" t="s">
+      <c r="FG3" s="26" t="s">
         <v>1323</v>
       </c>
-      <c r="FG3" s="26" t="s">
+      <c r="FH3" s="26" t="s">
         <v>1324</v>
       </c>
-      <c r="FH3" s="26" t="s">
+      <c r="FI3" s="26" t="s">
         <v>1325</v>
       </c>
-      <c r="FI3" s="26" t="s">
+      <c r="FJ3" s="26" t="s">
         <v>1326</v>
       </c>
-      <c r="FJ3" s="26" t="s">
+      <c r="FK3" s="26" t="s">
         <v>1327</v>
       </c>
-      <c r="FK3" s="26" t="s">
+      <c r="FL3" s="26" t="s">
         <v>1328</v>
       </c>
-      <c r="FL3" s="26" t="s">
+      <c r="FM3" s="26" t="s">
         <v>1329</v>
       </c>
-      <c r="FM3" s="26" t="s">
+      <c r="FN3" s="26" t="s">
         <v>1803</v>
       </c>
-      <c r="FN3" s="26" t="s">
+      <c r="FO3" s="26" t="s">
         <v>1330</v>
       </c>
-      <c r="FO3" s="26" t="s">
+      <c r="FP3" s="26" t="s">
         <v>1331</v>
       </c>
-      <c r="FP3" s="26" t="s">
+      <c r="FQ3" s="26" t="s">
         <v>1332</v>
       </c>
-      <c r="FQ3" s="26" t="s">
+      <c r="FR3" s="26" t="s">
         <v>1333</v>
       </c>
-      <c r="FR3" s="26" t="s">
+      <c r="FS3" s="26" t="s">
         <v>1334</v>
       </c>
-      <c r="FS3" s="26" t="s">
+      <c r="FT3" s="26" t="s">
         <v>1335</v>
       </c>
-      <c r="FT3" s="26" t="s">
+      <c r="FU3" s="26" t="s">
         <v>1336</v>
       </c>
-      <c r="FU3" s="26" t="s">
+      <c r="FV3" s="26" t="s">
         <v>1337</v>
       </c>
-      <c r="FV3" s="26" t="s">
+      <c r="FW3" s="26" t="s">
         <v>1338</v>
       </c>
-      <c r="FW3" s="26" t="s">
+      <c r="FX3" s="26" t="s">
         <v>1339</v>
       </c>
-      <c r="FX3" s="26" t="s">
+      <c r="FY3" s="26" t="s">
         <v>1340</v>
       </c>
-      <c r="FY3" s="26" t="s">
+      <c r="FZ3" s="26" t="s">
         <v>1341</v>
       </c>
-      <c r="FZ3" s="26" t="s">
+      <c r="GA3" s="26" t="s">
         <v>1342</v>
       </c>
-      <c r="GA3" s="26" t="s">
+      <c r="GB3" s="26" t="s">
         <v>1343</v>
       </c>
-      <c r="GB3" s="26" t="s">
+      <c r="GC3" s="26" t="s">
         <v>1344</v>
       </c>
-      <c r="GC3" s="26" t="s">
+      <c r="GD3" s="26" t="s">
         <v>1345</v>
       </c>
-      <c r="GD3" s="26" t="s">
+      <c r="GE3" s="26" t="s">
         <v>1346</v>
       </c>
-      <c r="GE3" s="26" t="s">
+      <c r="GF3" s="26" t="s">
         <v>1347</v>
       </c>
-      <c r="GF3" s="26" t="s">
+      <c r="GG3" s="26" t="s">
         <v>1348</v>
       </c>
-      <c r="GG3" s="26" t="s">
+      <c r="GH3" s="26" t="s">
         <v>1349</v>
       </c>
-      <c r="GH3" s="26" t="s">
+      <c r="GI3" s="26" t="s">
         <v>1350</v>
       </c>
-      <c r="GI3" s="26" t="s">
+      <c r="GJ3" s="26" t="s">
         <v>1351</v>
       </c>
-      <c r="GJ3" s="26" t="s">
+      <c r="GK3" s="26" t="s">
         <v>1352</v>
       </c>
-      <c r="GK3" s="26" t="s">
+      <c r="GL3" s="26" t="s">
         <v>1353</v>
       </c>
-      <c r="GL3" s="26" t="s">
+      <c r="GM3" s="26" t="s">
         <v>1354</v>
       </c>
-      <c r="GM3" s="26" t="s">
+      <c r="GN3" s="26" t="s">
         <v>1355</v>
       </c>
-      <c r="GN3" s="26" t="s">
+      <c r="GO3" s="26" t="s">
         <v>1800</v>
       </c>
-      <c r="GO3" s="26" t="s">
+      <c r="GP3" s="26" t="s">
         <v>1356</v>
       </c>
-      <c r="GP3" s="26" t="s">
+      <c r="GQ3" s="26" t="s">
         <v>1357</v>
       </c>
-      <c r="GQ3" s="26" t="s">
+      <c r="GR3" s="26" t="s">
         <v>1358</v>
       </c>
-      <c r="GR3" s="26" t="s">
+      <c r="GS3" s="26" t="s">
         <v>1359</v>
       </c>
-      <c r="GS3" s="26" t="s">
+      <c r="GT3" s="26" t="s">
         <v>1360</v>
       </c>
-      <c r="GT3" s="26" t="s">
+      <c r="GU3" s="26" t="s">
         <v>1361</v>
       </c>
-      <c r="GU3" s="26" t="s">
+      <c r="GV3" s="26" t="s">
         <v>1362</v>
       </c>
-      <c r="GV3" s="26" t="s">
+      <c r="GW3" s="26" t="s">
         <v>1363</v>
       </c>
-      <c r="GW3" s="26" t="s">
+      <c r="GX3" s="26" t="s">
         <v>1364</v>
       </c>
-      <c r="GX3" s="26" t="s">
+      <c r="GY3" s="26" t="s">
         <v>1365</v>
       </c>
-      <c r="GY3" s="26" t="s">
+      <c r="GZ3" s="26" t="s">
         <v>1366</v>
       </c>
-      <c r="GZ3" s="26" t="s">
+      <c r="HA3" s="26" t="s">
         <v>1367</v>
       </c>
-      <c r="HA3" s="26" t="s">
+      <c r="HB3" s="26" t="s">
         <v>1368</v>
       </c>
-      <c r="HB3" s="26" t="s">
+      <c r="HC3" s="26" t="s">
         <v>1369</v>
       </c>
-      <c r="HC3" s="26" t="s">
+      <c r="HD3" s="26" t="s">
         <v>1370</v>
       </c>
-      <c r="HD3" s="26" t="s">
+      <c r="HE3" s="26" t="s">
         <v>1371</v>
       </c>
-      <c r="HE3" s="26" t="s">
+      <c r="HF3" s="26" t="s">
         <v>1372</v>
       </c>
-      <c r="HF3" s="26" t="s">
+      <c r="HG3" s="26" t="s">
         <v>1373</v>
       </c>
-      <c r="HG3" s="26" t="s">
+      <c r="HH3" s="26" t="s">
         <v>1374</v>
       </c>
-      <c r="HH3" s="26" t="s">
+      <c r="HI3" s="26" t="s">
         <v>1375</v>
       </c>
-      <c r="HI3" s="26" t="s">
+      <c r="HJ3" s="26" t="s">
         <v>1376</v>
       </c>
-      <c r="HJ3" s="26" t="s">
+      <c r="HK3" s="26" t="s">
         <v>1377</v>
       </c>
-      <c r="HK3" s="26" t="s">
+      <c r="HL3" s="26" t="s">
         <v>1378</v>
       </c>
-      <c r="HL3" s="26" t="s">
+      <c r="HM3" s="26" t="s">
         <v>1379</v>
       </c>
-      <c r="HM3" s="26" t="s">
+      <c r="HN3" s="26" t="s">
         <v>1380</v>
       </c>
-      <c r="HN3" s="26" t="s">
+      <c r="HO3" s="26" t="s">
         <v>1381</v>
       </c>
-      <c r="HO3" s="26" t="s">
+      <c r="HP3" s="26" t="s">
         <v>1382</v>
       </c>
-      <c r="HP3" s="26" t="s">
+      <c r="HQ3" s="26" t="s">
         <v>1383</v>
       </c>
-      <c r="HQ3" s="26" t="s">
+      <c r="HR3" s="26" t="s">
         <v>1384</v>
       </c>
-      <c r="HR3" s="26" t="s">
+      <c r="HS3" s="26" t="s">
         <v>1385</v>
       </c>
-      <c r="HS3" s="26" t="s">
+      <c r="HT3" s="26" t="s">
         <v>1386</v>
       </c>
-      <c r="HT3" s="26" t="s">
+      <c r="HU3" s="26" t="s">
         <v>1387</v>
       </c>
-      <c r="HU3" s="26" t="s">
+      <c r="HV3" s="26" t="s">
         <v>1388</v>
       </c>
-      <c r="HV3" s="26" t="s">
+      <c r="HW3" s="26" t="s">
         <v>1389</v>
       </c>
-      <c r="HW3" s="26" t="s">
+      <c r="HX3" s="26" t="s">
         <v>1390</v>
       </c>
-      <c r="HX3" s="26" t="s">
+      <c r="HY3" s="26" t="s">
         <v>1391</v>
       </c>
-      <c r="HY3" s="26" t="s">
+      <c r="HZ3" s="26" t="s">
         <v>1392</v>
       </c>
-      <c r="HZ3" s="26" t="s">
+      <c r="IA3" s="26" t="s">
         <v>1393</v>
       </c>
-      <c r="IA3" s="26" t="s">
+      <c r="IB3" s="26" t="s">
         <v>1394</v>
       </c>
-      <c r="IB3" s="26" t="s">
+      <c r="IC3" s="26" t="s">
         <v>1395</v>
       </c>
-      <c r="IC3" s="26" t="s">
+      <c r="ID3" s="26" t="s">
         <v>1396</v>
       </c>
-      <c r="ID3" s="26" t="s">
+      <c r="IE3" s="26" t="s">
         <v>1397</v>
       </c>
-      <c r="IE3" s="26" t="s">
+      <c r="IF3" s="26" t="s">
         <v>1398</v>
       </c>
-      <c r="IF3" s="26" t="s">
+      <c r="IG3" s="26" t="s">
         <v>1399</v>
       </c>
-      <c r="IG3" s="26" t="s">
+      <c r="IH3" s="26" t="s">
         <v>1400</v>
       </c>
-      <c r="IH3" s="26" t="s">
+      <c r="II3" s="26" t="s">
         <v>1401</v>
       </c>
-      <c r="II3" s="26" t="s">
+      <c r="IJ3" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="IJ3" s="26" t="s">
+      <c r="IK3" s="26" t="s">
         <v>1403</v>
       </c>
-      <c r="IK3" s="26" t="s">
+      <c r="IL3" s="26" t="s">
         <v>1404</v>
       </c>
-      <c r="IL3" s="26" t="s">
+      <c r="IM3" s="26" t="s">
         <v>1405</v>
       </c>
-      <c r="IM3" s="26" t="s">
+      <c r="IN3" s="26" t="s">
         <v>1406</v>
       </c>
-      <c r="IN3" s="26" t="s">
+      <c r="IO3" s="26" t="s">
         <v>1407</v>
       </c>
-      <c r="IO3" s="26" t="s">
+      <c r="IP3" s="26" t="s">
         <v>1408</v>
       </c>
-      <c r="IP3" s="26" t="s">
+      <c r="IQ3" s="26" t="s">
         <v>1409</v>
       </c>
-      <c r="IQ3" s="26" t="s">
+      <c r="IR3" s="26" t="s">
         <v>1797</v>
       </c>
-      <c r="IR3" s="26" t="s">
+      <c r="IS3" s="26" t="s">
         <v>1410</v>
       </c>
-      <c r="IS3" s="26" t="s">
+      <c r="IT3" s="26" t="s">
         <v>1411</v>
       </c>
-      <c r="IT3" s="26" t="s">
+      <c r="IU3" s="26" t="s">
         <v>1412</v>
       </c>
-      <c r="IU3" s="26" t="s">
+      <c r="IV3" s="26" t="s">
         <v>1413</v>
       </c>
-      <c r="IV3" s="26" t="s">
+      <c r="IW3" s="26" t="s">
         <v>1414</v>
       </c>
-      <c r="IW3" s="26" t="s">
+      <c r="IX3" s="26" t="s">
         <v>1415</v>
       </c>
-      <c r="IX3" s="26" t="s">
+      <c r="IY3" s="26" t="s">
         <v>1416</v>
       </c>
-      <c r="IY3" s="26" t="s">
+      <c r="IZ3" s="26" t="s">
         <v>1417</v>
       </c>
-      <c r="IZ3" s="26" t="s">
+      <c r="JA3" s="26" t="s">
         <v>1418</v>
       </c>
-      <c r="JA3" s="26" t="s">
+      <c r="JB3" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="JB3" s="26" t="s">
+      <c r="JC3" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="JC3" s="26" t="s">
+      <c r="JD3" s="26" t="s">
         <v>1421</v>
       </c>
-      <c r="JD3" s="26" t="s">
+      <c r="JE3" s="26" t="s">
         <v>1422</v>
       </c>
-      <c r="JE3" s="26" t="s">
+      <c r="JF3" s="26" t="s">
         <v>1423</v>
       </c>
-      <c r="JF3" s="26" t="s">
+      <c r="JG3" s="26" t="s">
         <v>1424</v>
       </c>
-      <c r="JG3" s="26" t="s">
+      <c r="JH3" s="26" t="s">
         <v>1425</v>
       </c>
-      <c r="JH3" s="26" t="s">
+      <c r="JI3" s="26" t="s">
         <v>1426</v>
       </c>
-      <c r="JI3" s="26" t="s">
+      <c r="JJ3" s="26" t="s">
         <v>1427</v>
       </c>
-      <c r="JJ3" s="26" t="s">
+      <c r="JK3" s="26" t="s">
         <v>1428</v>
       </c>
-      <c r="JK3" s="26" t="s">
+      <c r="JL3" s="26" t="s">
         <v>1429</v>
       </c>
-      <c r="JL3" s="26" t="s">
+      <c r="JM3" s="26" t="s">
         <v>1430</v>
       </c>
-      <c r="JM3" s="26" t="s">
+      <c r="JN3" s="26" t="s">
         <v>1431</v>
       </c>
-      <c r="JN3" s="26" t="s">
+      <c r="JO3" s="26" t="s">
         <v>1432</v>
       </c>
-      <c r="JO3" s="26" t="s">
+      <c r="JP3" s="26" t="s">
         <v>1433</v>
       </c>
-      <c r="JP3" s="26" t="s">
+      <c r="JQ3" s="26" t="s">
         <v>1434</v>
       </c>
-      <c r="JQ3" s="26" t="s">
+      <c r="JR3" s="26" t="s">
         <v>1435</v>
       </c>
-      <c r="JR3" s="26" t="s">
+      <c r="JS3" s="26" t="s">
         <v>1436</v>
       </c>
-      <c r="JS3" s="26" t="s">
+      <c r="JT3" s="26" t="s">
         <v>1437</v>
       </c>
-      <c r="JT3" s="26" t="s">
+      <c r="JU3" s="26" t="s">
         <v>1438</v>
       </c>
-      <c r="JU3" s="26" t="s">
+      <c r="JV3" s="26" t="s">
         <v>1439</v>
       </c>
-      <c r="JV3" s="26" t="s">
+      <c r="JW3" s="26" t="s">
         <v>1440</v>
       </c>
-      <c r="JW3" s="26" t="s">
+      <c r="JX3" s="26" t="s">
         <v>1441</v>
       </c>
-      <c r="JX3" s="26" t="s">
+      <c r="JY3" s="26" t="s">
         <v>1442</v>
       </c>
-      <c r="JY3" s="26" t="s">
+      <c r="JZ3" s="26" t="s">
         <v>1443</v>
       </c>
-      <c r="JZ3" s="26" t="s">
+      <c r="KA3" s="26" t="s">
         <v>1444</v>
       </c>
-      <c r="KA3" s="26" t="s">
+      <c r="KB3" s="26" t="s">
         <v>1445</v>
       </c>
-      <c r="KB3" s="26" t="s">
+      <c r="KC3" s="26" t="s">
         <v>1446</v>
       </c>
-      <c r="KC3" s="26" t="s">
+      <c r="KD3" s="26" t="s">
         <v>1447</v>
       </c>
-      <c r="KD3" s="26" t="s">
+      <c r="KE3" s="26" t="s">
         <v>1448</v>
       </c>
-      <c r="KE3" s="26" t="s">
+      <c r="KF3" s="26" t="s">
         <v>1449</v>
       </c>
-      <c r="KF3" s="26" t="s">
+      <c r="KG3" s="26" t="s">
         <v>1450</v>
       </c>
-      <c r="KG3" s="26" t="s">
+      <c r="KH3" s="26" t="s">
         <v>1451</v>
       </c>
-      <c r="KH3" s="26" t="s">
+      <c r="KI3" s="26" t="s">
         <v>1452</v>
       </c>
-      <c r="KI3" s="26" t="s">
+      <c r="KJ3" s="26" t="s">
         <v>1453</v>
       </c>
-      <c r="KJ3" s="26" t="s">
+      <c r="KK3" s="26" t="s">
         <v>1454</v>
       </c>
-      <c r="KK3" s="26" t="s">
+      <c r="KL3" s="26" t="s">
         <v>1455</v>
       </c>
-      <c r="KL3" s="26" t="s">
+      <c r="KM3" s="26" t="s">
         <v>1456</v>
       </c>
-      <c r="KM3" s="26" t="s">
+      <c r="KN3" s="26" t="s">
         <v>1457</v>
       </c>
-      <c r="KN3" s="26" t="s">
+      <c r="KO3" s="26" t="s">
         <v>1458</v>
       </c>
-      <c r="KO3" s="26" t="s">
+      <c r="KP3" s="26" t="s">
         <v>1459</v>
       </c>
-      <c r="KP3" s="26" t="s">
+      <c r="KQ3" s="26" t="s">
         <v>1460</v>
       </c>
-      <c r="KQ3" s="26" t="s">
+      <c r="KR3" s="26" t="s">
         <v>1461</v>
       </c>
-      <c r="KR3" s="26" t="s">
+      <c r="KS3" s="26" t="s">
         <v>1462</v>
       </c>
-      <c r="KS3" s="26" t="s">
+      <c r="KT3" s="26" t="s">
         <v>1463</v>
       </c>
-      <c r="KT3" s="26" t="s">
+      <c r="KU3" s="26" t="s">
         <v>1464</v>
       </c>
-      <c r="KU3" s="26" t="s">
+      <c r="KV3" s="26" t="s">
         <v>1465</v>
       </c>
-      <c r="KV3" s="26" t="s">
+      <c r="KW3" s="26" t="s">
         <v>1466</v>
       </c>
-      <c r="KW3" s="26" t="s">
+      <c r="KX3" s="26" t="s">
         <v>1467</v>
       </c>
-      <c r="KX3" s="26" t="s">
+      <c r="KY3" s="26" t="s">
         <v>1468</v>
       </c>
-      <c r="KY3" s="26" t="s">
+      <c r="KZ3" s="26" t="s">
         <v>1469</v>
       </c>
-      <c r="KZ3" s="26" t="s">
+      <c r="LA3" s="26" t="s">
         <v>1470</v>
       </c>
-      <c r="LA3" s="26" t="s">
+      <c r="LB3" s="26" t="s">
         <v>1471</v>
       </c>
-      <c r="LB3" s="26" t="s">
+      <c r="LC3" s="26" t="s">
         <v>1472</v>
       </c>
-      <c r="LC3" s="26" t="s">
+      <c r="LD3" s="26" t="s">
         <v>1473</v>
       </c>
-      <c r="LD3" s="26" t="s">
+      <c r="LE3" s="26" t="s">
         <v>1474</v>
       </c>
-      <c r="LE3" s="26" t="s">
+      <c r="LF3" s="26" t="s">
         <v>1475</v>
       </c>
-      <c r="LF3" s="26" t="s">
+      <c r="LG3" s="26" t="s">
         <v>1476</v>
       </c>
-      <c r="LG3" s="26" t="s">
+      <c r="LH3" s="26" t="s">
         <v>1477</v>
       </c>
-      <c r="LH3" s="26" t="s">
+      <c r="LI3" s="26" t="s">
         <v>1478</v>
       </c>
-      <c r="LI3" s="26" t="s">
+      <c r="LJ3" s="26" t="s">
         <v>1479</v>
       </c>
-      <c r="LJ3" s="26" t="s">
+      <c r="LK3" s="26" t="s">
         <v>1480</v>
       </c>
-      <c r="LK3" s="26" t="s">
+      <c r="LL3" s="26" t="s">
         <v>1481</v>
       </c>
-      <c r="LL3" s="26" t="s">
+      <c r="LM3" s="26" t="s">
         <v>1482</v>
       </c>
-      <c r="LM3" s="26" t="s">
+      <c r="LN3" s="26" t="s">
         <v>1483</v>
       </c>
-      <c r="LN3" s="26" t="s">
+      <c r="LO3" s="26" t="s">
         <v>1484</v>
       </c>
-      <c r="LO3" s="26" t="s">
+      <c r="LP3" s="26" t="s">
         <v>1485</v>
       </c>
-      <c r="LP3" s="26" t="s">
+      <c r="LQ3" s="26" t="s">
         <v>1486</v>
       </c>
-      <c r="LQ3" s="26" t="s">
+      <c r="LR3" s="26" t="s">
         <v>1487</v>
       </c>
-      <c r="LR3" s="26" t="s">
+      <c r="LS3" s="26" t="s">
         <v>1488</v>
       </c>
-      <c r="LS3" s="26" t="s">
+      <c r="LT3" s="26" t="s">
         <v>1489</v>
       </c>
-      <c r="LT3" s="26" t="s">
+      <c r="LU3" s="26" t="s">
         <v>1490</v>
       </c>
-      <c r="LU3" s="26" t="s">
+      <c r="LV3" s="26" t="s">
         <v>1491</v>
       </c>
-      <c r="LV3" s="26" t="s">
+      <c r="LW3" s="26" t="s">
         <v>1492</v>
       </c>
-      <c r="LW3" s="26" t="s">
+      <c r="LX3" s="26" t="s">
         <v>1493</v>
       </c>
-      <c r="LX3" s="26" t="s">
+      <c r="LY3" s="26" t="s">
         <v>1494</v>
       </c>
-      <c r="LY3" s="26" t="s">
+      <c r="LZ3" s="26" t="s">
         <v>1495</v>
       </c>
-      <c r="LZ3" s="26" t="s">
+      <c r="MA3" s="26" t="s">
         <v>1496</v>
       </c>
-      <c r="MA3" s="26" t="s">
+      <c r="MB3" s="26" t="s">
         <v>1497</v>
       </c>
-      <c r="MB3" s="26" t="s">
+      <c r="MC3" s="26" t="s">
         <v>1498</v>
       </c>
-      <c r="MC3" s="26" t="s">
+      <c r="MD3" s="26" t="s">
         <v>1499</v>
       </c>
-      <c r="MD3" s="26" t="s">
+      <c r="ME3" s="26" t="s">
         <v>1500</v>
       </c>
-      <c r="ME3" s="26" t="s">
+      <c r="MF3" s="26" t="s">
         <v>1501</v>
       </c>
-      <c r="MF3" s="26" t="s">
+      <c r="MG3" s="26" t="s">
         <v>1502</v>
       </c>
-      <c r="MG3" s="26" t="s">
+      <c r="MH3" s="26" t="s">
         <v>1503</v>
       </c>
-      <c r="MH3" s="26" t="s">
+      <c r="MI3" s="26" t="s">
         <v>1504</v>
       </c>
-      <c r="MI3" s="26" t="s">
+      <c r="MJ3" s="26" t="s">
         <v>1505</v>
       </c>
-      <c r="MJ3" s="26" t="s">
+      <c r="MK3" s="26" t="s">
         <v>1506</v>
       </c>
-      <c r="MK3" s="26" t="s">
+      <c r="ML3" s="26" t="s">
         <v>1507</v>
       </c>
-      <c r="ML3" s="26" t="s">
+      <c r="MM3" s="26" t="s">
         <v>1508</v>
       </c>
-      <c r="MM3" s="26" t="s">
+      <c r="MN3" s="26" t="s">
         <v>1509</v>
       </c>
-      <c r="MN3" s="26" t="s">
+      <c r="MO3" s="26" t="s">
         <v>1510</v>
       </c>
-      <c r="MO3" s="26" t="s">
+      <c r="MP3" s="26" t="s">
         <v>1511</v>
       </c>
-      <c r="MP3" s="26" t="s">
+      <c r="MQ3" s="26" t="s">
         <v>1512</v>
       </c>
-      <c r="MQ3" s="26" t="s">
+      <c r="MR3" s="26" t="s">
         <v>1513</v>
       </c>
-      <c r="MR3" s="26" t="s">
+      <c r="MS3" s="26" t="s">
         <v>1514</v>
       </c>
-      <c r="MS3" s="26" t="s">
+      <c r="MT3" s="26" t="s">
         <v>1515</v>
       </c>
-      <c r="MT3" s="26" t="s">
+      <c r="MU3" s="26" t="s">
         <v>1516</v>
       </c>
-      <c r="MU3" s="26" t="s">
+      <c r="MV3" s="26" t="s">
         <v>1517</v>
       </c>
-      <c r="MV3" s="26" t="s">
+      <c r="MW3" s="26" t="s">
         <v>1518</v>
       </c>
-      <c r="MW3" s="26" t="s">
+      <c r="MX3" s="26" t="s">
         <v>1519</v>
       </c>
-      <c r="MX3" s="26" t="s">
+      <c r="MY3" s="26" t="s">
         <v>1520</v>
       </c>
-      <c r="MY3" s="26" t="s">
+      <c r="MZ3" s="26" t="s">
         <v>1521</v>
       </c>
-      <c r="MZ3" s="26" t="s">
+      <c r="NA3" s="26" t="s">
         <v>1522</v>
       </c>
-      <c r="NA3" s="26" t="s">
+      <c r="NB3" s="26" t="s">
         <v>1523</v>
       </c>
-      <c r="NB3" s="26" t="s">
+      <c r="NC3" s="26" t="s">
         <v>1524</v>
       </c>
-      <c r="NC3" s="26" t="s">
+      <c r="ND3" s="26" t="s">
         <v>1525</v>
       </c>
-      <c r="ND3" s="26" t="s">
+      <c r="NE3" s="26" t="s">
         <v>1526</v>
       </c>
-      <c r="NE3" s="26" t="s">
+      <c r="NF3" s="26" t="s">
         <v>1527</v>
       </c>
-      <c r="NF3" s="26" t="s">
+      <c r="NG3" s="26" t="s">
         <v>1528</v>
       </c>
-      <c r="NG3" s="26" t="s">
+      <c r="NH3" s="26" t="s">
         <v>1529</v>
       </c>
-      <c r="NH3" s="26" t="s">
+      <c r="NI3" s="26" t="s">
         <v>1530</v>
       </c>
-      <c r="NI3" s="26" t="s">
+      <c r="NJ3" s="26" t="s">
         <v>1531</v>
       </c>
-      <c r="NJ3" s="26" t="s">
+      <c r="NK3" s="26" t="s">
         <v>1532</v>
       </c>
-      <c r="NK3" s="26" t="s">
+      <c r="NL3" s="26" t="s">
         <v>1533</v>
       </c>
-      <c r="NL3" s="26" t="s">
+      <c r="NM3" s="26" t="s">
         <v>1534</v>
       </c>
-      <c r="NM3" s="26" t="s">
+      <c r="NN3" s="26" t="s">
         <v>1535</v>
       </c>
-      <c r="NN3" s="26" t="s">
+      <c r="NO3" s="26" t="s">
         <v>1536</v>
       </c>
-      <c r="NO3" s="26" t="s">
+      <c r="NP3" s="26" t="s">
         <v>1537</v>
       </c>
-      <c r="NP3" s="26" t="s">
+      <c r="NQ3" s="26" t="s">
         <v>1538</v>
       </c>
-      <c r="NQ3" s="26" t="s">
+      <c r="NR3" s="26" t="s">
         <v>1539</v>
       </c>
-      <c r="NR3" s="26" t="s">
+      <c r="NS3" s="26" t="s">
         <v>1540</v>
       </c>
-      <c r="NS3" s="26" t="s">
+      <c r="NT3" s="26" t="s">
         <v>1541</v>
       </c>
-      <c r="NT3" s="26" t="s">
+      <c r="NU3" s="26" t="s">
         <v>1542</v>
       </c>
-      <c r="NU3" s="26" t="s">
+      <c r="NV3" s="26" t="s">
         <v>1543</v>
       </c>
-      <c r="NV3" s="26" t="s">
+      <c r="NW3" s="26" t="s">
         <v>1544</v>
       </c>
-      <c r="NW3" s="26" t="s">
+      <c r="NX3" s="26" t="s">
         <v>1545</v>
       </c>
-      <c r="NX3" s="26" t="s">
+      <c r="NY3" s="26" t="s">
         <v>1546</v>
       </c>
-      <c r="NY3" s="26" t="s">
+      <c r="NZ3" s="26" t="s">
         <v>1547</v>
       </c>
-      <c r="NZ3" s="26" t="s">
+      <c r="OA3" s="26" t="s">
         <v>1548</v>
       </c>
-      <c r="OA3" s="26" t="s">
+      <c r="OB3" s="26" t="s">
         <v>1549</v>
       </c>
-      <c r="OB3" s="26" t="s">
+      <c r="OC3" s="26" t="s">
         <v>1550</v>
       </c>
-      <c r="OC3" s="26" t="s">
+      <c r="OD3" s="26" t="s">
         <v>1551</v>
       </c>
-      <c r="OD3" s="26" t="s">
+      <c r="OE3" s="26" t="s">
         <v>1552</v>
       </c>
-      <c r="OE3" s="26" t="s">
+      <c r="OF3" s="26" t="s">
         <v>1553</v>
       </c>
-      <c r="OF3" s="26" t="s">
+      <c r="OG3" s="26" t="s">
         <v>1554</v>
       </c>
-      <c r="OG3" s="26" t="s">
+      <c r="OH3" s="26" t="s">
         <v>1555</v>
       </c>
-      <c r="OH3" s="26" t="s">
+      <c r="OI3" s="26" t="s">
         <v>1556</v>
       </c>
-      <c r="OI3" s="26" t="s">
+      <c r="OJ3" s="26" t="s">
         <v>1557</v>
       </c>
-      <c r="OJ3" s="26" t="s">
+      <c r="OK3" s="26" t="s">
         <v>1558</v>
       </c>
-      <c r="OK3" s="26" t="s">
+      <c r="OL3" s="26" t="s">
         <v>1559</v>
       </c>
-      <c r="OL3" s="26" t="s">
+      <c r="OM3" s="26" t="s">
         <v>1560</v>
       </c>
-      <c r="OM3" s="26" t="s">
+      <c r="ON3" s="26" t="s">
         <v>1561</v>
       </c>
-      <c r="ON3" s="26" t="s">
+      <c r="OO3" s="26" t="s">
         <v>1562</v>
       </c>
-      <c r="OO3" s="26" t="s">
+      <c r="OP3" s="26" t="s">
         <v>1550</v>
       </c>
-      <c r="OP3" s="26" t="s">
+      <c r="OQ3" s="26" t="s">
         <v>1563</v>
       </c>
-      <c r="OQ3" s="26" t="s">
+      <c r="OR3" s="26" t="s">
         <v>1564</v>
       </c>
-      <c r="OR3" s="26" t="s">
+      <c r="OS3" s="26" t="s">
         <v>1795</v>
       </c>
-      <c r="OS3" s="26" t="s">
+      <c r="OT3" s="26" t="s">
         <v>1565</v>
       </c>
-      <c r="OT3" s="26" t="s">
+      <c r="OU3" s="26" t="s">
         <v>1566</v>
       </c>
-      <c r="OU3" s="26" t="s">
+      <c r="OV3" s="26" t="s">
         <v>1567</v>
       </c>
-      <c r="OV3" s="26" t="s">
+      <c r="OW3" s="26" t="s">
         <v>1568</v>
       </c>
-      <c r="OW3" s="26" t="s">
+      <c r="OX3" s="26" t="s">
         <v>1569</v>
       </c>
-      <c r="OX3" s="26" t="s">
+      <c r="OY3" s="26" t="s">
         <v>1570</v>
       </c>
-      <c r="OY3" s="26" t="s">
+      <c r="OZ3" s="26" t="s">
         <v>1571</v>
       </c>
-      <c r="OZ3" s="26" t="s">
+      <c r="PA3" s="26" t="s">
         <v>1572</v>
       </c>
-      <c r="PA3" s="26" t="s">
+      <c r="PB3" s="26" t="s">
         <v>1573</v>
       </c>
-      <c r="PB3" s="26" t="s">
+      <c r="PC3" s="26" t="s">
         <v>1574</v>
       </c>
-      <c r="PC3" s="26" t="s">
+      <c r="PD3" s="26" t="s">
         <v>1575</v>
       </c>
-      <c r="PD3" s="26" t="s">
+      <c r="PE3" s="26" t="s">
         <v>1576</v>
       </c>
-      <c r="PE3" s="26" t="s">
+      <c r="PF3" s="26" t="s">
         <v>1577</v>
       </c>
-      <c r="PF3" s="26" t="s">
+      <c r="PG3" s="26" t="s">
         <v>1578</v>
       </c>
-      <c r="PG3" s="26" t="s">
+      <c r="PH3" s="26" t="s">
         <v>1579</v>
       </c>
-      <c r="PH3" s="26" t="s">
+      <c r="PI3" s="26" t="s">
         <v>1580</v>
       </c>
-      <c r="PI3" s="26" t="s">
+      <c r="PJ3" s="26" t="s">
         <v>1581</v>
       </c>
-      <c r="PJ3" s="26" t="s">
+      <c r="PK3" s="26" t="s">
         <v>1582</v>
       </c>
-      <c r="PK3" s="26" t="s">
+      <c r="PL3" s="26" t="s">
         <v>1583</v>
       </c>
-      <c r="PL3" s="26" t="s">
+      <c r="PM3" s="26" t="s">
         <v>1584</v>
       </c>
-      <c r="PM3" s="26" t="s">
+      <c r="PN3" s="26" t="s">
         <v>1585</v>
       </c>
-      <c r="PN3" s="26" t="s">
+      <c r="PO3" s="26" t="s">
         <v>1586</v>
       </c>
-      <c r="PO3" s="26" t="s">
+      <c r="PP3" s="26" t="s">
         <v>1587</v>
       </c>
-      <c r="PP3" s="26" t="s">
+      <c r="PQ3" s="26" t="s">
         <v>1588</v>
       </c>
-      <c r="PQ3" s="26" t="s">
+      <c r="PR3" s="26" t="s">
         <v>1589</v>
       </c>
-      <c r="PR3" s="26" t="s">
+      <c r="PS3" s="26" t="s">
         <v>1590</v>
       </c>
-      <c r="PS3" s="26" t="s">
+      <c r="PT3" s="26" t="s">
         <v>1591</v>
       </c>
-      <c r="PT3" s="26" t="s">
+      <c r="PU3" s="26" t="s">
         <v>1592</v>
       </c>
-      <c r="PU3" s="26" t="s">
+      <c r="PV3" s="26" t="s">
         <v>1593</v>
       </c>
-      <c r="PV3" s="26" t="s">
+      <c r="PW3" s="26" t="s">
         <v>1594</v>
       </c>
-      <c r="PW3" s="26" t="s">
+      <c r="PX3" s="26" t="s">
         <v>1595</v>
       </c>
-      <c r="PX3" s="26" t="s">
+      <c r="PY3" s="26" t="s">
         <v>1596</v>
       </c>
-      <c r="PY3" s="26" t="s">
+      <c r="PZ3" s="26" t="s">
         <v>1597</v>
       </c>
-      <c r="PZ3" s="26" t="s">
+      <c r="QA3" s="26" t="s">
         <v>1598</v>
       </c>
-      <c r="QA3" s="26" t="s">
+      <c r="QB3" s="26" t="s">
         <v>1599</v>
       </c>
-      <c r="QB3" s="26" t="s">
+      <c r="QC3" s="26" t="s">
         <v>1600</v>
       </c>
-      <c r="QC3" s="26" t="s">
+      <c r="QD3" s="26" t="s">
         <v>1601</v>
       </c>
-      <c r="QD3" s="26" t="s">
+      <c r="QE3" s="26" t="s">
         <v>1602</v>
       </c>
-      <c r="QE3" s="26" t="s">
+      <c r="QF3" s="26" t="s">
         <v>1603</v>
       </c>
-      <c r="QF3" s="26" t="s">
+      <c r="QG3" s="26" t="s">
         <v>1604</v>
       </c>
-      <c r="QG3" s="26" t="s">
+      <c r="QH3" s="26" t="s">
         <v>1605</v>
       </c>
-      <c r="QH3" s="26" t="s">
+      <c r="QI3" s="26" t="s">
         <v>1606</v>
       </c>
-      <c r="QI3" s="26" t="s">
+      <c r="QJ3" s="26" t="s">
         <v>1607</v>
       </c>
-      <c r="QJ3" s="26" t="s">
+      <c r="QK3" s="26" t="s">
         <v>1608</v>
       </c>
-      <c r="QK3" s="26" t="s">
+      <c r="QL3" s="26" t="s">
         <v>1609</v>
       </c>
-      <c r="QL3" s="26" t="s">
+      <c r="QM3" s="26" t="s">
         <v>1610</v>
       </c>
-      <c r="QM3" s="26" t="s">
+      <c r="QN3" s="26" t="s">
         <v>1611</v>
       </c>
-      <c r="QN3" s="26" t="s">
+      <c r="QO3" s="26" t="s">
         <v>1612</v>
       </c>
-      <c r="QO3" s="26" t="s">
+      <c r="QP3" s="26" t="s">
         <v>1613</v>
       </c>
-      <c r="QP3" s="26" t="s">
+      <c r="QQ3" s="26" t="s">
         <v>1614</v>
       </c>
-      <c r="QQ3" s="26" t="s">
+      <c r="QR3" s="26" t="s">
         <v>1615</v>
       </c>
-      <c r="QR3" s="26" t="s">
+      <c r="QS3" s="26" t="s">
         <v>1616</v>
       </c>
-      <c r="QS3" s="26" t="s">
+      <c r="QT3" s="26" t="s">
         <v>1617</v>
       </c>
-      <c r="QT3" s="26" t="s">
+      <c r="QU3" s="26" t="s">
         <v>1618</v>
       </c>
-      <c r="QU3" s="26" t="s">
+      <c r="QV3" s="26" t="s">
         <v>1619</v>
       </c>
-      <c r="QV3" s="26" t="s">
+      <c r="QW3" s="26" t="s">
         <v>1620</v>
       </c>
-      <c r="QW3" s="26" t="s">
+      <c r="QX3" s="26" t="s">
         <v>1621</v>
       </c>
-      <c r="QX3" s="26" t="s">
+      <c r="QY3" s="26" t="s">
         <v>1622</v>
       </c>
-      <c r="QY3" s="26" t="s">
+      <c r="QZ3" s="26" t="s">
         <v>1623</v>
       </c>
-      <c r="QZ3" s="26" t="s">
+      <c r="RA3" s="26" t="s">
         <v>1624</v>
       </c>
-      <c r="RA3" s="26" t="s">
+      <c r="RB3" s="26" t="s">
         <v>1625</v>
       </c>
-      <c r="RB3" s="26" t="s">
+      <c r="RC3" s="26" t="s">
         <v>1626</v>
       </c>
-      <c r="RC3" s="26" t="s">
+      <c r="RD3" s="26" t="s">
         <v>1627</v>
       </c>
-      <c r="RD3" s="26" t="s">
+      <c r="RE3" s="26" t="s">
         <v>1628</v>
       </c>
-      <c r="RE3" s="26" t="s">
+      <c r="RF3" s="26" t="s">
         <v>1629</v>
       </c>
-      <c r="RF3" s="26" t="s">
+      <c r="RG3" s="26" t="s">
         <v>1630</v>
       </c>
-      <c r="RG3" s="26" t="s">
+      <c r="RH3" s="26" t="s">
         <v>1631</v>
       </c>
-      <c r="RH3" s="26" t="s">
+      <c r="RI3" s="26" t="s">
         <v>1632</v>
       </c>
-      <c r="RI3" s="26" t="s">
+      <c r="RJ3" s="26" t="s">
         <v>1633</v>
       </c>
-      <c r="RJ3" s="26" t="s">
+      <c r="RK3" s="26" t="s">
         <v>1634</v>
       </c>
-      <c r="RK3" s="26" t="s">
+      <c r="RL3" s="26" t="s">
         <v>1635</v>
       </c>
-      <c r="RL3" s="26" t="s">
+      <c r="RM3" s="26" t="s">
         <v>1636</v>
       </c>
-      <c r="RM3" s="26" t="s">
+      <c r="RN3" s="26" t="s">
         <v>1637</v>
       </c>
-      <c r="RN3" s="26" t="s">
+      <c r="RO3" s="26" t="s">
         <v>1638</v>
       </c>
-      <c r="RO3" s="26" t="s">
+      <c r="RP3" s="26" t="s">
         <v>1639</v>
       </c>
-      <c r="RP3" s="26" t="s">
+      <c r="RQ3" s="26" t="s">
         <v>1640</v>
       </c>
-      <c r="RQ3" s="26" t="s">
+      <c r="RR3" s="26" t="s">
         <v>1641</v>
       </c>
-      <c r="RR3" s="26" t="s">
+      <c r="RS3" s="26" t="s">
         <v>1642</v>
       </c>
-      <c r="RS3" s="26" t="s">
+      <c r="RT3" s="26" t="s">
         <v>1643</v>
       </c>
-      <c r="RT3" s="26" t="s">
+      <c r="RU3" s="26" t="s">
         <v>1644</v>
       </c>
-      <c r="RU3" s="26" t="s">
+      <c r="RV3" s="26" t="s">
         <v>1645</v>
       </c>
-      <c r="RV3" s="26" t="s">
+      <c r="RW3" s="26" t="s">
         <v>1646</v>
       </c>
-      <c r="RW3" s="26" t="s">
+      <c r="RX3" s="26" t="s">
         <v>1647</v>
       </c>
-      <c r="RX3" s="26" t="s">
+      <c r="RY3" s="26" t="s">
         <v>1648</v>
       </c>
-      <c r="RY3" s="26" t="s">
+      <c r="RZ3" s="26" t="s">
         <v>1649</v>
       </c>
-      <c r="RZ3" s="26" t="s">
+      <c r="SA3" s="26" t="s">
         <v>1650</v>
       </c>
-      <c r="SA3" s="26" t="s">
+      <c r="SB3" s="26" t="s">
         <v>1651</v>
       </c>
-      <c r="SB3" s="26" t="s">
+      <c r="SC3" s="26" t="s">
         <v>1652</v>
       </c>
-      <c r="SC3" s="26" t="s">
+      <c r="SD3" s="26" t="s">
         <v>1653</v>
       </c>
-      <c r="SD3" s="26" t="s">
+      <c r="SE3" s="26" t="s">
         <v>1654</v>
       </c>
-      <c r="SE3" s="26" t="s">
+      <c r="SF3" s="26" t="s">
         <v>1655</v>
       </c>
-      <c r="SF3" s="26" t="s">
+      <c r="SG3" s="26" t="s">
         <v>1656</v>
       </c>
-      <c r="SG3" s="26" t="s">
+      <c r="SH3" s="26" t="s">
         <v>1657</v>
       </c>
-      <c r="SH3" s="26" t="s">
+      <c r="SI3" s="26" t="s">
         <v>1658</v>
       </c>
-      <c r="SI3" s="26" t="s">
+      <c r="SJ3" s="26" t="s">
         <v>1659</v>
       </c>
-      <c r="SJ3" s="26" t="s">
+      <c r="SK3" s="26" t="s">
         <v>1660</v>
       </c>
-      <c r="SK3" s="26" t="s">
+      <c r="SL3" s="26" t="s">
         <v>1661</v>
       </c>
-      <c r="SL3" s="26" t="s">
+      <c r="SM3" s="26" t="s">
         <v>1662</v>
       </c>
-      <c r="SM3" s="26" t="s">
+      <c r="SN3" s="26" t="s">
         <v>1663</v>
       </c>
-      <c r="SN3" s="26" t="s">
+      <c r="SO3" s="26" t="s">
         <v>1664</v>
       </c>
-      <c r="SO3" s="26" t="s">
+      <c r="SP3" s="26" t="s">
         <v>1665</v>
       </c>
-      <c r="SP3" s="26" t="s">
+      <c r="SQ3" s="26" t="s">
         <v>1666</v>
       </c>
-      <c r="SQ3" s="26" t="s">
+      <c r="SR3" s="26" t="s">
         <v>1667</v>
       </c>
-      <c r="SR3" s="26" t="s">
+      <c r="SS3" s="26" t="s">
         <v>1668</v>
       </c>
-      <c r="SS3" s="26" t="s">
+      <c r="ST3" s="26" t="s">
         <v>1669</v>
       </c>
-      <c r="ST3" s="26" t="s">
+      <c r="SU3" s="26" t="s">
         <v>1670</v>
       </c>
-      <c r="SU3" s="26" t="s">
+      <c r="SV3" s="26" t="s">
         <v>1671</v>
       </c>
-      <c r="SV3" s="26" t="s">
+      <c r="SW3" s="26" t="s">
         <v>1672</v>
       </c>
-      <c r="SW3" s="26" t="s">
+      <c r="SX3" s="26" t="s">
         <v>1673</v>
       </c>
-      <c r="SX3" s="26" t="s">
+      <c r="SY3" s="26" t="s">
         <v>1674</v>
       </c>
-      <c r="SY3" s="26" t="s">
+      <c r="SZ3" s="26" t="s">
         <v>1675</v>
       </c>
-      <c r="SZ3" s="26" t="s">
+      <c r="TA3" s="26" t="s">
         <v>1676</v>
       </c>
-      <c r="TA3" s="26" t="s">
+      <c r="TB3" s="26" t="s">
         <v>1677</v>
       </c>
-      <c r="TB3" s="26" t="s">
+      <c r="TC3" s="26" t="s">
         <v>1678</v>
       </c>
-      <c r="TC3" s="26" t="s">
+      <c r="TD3" s="26" t="s">
         <v>1679</v>
       </c>
-      <c r="TD3" s="26" t="s">
+      <c r="TE3" s="26" t="s">
         <v>1680</v>
       </c>
-      <c r="TE3" s="26" t="s">
+      <c r="TF3" s="26" t="s">
         <v>1681</v>
       </c>
-      <c r="TF3" s="26" t="s">
+      <c r="TG3" s="26" t="s">
         <v>1682</v>
       </c>
-      <c r="TG3" s="26" t="s">
+      <c r="TH3" s="26" t="s">
         <v>1683</v>
       </c>
-      <c r="TH3" s="26" t="s">
+      <c r="TI3" s="26" t="s">
         <v>1684</v>
       </c>
-      <c r="TI3" s="26" t="s">
+      <c r="TJ3" s="26" t="s">
         <v>1685</v>
       </c>
-      <c r="TJ3" s="26" t="s">
+      <c r="TK3" s="26" t="s">
         <v>1686</v>
       </c>
-      <c r="TK3" s="26" t="s">
+      <c r="TL3" s="26" t="s">
         <v>1687</v>
       </c>
-      <c r="TL3" s="26" t="s">
+      <c r="TM3" s="26" t="s">
         <v>1688</v>
       </c>
-      <c r="TM3" s="26" t="s">
+      <c r="TN3" s="26" t="s">
         <v>1689</v>
       </c>
-      <c r="TN3" s="26" t="s">
+      <c r="TO3" s="26" t="s">
         <v>1690</v>
       </c>
-      <c r="TO3" s="26" t="s">
+      <c r="TP3" s="26" t="s">
         <v>1691</v>
       </c>
-      <c r="TP3" s="26" t="s">
+      <c r="TQ3" s="26" t="s">
         <v>1692</v>
       </c>
-      <c r="TQ3" s="26" t="s">
+      <c r="TR3" s="26" t="s">
         <v>1693</v>
       </c>
-      <c r="TR3" s="26" t="s">
+      <c r="TS3" s="26" t="s">
         <v>1694</v>
       </c>
-      <c r="TS3" s="26" t="s">
+      <c r="TT3" s="26" t="s">
         <v>1695</v>
       </c>
-      <c r="TT3" s="26" t="s">
+      <c r="TU3" s="26" t="s">
         <v>1696</v>
       </c>
-      <c r="TU3" s="26" t="s">
+      <c r="TV3" s="26" t="s">
         <v>1697</v>
       </c>
-      <c r="TV3" s="26" t="s">
+      <c r="TW3" s="26" t="s">
         <v>1698</v>
       </c>
-      <c r="TW3" s="26" t="s">
+      <c r="TX3" s="26" t="s">
         <v>1699</v>
       </c>
-      <c r="TX3" s="26" t="s">
+      <c r="TY3" s="26" t="s">
         <v>1700</v>
       </c>
-      <c r="TY3" s="26" t="s">
+      <c r="TZ3" s="26" t="s">
         <v>1701</v>
       </c>
-      <c r="TZ3" s="26" t="s">
+      <c r="UA3" s="26" t="s">
         <v>1702</v>
       </c>
-      <c r="UA3" s="26" t="s">
+      <c r="UB3" s="26" t="s">
         <v>1703</v>
       </c>
-      <c r="UB3" s="26" t="s">
+      <c r="UC3" s="26" t="s">
         <v>1704</v>
       </c>
-      <c r="UC3" s="26" t="s">
+      <c r="UD3" s="26" t="s">
         <v>1705</v>
       </c>
-      <c r="UD3" s="26" t="s">
+      <c r="UE3" s="26" t="s">
         <v>1706</v>
       </c>
-      <c r="UE3" s="26" t="s">
+      <c r="UF3" s="26" t="s">
         <v>1707</v>
       </c>
-      <c r="UF3" s="26" t="s">
+      <c r="UG3" s="26" t="s">
         <v>1708</v>
       </c>
-      <c r="UG3" s="26" t="s">
+      <c r="UH3" s="26" t="s">
         <v>1709</v>
       </c>
-      <c r="UH3" s="26" t="s">
+      <c r="UI3" s="26" t="s">
         <v>1710</v>
       </c>
-      <c r="UI3" s="26" t="s">
+      <c r="UJ3" s="26" t="s">
         <v>1711</v>
       </c>
-      <c r="UJ3" s="26" t="s">
+      <c r="UK3" s="26" t="s">
         <v>1712</v>
       </c>
-      <c r="UK3" s="26" t="s">
+      <c r="UL3" s="26" t="s">
         <v>1713</v>
       </c>
-      <c r="UL3" s="26" t="s">
+      <c r="UM3" s="26" t="s">
         <v>1714</v>
       </c>
-      <c r="UM3" s="26" t="s">
+      <c r="UN3" s="26" t="s">
         <v>1715</v>
       </c>
-      <c r="UN3" s="26" t="s">
+      <c r="UO3" s="26" t="s">
         <v>1716</v>
       </c>
-      <c r="UO3" s="26" t="s">
+      <c r="UP3" s="26" t="s">
         <v>1717</v>
       </c>
-      <c r="UP3" s="26" t="s">
+      <c r="UQ3" s="26" t="s">
         <v>1718</v>
       </c>
-      <c r="UQ3" s="26" t="s">
+      <c r="UR3" s="26" t="s">
         <v>1719</v>
       </c>
-      <c r="UR3" s="26" t="s">
+      <c r="US3" s="26" t="s">
         <v>1720</v>
       </c>
-      <c r="US3" s="26" t="s">
+      <c r="UT3" s="26" t="s">
         <v>1721</v>
       </c>
-      <c r="UT3" s="26" t="s">
+      <c r="UU3" s="26" t="s">
         <v>1722</v>
       </c>
-      <c r="UU3" s="26" t="s">
+      <c r="UV3" s="26" t="s">
         <v>1723</v>
       </c>
-      <c r="UV3" s="26" t="s">
+      <c r="UW3" s="26" t="s">
         <v>1724</v>
       </c>
-      <c r="UW3" s="26" t="s">
+      <c r="UX3" s="26" t="s">
         <v>1725</v>
       </c>
-      <c r="UX3" s="26" t="s">
+      <c r="UY3" s="26" t="s">
         <v>1726</v>
       </c>
-      <c r="UY3" s="26" t="s">
+      <c r="UZ3" s="26" t="s">
         <v>1727</v>
       </c>
-      <c r="UZ3" s="26" t="s">
+      <c r="VA3" s="26" t="s">
         <v>1728</v>
       </c>
-      <c r="VA3" s="26" t="s">
+      <c r="VB3" s="26" t="s">
         <v>1729</v>
       </c>
-      <c r="VB3" s="26" t="s">
+      <c r="VC3" s="26" t="s">
         <v>1730</v>
       </c>
-      <c r="VC3" s="26" t="s">
+      <c r="VD3" s="26" t="s">
         <v>1731</v>
       </c>
-      <c r="VD3" s="26" t="s">
+      <c r="VE3" s="26" t="s">
         <v>1732</v>
       </c>
-      <c r="VE3" s="26" t="s">
+      <c r="VF3" s="26" t="s">
         <v>1733</v>
       </c>
-      <c r="VF3" s="26" t="s">
+      <c r="VG3" s="26" t="s">
         <v>1734</v>
       </c>
-      <c r="VG3" s="26" t="s">
+      <c r="VH3" s="26" t="s">
         <v>1735</v>
       </c>
-      <c r="VH3" s="26" t="s">
+      <c r="VI3" s="26" t="s">
         <v>1736</v>
       </c>
-      <c r="VI3" s="26" t="s">
+      <c r="VJ3" s="26" t="s">
         <v>1737</v>
       </c>
-      <c r="VJ3" s="26" t="s">
+      <c r="VK3" s="26" t="s">
         <v>1738</v>
       </c>
-      <c r="VK3" s="26" t="s">
+      <c r="VL3" s="26" t="s">
         <v>1739</v>
       </c>
-      <c r="VL3" s="26" t="s">
+      <c r="VM3" s="26" t="s">
         <v>1740</v>
       </c>
-      <c r="VM3" s="26" t="s">
+      <c r="VN3" s="26" t="s">
         <v>1741</v>
       </c>
-      <c r="VN3" s="26" t="s">
+      <c r="VO3" s="26" t="s">
         <v>1793</v>
       </c>
-      <c r="VO3" s="26" t="s">
+      <c r="VP3" s="26" t="s">
         <v>1742</v>
       </c>
-      <c r="VP3" s="26" t="s">
+      <c r="VQ3" s="26" t="s">
         <v>1743</v>
       </c>
-      <c r="VQ3" s="26" t="s">
+      <c r="VR3" s="26" t="s">
         <v>1744</v>
       </c>
-      <c r="VR3" s="26" t="s">
+      <c r="VS3" s="26" t="s">
         <v>1745</v>
       </c>
-      <c r="VS3" s="26" t="s">
+      <c r="VT3" s="26" t="s">
         <v>1746</v>
       </c>
-      <c r="VT3" s="26" t="s">
+      <c r="VU3" s="26" t="s">
         <v>1747</v>
       </c>
-      <c r="VU3" s="26" t="s">
+      <c r="VV3" s="26" t="s">
         <v>1748</v>
       </c>
-      <c r="VV3" s="26" t="s">
+      <c r="VW3" s="26" t="s">
         <v>1749</v>
       </c>
-      <c r="VW3" s="26" t="s">
+      <c r="VX3" s="26" t="s">
         <v>1750</v>
       </c>
-      <c r="VX3" s="26" t="s">
+      <c r="VY3" s="26" t="s">
         <v>1751</v>
       </c>
-      <c r="VY3" s="26" t="s">
+      <c r="VZ3" s="26" t="s">
         <v>1752</v>
       </c>
-      <c r="VZ3" s="26" t="s">
+      <c r="WA3" s="26" t="s">
         <v>1753</v>
       </c>
-      <c r="WA3" s="26" t="s">
+      <c r="WB3" s="26" t="s">
         <v>1754</v>
       </c>
-      <c r="WB3" s="26" t="s">
+      <c r="WC3" s="26" t="s">
         <v>1755</v>
       </c>
-      <c r="WC3" s="26" t="s">
+      <c r="WD3" s="26" t="s">
         <v>1756</v>
       </c>
-      <c r="WD3" s="26" t="s">
+      <c r="WE3" s="26" t="s">
         <v>1757</v>
       </c>
-      <c r="WE3" s="26" t="s">
+      <c r="WF3" s="26" t="s">
         <v>1758</v>
       </c>
-      <c r="WF3" s="26" t="s">
+      <c r="WG3" s="26" t="s">
         <v>1759</v>
       </c>
-      <c r="WG3" s="26" t="s">
+      <c r="WH3" s="26" t="s">
         <v>1760</v>
-      </c>
-      <c r="WH3" s="18" t="s">
-        <v>1187</v>
       </c>
       <c r="WI3" s="18" t="s">
         <v>1187</v>
       </c>
-      <c r="WJ3" s="28" t="s">
+      <c r="WJ3" s="18" t="s">
+        <v>1187</v>
+      </c>
+      <c r="WK3" s="28" t="s">
         <v>1191</v>
       </c>
-      <c r="WK3" s="29" t="s">
+      <c r="WL3" s="29" t="s">
         <v>1190</v>
       </c>
-      <c r="WL3" s="26" t="s">
+      <c r="WM3" s="26" t="s">
         <v>1761</v>
       </c>
-      <c r="WM3" s="26" t="s">
+      <c r="WN3" s="26" t="s">
         <v>1762</v>
       </c>
-      <c r="WN3" s="26" t="s">
+      <c r="WO3" s="26" t="s">
         <v>1763</v>
       </c>
-      <c r="WO3" s="26" t="s">
+      <c r="WP3" s="26" t="s">
         <v>1764</v>
       </c>
-      <c r="WP3" s="26" t="s">
+      <c r="WQ3" s="26" t="s">
         <v>1765</v>
       </c>
-      <c r="WQ3" s="26" t="s">
+      <c r="WR3" s="26" t="s">
         <v>1766</v>
       </c>
-      <c r="WR3" s="26" t="s">
+      <c r="WS3" s="26" t="s">
         <v>1767</v>
       </c>
-      <c r="WS3" s="26" t="s">
+      <c r="WT3" s="26" t="s">
         <v>1768</v>
       </c>
-      <c r="WT3" s="26" t="s">
+      <c r="WU3" s="26" t="s">
         <v>1769</v>
       </c>
-      <c r="WU3" s="26" t="s">
+      <c r="WV3" s="26" t="s">
         <v>1770</v>
       </c>
-      <c r="WV3" s="26" t="s">
+      <c r="WW3" s="26" t="s">
         <v>1771</v>
       </c>
-      <c r="WW3" s="26" t="s">
+      <c r="WX3" s="26" t="s">
         <v>1772</v>
       </c>
-      <c r="WX3" s="26" t="s">
+      <c r="WY3" s="26" t="s">
         <v>1773</v>
       </c>
-      <c r="WY3" s="26" t="s">
+      <c r="WZ3" s="26" t="s">
         <v>1774</v>
       </c>
-      <c r="WZ3" s="26" t="s">
+      <c r="XA3" s="26" t="s">
         <v>1775</v>
       </c>
-      <c r="XA3" s="26" t="s">
+      <c r="XB3" s="26" t="s">
         <v>1776</v>
       </c>
-      <c r="XB3" s="26" t="s">
+      <c r="XC3" s="26" t="s">
         <v>1777</v>
       </c>
-      <c r="XC3" s="26" t="s">
+      <c r="XD3" s="26" t="s">
         <v>1778</v>
       </c>
-      <c r="XD3" s="27" t="s">
+      <c r="XE3" s="27" t="s">
         <v>1192</v>
       </c>
-      <c r="XE3" s="26" t="s">
+      <c r="XF3" s="26" t="s">
         <v>1779</v>
       </c>
-      <c r="XF3" s="26"/>
       <c r="XG3" s="26"/>
       <c r="XH3" s="26"/>
-    </row>
-    <row r="4" spans="1:634" s="22" customFormat="1">
-      <c r="A4" s="22">
+      <c r="XI3" s="26"/>
+    </row>
+    <row r="4" spans="1:635" s="22" customFormat="1">
+      <c r="B4" s="22">
         <v>556</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="C4" s="22" t="s">
         <v>1781</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="F4" s="35" t="s">
         <v>1853</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="G4" s="22" t="s">
         <v>1842</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="H4" s="22" t="s">
         <v>1841</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="I4" s="22" t="s">
         <v>1846</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="J4" s="23" t="s">
         <v>1808</v>
       </c>
-      <c r="ID4" s="22" t="s">
+      <c r="IE4" s="22" t="s">
         <v>1809</v>
       </c>
-      <c r="WB4" s="24" t="s">
+      <c r="WC4" s="24" t="s">
         <v>1810</v>
       </c>
-      <c r="WH4" s="24" t="s">
+      <c r="WI4" s="24" t="s">
         <v>1810</v>
       </c>
-      <c r="WP4" s="24" t="s">
+      <c r="WQ4" s="24" t="s">
         <v>1811</v>
       </c>
-      <c r="WT4" s="24" t="s">
+      <c r="WU4" s="24" t="s">
         <v>1812</v>
       </c>
-      <c r="XC4" s="22" t="s">
+      <c r="XD4" s="22" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="5" spans="1:634" s="22" customFormat="1">
-      <c r="A5" s="22">
+    <row r="5" spans="1:635" s="22" customFormat="1">
+      <c r="B5" s="22">
         <v>557</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="22" t="s">
         <v>1781</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="F5" s="35" t="s">
         <v>1853</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="G5" s="22" t="s">
         <v>1842</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="22" t="s">
         <v>1841</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="J5" s="23" t="s">
         <v>1808</v>
       </c>
-      <c r="ID5" s="22" t="s">
+      <c r="IE5" s="22" t="s">
         <v>1809</v>
       </c>
-      <c r="WB5" s="24" t="s">
+      <c r="WC5" s="24" t="s">
         <v>1810</v>
       </c>
-      <c r="WH5" s="24" t="s">
+      <c r="WI5" s="24" t="s">
         <v>1810</v>
       </c>
-      <c r="WP5" s="24" t="s">
+      <c r="WQ5" s="24" t="s">
         <v>1811</v>
       </c>
-      <c r="WT5" s="24" t="s">
+      <c r="WU5" s="24" t="s">
         <v>1812</v>
       </c>
-      <c r="XC5" s="22" t="s">
+      <c r="XD5" s="22" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="6" spans="1:634" s="22" customFormat="1">
-      <c r="A6" s="22">
+    <row r="6" spans="1:635" s="22" customFormat="1">
+      <c r="B6" s="22">
         <v>557</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="22" t="s">
         <v>1782</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="I6" s="23" t="s">
+      <c r="F6" s="34"/>
+      <c r="J6" s="23" t="s">
         <v>1838</v>
       </c>
-      <c r="WB6" s="24"/>
-      <c r="WH6" s="24"/>
-      <c r="WP6" s="24"/>
-      <c r="WT6" s="24"/>
-    </row>
-    <row r="7" spans="1:634" s="22" customFormat="1">
-      <c r="A7" s="22">
+      <c r="WC6" s="24"/>
+      <c r="WI6" s="24"/>
+      <c r="WQ6" s="24"/>
+      <c r="WU6" s="24"/>
+    </row>
+    <row r="7" spans="1:635" s="22" customFormat="1">
+      <c r="B7" s="22">
         <v>557</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="22" t="s">
         <v>1782</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="I7" s="23" t="s">
+      <c r="F7" s="34"/>
+      <c r="J7" s="23" t="s">
         <v>1839</v>
       </c>
-      <c r="WB7" s="24"/>
-      <c r="WH7" s="24"/>
-      <c r="WP7" s="24"/>
-      <c r="WT7" s="24"/>
-    </row>
-    <row r="8" spans="1:634" s="22" customFormat="1">
-      <c r="A8" s="22">
+      <c r="WC7" s="24"/>
+      <c r="WI7" s="24"/>
+      <c r="WQ7" s="24"/>
+      <c r="WU7" s="24"/>
+    </row>
+    <row r="8" spans="1:635" s="22" customFormat="1">
+      <c r="B8" s="22">
         <v>557</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="C8" s="22" t="s">
         <v>1782</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="I8" s="23" t="s">
+      <c r="F8" s="34"/>
+      <c r="J8" s="23" t="s">
         <v>1840</v>
       </c>
-      <c r="WB8" s="24"/>
-      <c r="WH8" s="24"/>
-      <c r="WP8" s="24"/>
-      <c r="WT8" s="24"/>
-    </row>
-    <row r="9" spans="1:634" s="22" customFormat="1">
-      <c r="A9" s="22">
+      <c r="WC8" s="24"/>
+      <c r="WI8" s="24"/>
+      <c r="WQ8" s="24"/>
+      <c r="WU8" s="24"/>
+    </row>
+    <row r="9" spans="1:635" s="22" customFormat="1">
+      <c r="B9" s="22">
         <v>558</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="C9" s="22" t="s">
         <v>1781</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="F9" s="35" t="s">
         <v>1853</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>1842</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="H9" s="22" t="s">
         <v>1841</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="J9" s="23" t="s">
         <v>1808</v>
       </c>
-      <c r="AO9" s="30"/>
-      <c r="ID9" s="22" t="s">
+      <c r="AP9" s="30"/>
+      <c r="IE9" s="22" t="s">
         <v>1809</v>
       </c>
-      <c r="WB9" s="24" t="s">
+      <c r="WC9" s="24" t="s">
         <v>1810</v>
       </c>
-      <c r="WH9" s="24" t="s">
+      <c r="WI9" s="24" t="s">
         <v>1810</v>
       </c>
-      <c r="WP9" s="24" t="s">
+      <c r="WQ9" s="24" t="s">
         <v>1811</v>
       </c>
-      <c r="WT9" s="24" t="s">
+      <c r="WU9" s="24" t="s">
         <v>1812</v>
       </c>
-      <c r="XC9" s="22" t="s">
+      <c r="XD9" s="22" t="s">
         <v>1188</v>
       </c>
-      <c r="XF9" s="22" t="s">
+      <c r="XG9" s="22" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="10" spans="1:634">
-      <c r="E10" s="37"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:634">
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:634">
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:634">
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:634">
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:634">
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:634">
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="26:26">
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="26:26">
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="26:26">
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="26:26">
-      <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="26:26">
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="26:26">
-      <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="26:26">
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="26:26">
-      <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="26:26">
-      <c r="Z25" s="2"/>
+    <row r="10" spans="1:635">
+      <c r="A10" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B10" s="22">
+        <v>123</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>1853</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>1869</v>
+      </c>
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11" spans="1:635">
+      <c r="A11" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B11" s="22">
+        <v>123</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>1872</v>
+      </c>
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="1:635">
+      <c r="A12" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B12" s="22">
+        <v>123</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1874</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AA12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/files/conversion_demo.xlsx
+++ b/WebContent/files/conversion_demo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="1876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="1881">
   <si>
     <t>text</t>
   </si>
@@ -5623,9 +5623,6 @@
     <t>ARK</t>
   </si>
   <si>
-    <t>http://library.ucsd.edu/ark:/20775/bb1234567x</t>
-  </si>
-  <si>
     <t>foo.jpg</t>
   </si>
   <si>
@@ -5648,6 +5645,24 @@
   </si>
   <si>
     <t>Wall text</t>
+  </si>
+  <si>
+    <t>http://library.ucsd.edu/ark:/20775/zz00000011</t>
+  </si>
+  <si>
+    <t>http://library.ucsd.edu/ark:/20775/zz00000022</t>
+  </si>
+  <si>
+    <t>http://library.ucsd.edu/ark:/20775/zz00000033</t>
+  </si>
+  <si>
+    <t>http://library.ucsd.edu/ark:/20775/zz00000044</t>
+  </si>
+  <si>
+    <t>http://library.ucsd.edu/ark:/20775/zz00000055</t>
+  </si>
+  <si>
+    <t>http://library.ucsd.edu/ark:/20775/zz00000066</t>
   </si>
 </sst>
 </file>
@@ -6202,7 +6217,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -6252,6 +6267,18 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6321,7 +6348,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="67">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -6353,6 +6380,12 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -6361,6 +6394,12 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 2" xfId="48"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -73691,6 +73730,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
@@ -76210,6 +76250,9 @@
       </c>
     </row>
     <row r="2" spans="1:635" s="17" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>1875</v>
+      </c>
       <c r="B2" s="26" t="s">
         <v>1186</v>
       </c>
@@ -78074,7 +78117,12 @@
       </c>
     </row>
     <row r="3" spans="1:635" s="17" customFormat="1">
-      <c r="B3" s="26"/>
+      <c r="A3" s="17" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>1186</v>
+      </c>
       <c r="C3" s="27" t="s">
         <v>1782</v>
       </c>
@@ -79916,6 +79964,9 @@
       <c r="XI3" s="26"/>
     </row>
     <row r="4" spans="1:635" s="22" customFormat="1">
+      <c r="A4" s="17" t="s">
+        <v>1876</v>
+      </c>
       <c r="B4" s="22">
         <v>556</v>
       </c>
@@ -79957,6 +80008,9 @@
       </c>
     </row>
     <row r="5" spans="1:635" s="22" customFormat="1">
+      <c r="A5" s="17" t="s">
+        <v>1877</v>
+      </c>
       <c r="B5" s="22">
         <v>557</v>
       </c>
@@ -79995,6 +80049,9 @@
       </c>
     </row>
     <row r="6" spans="1:635" s="22" customFormat="1">
+      <c r="A6" s="17" t="s">
+        <v>1877</v>
+      </c>
       <c r="B6" s="22">
         <v>557</v>
       </c>
@@ -80011,6 +80068,9 @@
       <c r="WU6" s="24"/>
     </row>
     <row r="7" spans="1:635" s="22" customFormat="1">
+      <c r="A7" s="17" t="s">
+        <v>1877</v>
+      </c>
       <c r="B7" s="22">
         <v>557</v>
       </c>
@@ -80027,6 +80087,9 @@
       <c r="WU7" s="24"/>
     </row>
     <row r="8" spans="1:635" s="22" customFormat="1">
+      <c r="A8" s="17" t="s">
+        <v>1878</v>
+      </c>
       <c r="B8" s="22">
         <v>557</v>
       </c>
@@ -80043,6 +80106,9 @@
       <c r="WU8" s="24"/>
     </row>
     <row r="9" spans="1:635" s="22" customFormat="1">
+      <c r="A9" s="17" t="s">
+        <v>1879</v>
+      </c>
       <c r="B9" s="22">
         <v>558</v>
       </c>
@@ -80085,8 +80151,8 @@
       </c>
     </row>
     <row r="10" spans="1:635">
-      <c r="A10" t="s">
-        <v>1867</v>
+      <c r="A10" s="17" t="s">
+        <v>1880</v>
       </c>
       <c r="B10" s="22">
         <v>123</v>
@@ -80095,7 +80161,7 @@
         <v>1781</v>
       </c>
       <c r="D10" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E10" t="s">
         <v>1189</v>
@@ -80104,13 +80170,13 @@
         <v>1853</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:635">
-      <c r="A11" t="s">
-        <v>1867</v>
+      <c r="A11" s="17" t="s">
+        <v>1880</v>
       </c>
       <c r="B11" s="22">
         <v>123</v>
@@ -80119,19 +80185,19 @@
         <v>1782</v>
       </c>
       <c r="D11" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E11" t="s">
         <v>1870</v>
       </c>
-      <c r="E11" t="s">
+      <c r="J11" s="39" t="s">
         <v>1871</v>
       </c>
-      <c r="J11" s="39" t="s">
-        <v>1872</v>
-      </c>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:635">
-      <c r="A12" t="s">
-        <v>1867</v>
+      <c r="A12" s="17" t="s">
+        <v>1880</v>
       </c>
       <c r="B12" s="22">
         <v>123</v>
@@ -80140,13 +80206,13 @@
         <v>1782</v>
       </c>
       <c r="D12" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E12" t="s">
         <v>1873</v>
       </c>
-      <c r="E12" t="s">
+      <c r="J12" s="39" t="s">
         <v>1874</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>1875</v>
       </c>
       <c r="AA12" s="2"/>
     </row>
